--- a/summary/als/grouped_budget.xlsx
+++ b/summary/als/grouped_budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="239">
   <si>
     <t>WELL</t>
   </si>
@@ -253,6 +253,9 @@
     <t>ACAL-249</t>
   </si>
   <si>
+    <t>ACAL-251H</t>
+  </si>
+  <si>
     <t>ACAM-142</t>
   </si>
   <si>
@@ -283,9 +286,6 @@
     <t>ACAP-056</t>
   </si>
   <si>
-    <t>ACAP-100</t>
-  </si>
-  <si>
     <t>ACAP-176</t>
   </si>
   <si>
@@ -325,6 +325,9 @@
     <t>ACAR-268</t>
   </si>
   <si>
+    <t>ACAR-269H</t>
+  </si>
+  <si>
     <t>ACSA-006</t>
   </si>
   <si>
@@ -557,6 +560,9 @@
   </si>
   <si>
     <t>CNOE-014</t>
+  </si>
+  <si>
+    <t>CNOE-030</t>
   </si>
   <si>
     <t>CNOF-053</t>
@@ -1082,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L293"/>
+  <dimension ref="A1:L297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1134,7 +1140,7 @@
         <v>2021</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2">
         <v>2030.51</v>
@@ -1172,7 +1178,7 @@
         <v>2024</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E3">
         <v>13088.98</v>
@@ -1210,7 +1216,7 @@
         <v>2024</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E4">
         <v>17514.05</v>
@@ -1248,7 +1254,7 @@
         <v>2022</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E5">
         <v>11588.81</v>
@@ -1286,7 +1292,7 @@
         <v>2024</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E6">
         <v>40530.62</v>
@@ -1324,7 +1330,7 @@
         <v>2024</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E7">
         <v>13439.56</v>
@@ -1362,7 +1368,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E8">
         <v>5512.77</v>
@@ -1400,7 +1406,7 @@
         <v>2019</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1438,7 +1444,7 @@
         <v>2022</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E10">
         <v>15611.56</v>
@@ -1476,7 +1482,7 @@
         <v>2022</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E11">
         <v>16823.1</v>
@@ -1514,7 +1520,7 @@
         <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E12">
         <v>11108.68</v>
@@ -1552,7 +1558,7 @@
         <v>2022</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E13">
         <v>13591.05</v>
@@ -1590,7 +1596,7 @@
         <v>2024</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E14">
         <v>27077.93</v>
@@ -1628,7 +1634,7 @@
         <v>2022</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E15">
         <v>19689.11</v>
@@ -1666,7 +1672,7 @@
         <v>2019</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E16">
         <v>14875.23</v>
@@ -1704,7 +1710,7 @@
         <v>2020</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E17">
         <v>6205.74</v>
@@ -1742,7 +1748,7 @@
         <v>2022</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E18">
         <v>16809.41</v>
@@ -1780,7 +1786,7 @@
         <v>2019</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <v>15222.56</v>
@@ -1818,7 +1824,7 @@
         <v>2019</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1856,7 +1862,7 @@
         <v>2024</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E21">
         <v>14141.37</v>
@@ -1894,7 +1900,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E22">
         <v>3366.56</v>
@@ -1932,7 +1938,7 @@
         <v>2024</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1970,7 +1976,7 @@
         <v>2019</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E24">
         <v>11098.74</v>
@@ -2008,7 +2014,7 @@
         <v>2020</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E25">
         <v>21497.05</v>
@@ -2046,7 +2052,7 @@
         <v>2022</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E26">
         <v>6192.63</v>
@@ -2084,7 +2090,7 @@
         <v>2024</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E27">
         <v>12362.17</v>
@@ -2122,7 +2128,7 @@
         <v>2024</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E28">
         <v>20394.94</v>
@@ -2160,7 +2166,7 @@
         <v>2025</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E29">
         <v>39820.85</v>
@@ -2198,7 +2204,7 @@
         <v>2024</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E30">
         <v>36695.74</v>
@@ -2236,7 +2242,7 @@
         <v>2020</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E31">
         <v>18094.14</v>
@@ -2274,7 +2280,7 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E32">
         <v>2698.39</v>
@@ -2312,7 +2318,7 @@
         <v>2022</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E33">
         <v>13656.86</v>
@@ -2350,7 +2356,7 @@
         <v>2024</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E34">
         <v>17109.43</v>
@@ -2388,7 +2394,7 @@
         <v>2024</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E35">
         <v>20112.22</v>
@@ -2426,7 +2432,7 @@
         <v>2024</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E36">
         <v>18313.61</v>
@@ -2464,7 +2470,7 @@
         <v>2025</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E37">
         <v>36289.75</v>
@@ -2502,7 +2508,7 @@
         <v>2020</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E38">
         <v>13432.73</v>
@@ -2540,7 +2546,7 @@
         <v>2022</v>
       </c>
       <c r="D39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E39">
         <v>11717.78</v>
@@ -2578,7 +2584,7 @@
         <v>2025</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E40">
         <v>38308.97</v>
@@ -2616,7 +2622,7 @@
         <v>2024</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E41">
         <v>17909.01</v>
@@ -2654,7 +2660,7 @@
         <v>2018</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E42">
         <v>11661.54</v>
@@ -2692,7 +2698,7 @@
         <v>2024</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E43">
         <v>25920.07</v>
@@ -2730,7 +2736,7 @@
         <v>2025</v>
       </c>
       <c r="D44" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E44">
         <v>28951.89</v>
@@ -2768,7 +2774,7 @@
         <v>2019</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E45">
         <v>7902.42</v>
@@ -2806,7 +2812,7 @@
         <v>2024</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E46">
         <v>17911.7</v>
@@ -2844,7 +2850,7 @@
         <v>2019</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E47">
         <v>4029.21</v>
@@ -2882,7 +2888,7 @@
         <v>2018</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2920,7 +2926,7 @@
         <v>2022</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E49">
         <v>13212.72</v>
@@ -2958,7 +2964,7 @@
         <v>2023</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E50">
         <v>14850.64</v>
@@ -2996,7 +3002,7 @@
         <v>2024</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E51">
         <v>26292.88</v>
@@ -3034,7 +3040,7 @@
         <v>2023</v>
       </c>
       <c r="D52" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E52">
         <v>14898.4</v>
@@ -3072,7 +3078,7 @@
         <v>2023</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E53">
         <v>11192.1</v>
@@ -3110,7 +3116,7 @@
         <v>2023</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3148,7 +3154,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3186,7 +3192,7 @@
         <v>2024</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3224,7 +3230,7 @@
         <v>2025</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E57">
         <v>27337.44</v>
@@ -3262,7 +3268,7 @@
         <v>2023</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E58">
         <v>14253.1</v>
@@ -3300,7 +3306,7 @@
         <v>2024</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E59">
         <v>34665.32</v>
@@ -3338,7 +3344,7 @@
         <v>2024</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E60">
         <v>23624.41</v>
@@ -3376,7 +3382,7 @@
         <v>2022</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E61">
         <v>14172.48</v>
@@ -3414,7 +3420,7 @@
         <v>2023</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E62">
         <v>13918.46</v>
@@ -3452,7 +3458,7 @@
         <v>2023</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E63">
         <v>10294.36</v>
@@ -3490,7 +3496,7 @@
         <v>2018</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E64">
         <v>12517.325</v>
@@ -3528,7 +3534,7 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E65">
         <v>6850.57</v>
@@ -3566,7 +3572,7 @@
         <v>2018</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E66">
         <v>11293.84</v>
@@ -3604,7 +3610,7 @@
         <v>2023</v>
       </c>
       <c r="D67" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E67">
         <v>5324.93</v>
@@ -3642,7 +3648,7 @@
         <v>2024</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E68">
         <v>22026.57</v>
@@ -3680,7 +3686,7 @@
         <v>2022</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E69">
         <v>5136.21</v>
@@ -3718,7 +3724,7 @@
         <v>2022</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E70">
         <v>23555.31</v>
@@ -3756,7 +3762,7 @@
         <v>2022</v>
       </c>
       <c r="D71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E71">
         <v>14633.78</v>
@@ -3794,7 +3800,7 @@
         <v>2020</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E72">
         <v>12265.21</v>
@@ -3832,7 +3838,7 @@
         <v>2020</v>
       </c>
       <c r="D73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E73">
         <v>16051.4708</v>
@@ -3870,7 +3876,7 @@
         <v>2022</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E74">
         <v>14520.22</v>
@@ -3908,7 +3914,7 @@
         <v>2024</v>
       </c>
       <c r="D75" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E75">
         <v>33392.59</v>
@@ -3946,7 +3952,7 @@
         <v>2022</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E76">
         <v>14734.78</v>
@@ -3984,7 +3990,7 @@
         <v>2024</v>
       </c>
       <c r="D77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E77">
         <v>22456.42</v>
@@ -4022,7 +4028,7 @@
         <v>2024</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E78">
         <v>19924.56</v>
@@ -4060,7 +4066,7 @@
         <v>2023</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E79">
         <v>14742.64</v>
@@ -4098,7 +4104,7 @@
         <v>2025</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E80">
         <v>34720.53</v>
@@ -4136,7 +4142,7 @@
         <v>2025</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E81">
         <v>19217.69</v>
@@ -4174,7 +4180,7 @@
         <v>2019</v>
       </c>
       <c r="D82" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E82">
         <v>11901.7058</v>
@@ -4212,7 +4218,7 @@
         <v>2023</v>
       </c>
       <c r="D83" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4250,7 +4256,7 @@
         <v>2023</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E84">
         <v>26120.66</v>
@@ -4288,7 +4294,7 @@
         <v>2024</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E85">
         <v>19238.35</v>
@@ -4326,7 +4332,7 @@
         <v>2023</v>
       </c>
       <c r="D86" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E86">
         <v>6617.23</v>
@@ -4364,7 +4370,7 @@
         <v>2023</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E87">
         <v>13464.38</v>
@@ -4402,7 +4408,7 @@
         <v>2021</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E88">
         <v>2116.01</v>
@@ -4434,22 +4440,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E89">
-        <v>14711.09</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="F89">
-        <v>49618.67000000001</v>
+        <v>250365.09</v>
       </c>
       <c r="G89">
-        <v>61905.46</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4464,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>284815.12</v>
+        <v>42006.49</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4472,22 +4478,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90">
         <v>2023</v>
       </c>
       <c r="D90" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E90">
-        <v>22198.98</v>
+        <v>14711.09</v>
       </c>
       <c r="F90">
-        <v>365475.53</v>
+        <v>49618.67000000001</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>61905.46</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4496,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>284815.12</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4510,19 +4516,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D91" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E91">
-        <v>6382.57</v>
+        <v>22198.98</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>365475.53</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4534,13 +4540,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>1027.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4548,19 +4554,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D92" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E92">
-        <v>29516.94</v>
+        <v>6382.57</v>
       </c>
       <c r="F92">
-        <v>51796.53999999999</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4578,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>100399.14</v>
+        <v>1027.18</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4586,25 +4592,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C93">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D93" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E93">
-        <v>15649.2</v>
+        <v>24406.71</v>
       </c>
       <c r="F93">
-        <v>334667.08</v>
+        <v>340968.83</v>
       </c>
       <c r="G93">
-        <v>15739.46</v>
+        <v>5162.22</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4613,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>115340</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -4624,19 +4630,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D94" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>29516.94</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>51796.53999999999</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4654,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>100399.14</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4662,25 +4668,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D95" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E95">
-        <v>16168.77</v>
+        <v>15649.2</v>
       </c>
       <c r="F95">
-        <v>315434.42</v>
+        <v>334667.08</v>
       </c>
       <c r="G95">
-        <v>4338.46</v>
+        <v>15739.46</v>
       </c>
       <c r="H95">
-        <v>37829.88</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4700,19 +4706,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D96" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E96">
-        <v>15012.05</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>192765.56</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4738,25 +4744,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D97" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E97">
-        <v>37882.47</v>
+        <v>16168.77</v>
       </c>
       <c r="F97">
-        <v>278938.71</v>
+        <v>315434.42</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>4338.46</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>37829.88</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4768,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>41846.3631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4776,19 +4782,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D98" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E98">
-        <v>12713.5</v>
+        <v>15012.05</v>
       </c>
       <c r="F98">
-        <v>483449.17</v>
+        <v>192765.56</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4800,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>9236.16</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4814,19 +4820,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D99" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E99">
-        <v>9025.690000000001</v>
+        <v>37882.47</v>
       </c>
       <c r="F99">
-        <v>189081.37</v>
+        <v>278938.71</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4844,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>41846.3631</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4855,16 +4861,16 @@
         <v>86</v>
       </c>
       <c r="C100">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E100">
-        <v>25012.57</v>
+        <v>12713.5</v>
       </c>
       <c r="F100">
-        <v>305436.45</v>
+        <v>483449.17</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4876,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>9236.16</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4893,22 +4899,22 @@
         <v>87</v>
       </c>
       <c r="C101">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D101" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E101">
-        <v>24902.46</v>
+        <v>9025.690000000001</v>
       </c>
       <c r="F101">
-        <v>216741.6</v>
+        <v>189081.37</v>
       </c>
       <c r="G101">
-        <v>18142.73</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>14818.67</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -4928,19 +4934,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E102">
-        <v>11254.31</v>
+        <v>25012.57</v>
       </c>
       <c r="F102">
-        <v>185020.93</v>
+        <v>305436.45</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4969,22 +4975,22 @@
         <v>88</v>
       </c>
       <c r="C103">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D103" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E103">
-        <v>14344.05</v>
+        <v>24902.46</v>
       </c>
       <c r="F103">
-        <v>250146.13</v>
+        <v>216741.6</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>18142.73</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>14818.67</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -5007,16 +5013,16 @@
         <v>89</v>
       </c>
       <c r="C104">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D104" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E104">
-        <v>4154.33</v>
+        <v>11254.31</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>185020.93</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -5042,25 +5048,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D105" t="s">
         <v>229</v>
       </c>
       <c r="E105">
-        <v>19158.29</v>
+        <v>14344.05</v>
       </c>
       <c r="F105">
-        <v>245147.04</v>
+        <v>250146.13</v>
       </c>
       <c r="G105">
-        <v>8612.610000000001</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>25894.03</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -5080,25 +5086,25 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D106" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E106">
-        <v>12607.09</v>
+        <v>19158.29</v>
       </c>
       <c r="F106">
-        <v>192112.37</v>
+        <v>245147.04</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>8612.610000000001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>25894.03</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5118,19 +5124,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C107">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D107" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E107">
-        <v>13265.9958</v>
+        <v>12607.09</v>
       </c>
       <c r="F107">
-        <v>179001.45</v>
+        <v>192112.37</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5159,16 +5165,16 @@
         <v>92</v>
       </c>
       <c r="C108">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D108" t="s">
         <v>227</v>
       </c>
       <c r="E108">
-        <v>13207.01</v>
+        <v>13265.9958</v>
       </c>
       <c r="F108">
-        <v>189201.94</v>
+        <v>179001.45</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -5194,19 +5200,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C109">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D109" t="s">
         <v>229</v>
       </c>
       <c r="E109">
-        <v>15756.67</v>
+        <v>13207.01</v>
       </c>
       <c r="F109">
-        <v>323294.16</v>
+        <v>189201.94</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5235,16 +5241,16 @@
         <v>93</v>
       </c>
       <c r="C110">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D110" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E110">
-        <v>22204.19</v>
+        <v>15756.67</v>
       </c>
       <c r="F110">
-        <v>64218.28000000001</v>
+        <v>323294.16</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5256,13 +5262,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>310278.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5270,37 +5276,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C111">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
       </c>
       <c r="E111">
-        <v>22282.89</v>
+        <v>22204.19</v>
       </c>
       <c r="F111">
-        <v>251197.29</v>
+        <v>64218.28000000001</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>35990.01</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>310278.14</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5308,25 +5314,25 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D112" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E112">
-        <v>16086.49</v>
+        <v>22282.89</v>
       </c>
       <c r="F112">
-        <v>194324.54</v>
+        <v>251197.29</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>35990.01</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5346,19 +5352,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C113">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D113" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E113">
-        <v>4102.18</v>
+        <v>16086.49</v>
       </c>
       <c r="F113">
-        <v>196458.37</v>
+        <v>194324.54</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5387,22 +5393,22 @@
         <v>96</v>
       </c>
       <c r="C114">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D114" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>4102.18</v>
       </c>
       <c r="F114">
-        <v>11583.08</v>
+        <v>196458.37</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>39415.73</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -5422,25 +5428,25 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C115">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D115" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E115">
-        <v>51564.49000000001</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>142368.4</v>
+        <v>11583.08</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>39415.73</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -5463,16 +5469,16 @@
         <v>97</v>
       </c>
       <c r="C116">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E116">
-        <v>29941.48</v>
+        <v>51564.49000000001</v>
       </c>
       <c r="F116">
-        <v>334363.9199999999</v>
+        <v>142368.4</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5484,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5498,31 +5504,31 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E117">
-        <v>23011.02</v>
+        <v>29941.48</v>
       </c>
       <c r="F117">
-        <v>335868.98</v>
+        <v>334363.9199999999</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>37624.97</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5536,25 +5542,25 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118">
         <v>2024</v>
       </c>
       <c r="D118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E118">
-        <v>62144.21999999999</v>
+        <v>23011.02</v>
       </c>
       <c r="F118">
-        <v>342348.13</v>
+        <v>335868.98</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>41557.3</v>
+        <v>37624.97</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5574,25 +5580,25 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C119">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>62144.21999999999</v>
       </c>
       <c r="F119">
-        <v>230958.64</v>
+        <v>342348.13</v>
       </c>
       <c r="G119">
-        <v>11928.76</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>41557.3</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5615,19 +5621,19 @@
         <v>100</v>
       </c>
       <c r="C120">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D120" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E120">
-        <v>38882.28</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>373932.19</v>
+        <v>230958.64</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>11928.76</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5650,25 +5656,25 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C121">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D121" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E121">
-        <v>16827.69</v>
+        <v>38882.28</v>
       </c>
       <c r="F121">
-        <v>126955.56</v>
+        <v>373932.19</v>
       </c>
       <c r="G121">
-        <v>11369.56</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>3447.35</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5680,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>422133.1800000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5691,22 +5697,22 @@
         <v>101</v>
       </c>
       <c r="C122">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E122">
-        <v>17294.34</v>
+        <v>16827.69</v>
       </c>
       <c r="F122">
-        <v>530627.5499999999</v>
+        <v>126955.56</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>11369.56</v>
       </c>
       <c r="H122">
-        <v>36696.35</v>
+        <v>3447.35</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5718,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>422133.1800000001</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5729,22 +5735,22 @@
         <v>101</v>
       </c>
       <c r="C123">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D123" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E123">
-        <v>19622.18999999995</v>
+        <v>17294.34</v>
       </c>
       <c r="F123">
-        <v>339732.7</v>
+        <v>530627.5499999999</v>
       </c>
       <c r="G123">
-        <v>12924.07</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>36735.22</v>
+        <v>36696.35</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5753,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>5293.4</v>
+        <v>0</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -5770,7 +5776,7 @@
         <v>2025</v>
       </c>
       <c r="D124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E124">
         <v>29506.7</v>
@@ -5802,22 +5808,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C125">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D125" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E125">
-        <v>21472</v>
+        <v>36093.04</v>
       </c>
       <c r="F125">
-        <v>333889.53</v>
+        <v>324824.84</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>7421.05</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -5832,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>36863.1</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5843,16 +5849,16 @@
         <v>102</v>
       </c>
       <c r="C126">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D126" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E126">
-        <v>28089.2</v>
+        <v>21472</v>
       </c>
       <c r="F126">
-        <v>160763.94</v>
+        <v>333889.53</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -5870,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>173339.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5878,19 +5884,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C127">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D127" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E127">
-        <v>13038.08</v>
+        <v>28089.2</v>
       </c>
       <c r="F127">
-        <v>233698.36</v>
+        <v>160763.94</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -5902,13 +5908,13 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K127">
         <v>0</v>
       </c>
       <c r="L127">
-        <v>426234.25</v>
+        <v>173339.58</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5919,22 +5925,22 @@
         <v>103</v>
       </c>
       <c r="C128">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D128" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E128">
-        <v>26056.47</v>
+        <v>50944.75</v>
       </c>
       <c r="F128">
-        <v>397911.71</v>
+        <v>288251.2</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -5957,16 +5963,16 @@
         <v>104</v>
       </c>
       <c r="C129">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D129" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E129">
-        <v>12023.96</v>
+        <v>13038.08</v>
       </c>
       <c r="F129">
-        <v>170571.82</v>
+        <v>233698.36</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5978,13 +5984,13 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K129">
         <v>0</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>426234.25</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5995,16 +6001,16 @@
         <v>104</v>
       </c>
       <c r="C130">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D130" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E130">
-        <v>24651.29</v>
+        <v>26056.47</v>
       </c>
       <c r="F130">
-        <v>267851.66</v>
+        <v>397911.71</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -6022,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6033,16 +6039,16 @@
         <v>105</v>
       </c>
       <c r="C131">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D131" t="s">
         <v>229</v>
       </c>
       <c r="E131">
-        <v>13022.6308</v>
+        <v>12023.96</v>
       </c>
       <c r="F131">
-        <v>191304.08</v>
+        <v>170571.82</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -6051,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>1823.6</v>
+        <v>0</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -6071,16 +6077,16 @@
         <v>105</v>
       </c>
       <c r="C132">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="D132" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E132">
-        <v>16728.81</v>
+        <v>24651.29</v>
       </c>
       <c r="F132">
-        <v>289941.13</v>
+        <v>267851.66</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6098,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>29992.31</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6109,16 +6115,16 @@
         <v>106</v>
       </c>
       <c r="C133">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D133" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E133">
-        <v>23912.8</v>
+        <v>13022.6308</v>
       </c>
       <c r="F133">
-        <v>215373.08</v>
+        <v>191304.08</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6127,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1823.6</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -6144,22 +6150,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C134">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D134" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E134">
-        <v>26698.16</v>
+        <v>16728.81</v>
       </c>
       <c r="F134">
-        <v>263627.28</v>
+        <v>289941.13</v>
       </c>
       <c r="G134">
-        <v>43649.7</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -6168,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>15969.07</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -6182,19 +6188,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C135">
         <v>2022</v>
       </c>
       <c r="D135" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E135">
-        <v>16381</v>
+        <v>23912.8</v>
       </c>
       <c r="F135">
-        <v>267912.74</v>
+        <v>215373.08</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -6212,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>123283.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6220,22 +6226,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C136">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D136" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E136">
-        <v>14597.73</v>
+        <v>26698.16</v>
       </c>
       <c r="F136">
-        <v>268490.16</v>
+        <v>263627.28</v>
       </c>
       <c r="G136">
-        <v>27823.54</v>
+        <v>43649.7</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -6244,13 +6250,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>15969.07</v>
       </c>
       <c r="K136">
         <v>0</v>
       </c>
       <c r="L136">
-        <v>66787.85000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6258,19 +6264,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C137">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D137" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E137">
-        <v>15420.4</v>
+        <v>16381</v>
       </c>
       <c r="F137">
-        <v>284483.45</v>
+        <v>267912.74</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -6285,10 +6291,10 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>99980.56</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>123283.02</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6296,22 +6302,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C138">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D138" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E138">
-        <v>13259.48</v>
+        <v>14597.73</v>
       </c>
       <c r="F138">
-        <v>216927.71</v>
+        <v>268490.16</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>27823.54</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -6326,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>66787.85000000001</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6334,19 +6340,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C139">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D139" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E139">
-        <v>13800.27</v>
+        <v>15420.4</v>
       </c>
       <c r="F139">
-        <v>258896.66</v>
+        <v>284483.45</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6361,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>99980.56</v>
       </c>
       <c r="L139">
         <v>0</v>
@@ -6372,19 +6378,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C140">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D140" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E140">
-        <v>33999.38</v>
+        <v>13259.48</v>
       </c>
       <c r="F140">
-        <v>278850.94</v>
+        <v>216927.71</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -6402,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6410,25 +6416,25 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C141">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D141" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E141">
-        <v>19169.37</v>
+        <v>13800.27</v>
       </c>
       <c r="F141">
-        <v>326562.89</v>
+        <v>258896.66</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>41767.11</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -6448,19 +6454,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C142">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D142" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E142">
-        <v>14357.77</v>
+        <v>33999.38</v>
       </c>
       <c r="F142">
-        <v>155228.6425</v>
+        <v>278850.94</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -6478,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>64312.56099999999</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6486,25 +6492,25 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C143">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D143" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E143">
-        <v>19050.0768</v>
+        <v>19169.37</v>
       </c>
       <c r="F143">
-        <v>191974.1147</v>
+        <v>326562.89</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>41767.11</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -6524,25 +6530,25 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C144">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D144" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E144">
-        <v>31243.12</v>
+        <v>14357.77</v>
       </c>
       <c r="F144">
-        <v>44558.3</v>
+        <v>155228.6425</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>37331.03</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -6554,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>281740.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6562,19 +6568,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C145">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D145" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E145">
-        <v>12528.64</v>
+        <v>19050.0768</v>
       </c>
       <c r="F145">
-        <v>200276.65</v>
+        <v>191974.1147</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -6583,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>121492.09</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -6600,25 +6606,25 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C146">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D146" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E146">
-        <v>13177.31</v>
+        <v>31243.12</v>
       </c>
       <c r="F146">
-        <v>221459.31</v>
+        <v>44558.3</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>37331.03</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -6630,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>0</v>
+        <v>281740.09</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6638,19 +6644,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C147">
         <v>2019</v>
       </c>
       <c r="D147" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E147">
-        <v>12543.45</v>
+        <v>12528.64</v>
       </c>
       <c r="F147">
-        <v>217500.3</v>
+        <v>200276.65</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6659,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>121492.09</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6682,13 +6688,13 @@
         <v>2020</v>
       </c>
       <c r="D148" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E148">
-        <v>15225.93</v>
+        <v>13177.31</v>
       </c>
       <c r="F148">
-        <v>315958.39</v>
+        <v>221459.31</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -6720,13 +6726,13 @@
         <v>2019</v>
       </c>
       <c r="D149" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E149">
-        <v>16903.25</v>
+        <v>12543.45</v>
       </c>
       <c r="F149">
-        <v>173362.42</v>
+        <v>217500.3</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -6735,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <v>6691.48</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -6755,16 +6761,16 @@
         <v>121</v>
       </c>
       <c r="C150">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D150" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E150">
-        <v>54121.01</v>
+        <v>15225.93</v>
       </c>
       <c r="F150">
-        <v>1168.52</v>
+        <v>315958.39</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -6782,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>868.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6793,25 +6799,25 @@
         <v>122</v>
       </c>
       <c r="C151">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D151" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E151">
-        <v>28999.4</v>
+        <v>16903.25</v>
       </c>
       <c r="F151">
-        <v>217367.74</v>
+        <v>173362.42</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>34454.64</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>6691.48</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -6828,19 +6834,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C152">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D152" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E152">
-        <v>12619.63</v>
+        <v>54121.01</v>
       </c>
       <c r="F152">
-        <v>207803.61</v>
+        <v>1168.52</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -6858,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>0</v>
+        <v>868.15</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6866,25 +6872,25 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C153">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D153" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E153">
-        <v>10587.69</v>
+        <v>28999.4</v>
       </c>
       <c r="F153">
-        <v>199705.33</v>
+        <v>217367.74</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>34454.64</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -6904,19 +6910,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C154">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D154" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E154">
-        <v>15725.71</v>
+        <v>12619.63</v>
       </c>
       <c r="F154">
-        <v>183327.56</v>
+        <v>207803.61</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -6942,19 +6948,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C155">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D155" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E155">
-        <v>9506.98</v>
+        <v>10587.69</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>199705.33</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -6980,19 +6986,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C156">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D156" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E156">
-        <v>13933</v>
+        <v>15725.71</v>
       </c>
       <c r="F156">
-        <v>184519.4</v>
+        <v>183327.56</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -7018,19 +7024,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C157">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D157" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E157">
-        <v>12477.44</v>
+        <v>9506.98</v>
       </c>
       <c r="F157">
-        <v>188301.9</v>
+        <v>0</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -7062,13 +7068,13 @@
         <v>2019</v>
       </c>
       <c r="D158" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E158">
-        <v>19211.92</v>
+        <v>13933</v>
       </c>
       <c r="F158">
-        <v>220874.14</v>
+        <v>184519.4</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -7094,25 +7100,25 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C159">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D159" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E159">
-        <v>25492.61</v>
+        <v>12477.44</v>
       </c>
       <c r="F159">
-        <v>275325.14</v>
+        <v>188301.9</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>37644.27</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -7138,13 +7144,13 @@
         <v>2019</v>
       </c>
       <c r="D160" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E160">
-        <v>13857.01</v>
+        <v>19211.92</v>
       </c>
       <c r="F160">
-        <v>236977.45</v>
+        <v>220874.14</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -7173,22 +7179,22 @@
         <v>129</v>
       </c>
       <c r="C161">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D161" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>25492.61</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>275325.14</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>37644.27</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -7211,16 +7217,16 @@
         <v>130</v>
       </c>
       <c r="C162">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D162" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E162">
-        <v>15699.21</v>
+        <v>13857.01</v>
       </c>
       <c r="F162">
-        <v>307162.5699999999</v>
+        <v>236977.45</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -7249,16 +7255,16 @@
         <v>130</v>
       </c>
       <c r="C163">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D163" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E163">
-        <v>16248.56</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>467700.0699999999</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -7284,25 +7290,25 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C164">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D164" t="s">
         <v>227</v>
       </c>
       <c r="E164">
-        <v>27757.88</v>
+        <v>15699.21</v>
       </c>
       <c r="F164">
-        <v>289231.3</v>
+        <v>307162.5699999999</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>39974.8</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -7325,16 +7331,16 @@
         <v>131</v>
       </c>
       <c r="C165">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D165" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E165">
-        <v>12415.19</v>
+        <v>16248.56</v>
       </c>
       <c r="F165">
-        <v>175671.60625</v>
+        <v>467700.0699999999</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -7363,22 +7369,22 @@
         <v>131</v>
       </c>
       <c r="C166">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D166" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E166">
-        <v>13046.52</v>
+        <v>27757.88</v>
       </c>
       <c r="F166">
-        <v>318854.3</v>
+        <v>289231.3</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>39974.8</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -7398,22 +7404,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C167">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D167" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E167">
-        <v>24799.71</v>
+        <v>12415.19</v>
       </c>
       <c r="F167">
-        <v>350986.63</v>
+        <v>175671.60625</v>
       </c>
       <c r="G167">
-        <v>71996.78</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -7439,16 +7445,16 @@
         <v>132</v>
       </c>
       <c r="C168">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D168" t="s">
         <v>227</v>
       </c>
       <c r="E168">
-        <v>18143.44</v>
+        <v>13046.52</v>
       </c>
       <c r="F168">
-        <v>160417.17</v>
+        <v>318854.3</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -7474,25 +7480,25 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C169">
         <v>2024</v>
       </c>
       <c r="D169" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E169">
-        <v>42525.34</v>
+        <v>24799.71</v>
       </c>
       <c r="F169">
-        <v>301519.74</v>
+        <v>350986.63</v>
       </c>
       <c r="G169">
-        <v>27920.62</v>
+        <v>71996.78</v>
       </c>
       <c r="H169">
-        <v>1749.83</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -7515,22 +7521,22 @@
         <v>133</v>
       </c>
       <c r="C170">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D170" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E170">
-        <v>22035.11</v>
+        <v>18143.44</v>
       </c>
       <c r="F170">
-        <v>260868.28</v>
+        <v>160417.17</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
       <c r="H170">
-        <v>39735.43</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -7553,22 +7559,22 @@
         <v>134</v>
       </c>
       <c r="C171">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D171" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E171">
-        <v>26955.18</v>
+        <v>42525.34</v>
       </c>
       <c r="F171">
-        <v>193777.99</v>
+        <v>301519.74</v>
       </c>
       <c r="G171">
-        <v>36021.54</v>
+        <v>27920.62</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1749.83</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -7580,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="L171">
-        <v>232325.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7594,28 +7600,28 @@
         <v>2024</v>
       </c>
       <c r="D172" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E172">
-        <v>42759.20999999999</v>
+        <v>22035.11</v>
       </c>
       <c r="F172">
-        <v>314599.93</v>
+        <v>260868.28</v>
       </c>
       <c r="G172">
-        <v>47730.35</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>39735.43</v>
       </c>
       <c r="I172">
-        <v>107351.54</v>
+        <v>0</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172">
-        <v>113446.6</v>
+        <v>0</v>
       </c>
       <c r="L172">
         <v>0</v>
@@ -7629,19 +7635,19 @@
         <v>135</v>
       </c>
       <c r="C173">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D173" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E173">
-        <v>11820</v>
+        <v>26955.18</v>
       </c>
       <c r="F173">
-        <v>198013.18</v>
+        <v>193777.99</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>36021.54</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -7656,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="L173">
-        <v>0</v>
+        <v>232325.59</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7664,34 +7670,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C174">
         <v>2024</v>
       </c>
       <c r="D174" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E174">
-        <v>19256.39</v>
+        <v>42759.20999999999</v>
       </c>
       <c r="F174">
-        <v>275811.8099999999</v>
+        <v>314599.93</v>
       </c>
       <c r="G174">
-        <v>48939.26</v>
+        <v>47730.35</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>107351.54</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>113446.6</v>
       </c>
       <c r="L174">
         <v>0</v>
@@ -7702,19 +7708,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C175">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D175" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E175">
-        <v>16141.67</v>
+        <v>11820</v>
       </c>
       <c r="F175">
-        <v>165224.78</v>
+        <v>198013.18</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -7740,22 +7746,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C176">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D176" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E176">
-        <v>12739.01</v>
+        <v>19256.39</v>
       </c>
       <c r="F176">
-        <v>225647.43</v>
+        <v>275811.8099999999</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>48939.26</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -7778,19 +7784,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C177">
         <v>2020</v>
       </c>
       <c r="D177" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E177">
-        <v>13798.26</v>
+        <v>16141.67</v>
       </c>
       <c r="F177">
-        <v>219894.36</v>
+        <v>165224.78</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -7819,22 +7825,22 @@
         <v>139</v>
       </c>
       <c r="C178">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D178" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E178">
-        <v>32674.29</v>
+        <v>12739.01</v>
       </c>
       <c r="F178">
-        <v>290087.79</v>
+        <v>225647.43</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>16697.25</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -7846,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="L178">
-        <v>18450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7860,13 +7866,13 @@
         <v>2020</v>
       </c>
       <c r="D179" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>13798.26</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>219894.36</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -7895,22 +7901,22 @@
         <v>140</v>
       </c>
       <c r="C180">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D180" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E180">
-        <v>1774.63</v>
+        <v>32674.29</v>
       </c>
       <c r="F180">
-        <v>224481.66</v>
+        <v>290087.79</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>16697.25</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -7922,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="L180">
-        <v>0</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7930,19 +7936,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C181">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D181" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E181">
-        <v>19477.29</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>311733.94</v>
+        <v>0</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -7968,22 +7974,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C182">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D182" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E182">
-        <v>23508.78</v>
+        <v>1774.63</v>
       </c>
       <c r="F182">
-        <v>568269.17</v>
+        <v>224481.66</v>
       </c>
       <c r="G182">
-        <v>2615.02</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -7992,13 +7998,13 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K182">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="L182">
-        <v>19719.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8009,16 +8015,16 @@
         <v>141</v>
       </c>
       <c r="C183">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D183" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E183">
-        <v>35469.37</v>
+        <v>19477.29</v>
       </c>
       <c r="F183">
-        <v>194678.14</v>
+        <v>311733.94</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -8036,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>15195.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8047,34 +8053,34 @@
         <v>141</v>
       </c>
       <c r="C184">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D184" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E184">
-        <v>55450.76</v>
+        <v>23508.78</v>
       </c>
       <c r="F184">
-        <v>217887.65</v>
+        <v>568269.17</v>
       </c>
       <c r="G184">
-        <v>6244.8</v>
+        <v>2615.02</v>
       </c>
       <c r="H184">
-        <v>18450</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K184">
-        <v>68700</v>
+        <v>90840</v>
       </c>
       <c r="L184">
-        <v>0</v>
+        <v>19719.56</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8085,16 +8091,16 @@
         <v>142</v>
       </c>
       <c r="C185">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D185" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E185">
-        <v>1828.08</v>
+        <v>35469.37</v>
       </c>
       <c r="F185">
-        <v>235649.96</v>
+        <v>194678.14</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -8109,10 +8115,10 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>57250</v>
+        <v>0</v>
       </c>
       <c r="L185">
-        <v>0</v>
+        <v>15195.68</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8120,25 +8126,25 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C186">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D186" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E186">
-        <v>11846.76</v>
+        <v>55450.76</v>
       </c>
       <c r="F186">
-        <v>336434.65</v>
+        <v>217887.65</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>6244.8</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -8147,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>68700</v>
       </c>
       <c r="L186">
         <v>0</v>
@@ -8158,34 +8164,34 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C187">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D187" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E187">
-        <v>29758.22</v>
+        <v>1828.08</v>
       </c>
       <c r="F187">
-        <v>245114.65</v>
+        <v>235649.96</v>
       </c>
       <c r="G187">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>10800.63</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>57250</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -8196,22 +8202,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C188">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D188" t="s">
         <v>227</v>
       </c>
       <c r="E188">
-        <v>9802.68</v>
+        <v>11846.76</v>
       </c>
       <c r="F188">
-        <v>36867.7</v>
+        <v>336434.65</v>
       </c>
       <c r="G188">
-        <v>52848.88</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -8226,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="L188">
-        <v>412938.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8234,31 +8240,31 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C189">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="D189" t="s">
         <v>229</v>
       </c>
       <c r="E189">
-        <v>11176.94</v>
+        <v>29758.22</v>
       </c>
       <c r="F189">
-        <v>601025.85</v>
+        <v>245114.65</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>6805.46</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>10800.63</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -8272,22 +8278,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C190">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D190" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E190">
-        <v>23818.85</v>
+        <v>9802.68</v>
       </c>
       <c r="F190">
-        <v>292282.33</v>
+        <v>36867.7</v>
       </c>
       <c r="G190">
-        <v>3569.4</v>
+        <v>52848.88</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -8302,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="L190">
-        <v>0</v>
+        <v>412938.29</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8310,19 +8316,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C191">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D191" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>11176.94</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>601025.85</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -8348,22 +8354,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C192">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D192" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E192">
-        <v>24072.81</v>
+        <v>23818.85</v>
       </c>
       <c r="F192">
-        <v>327804.72</v>
+        <v>292282.33</v>
       </c>
       <c r="G192">
-        <v>12712.97</v>
+        <v>3569.4</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -8386,19 +8392,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C193">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D193" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E193">
-        <v>15831.12</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>282603.38</v>
+        <v>0</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -8416,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <v>105601.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8424,22 +8430,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C194">
         <v>2024</v>
       </c>
       <c r="D194" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E194">
-        <v>16291.92</v>
+        <v>24072.81</v>
       </c>
       <c r="F194">
-        <v>296391.7500000001</v>
+        <v>327804.72</v>
       </c>
       <c r="G194">
-        <v>24492.93</v>
+        <v>12712.97</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -8462,19 +8468,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C195">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D195" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E195">
-        <v>4356.97</v>
+        <v>15831.12</v>
       </c>
       <c r="F195">
-        <v>304463.24</v>
+        <v>282603.38</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -8492,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>105601.09</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8500,22 +8506,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C196">
         <v>2024</v>
       </c>
       <c r="D196" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E196">
-        <v>44241.33</v>
+        <v>16291.92</v>
       </c>
       <c r="F196">
-        <v>257487.24</v>
+        <v>296391.7500000001</v>
       </c>
       <c r="G196">
-        <v>16747.13</v>
+        <v>24492.93</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -8527,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>28311.8</v>
+        <v>0</v>
       </c>
       <c r="L196">
         <v>0</v>
@@ -8538,19 +8544,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C197">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D197" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E197">
-        <v>51564.49000000001</v>
+        <v>4356.97</v>
       </c>
       <c r="F197">
-        <v>159084.44</v>
+        <v>304463.24</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -8576,22 +8582,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C198">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D198" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E198">
-        <v>11420.6</v>
+        <v>44241.33</v>
       </c>
       <c r="F198">
-        <v>367000.79</v>
+        <v>257487.24</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>16747.13</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -8603,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>28311.8</v>
       </c>
       <c r="L198">
         <v>0</v>
@@ -8617,16 +8623,16 @@
         <v>155</v>
       </c>
       <c r="C199">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D199" t="s">
         <v>227</v>
       </c>
       <c r="E199">
-        <v>17985.91</v>
+        <v>51564.49000000001</v>
       </c>
       <c r="F199">
-        <v>386638.67</v>
+        <v>159084.44</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -8641,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>57250</v>
+        <v>0</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -8652,25 +8658,25 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C200">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D200" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E200">
-        <v>33901.57</v>
+        <v>11420.6</v>
       </c>
       <c r="F200">
-        <v>261478.27</v>
+        <v>367000.79</v>
       </c>
       <c r="G200">
-        <v>17002.17</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>275.83</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -8693,22 +8699,22 @@
         <v>156</v>
       </c>
       <c r="C201">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D201" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E201">
-        <v>13998.26</v>
+        <v>17985.91</v>
       </c>
       <c r="F201">
-        <v>333251.0599999999</v>
+        <v>386638.67</v>
       </c>
       <c r="G201">
-        <v>107309.97</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>18144.73</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -8717,10 +8723,10 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>82657.62</v>
+        <v>57250</v>
       </c>
       <c r="L201">
-        <v>43134.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8728,25 +8734,25 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C202">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D202" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E202">
-        <v>21705.25</v>
+        <v>33901.57</v>
       </c>
       <c r="F202">
-        <v>287071.98</v>
+        <v>261478.27</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>17002.17</v>
       </c>
       <c r="H202">
-        <v>36194.4</v>
+        <v>275.83</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -8766,25 +8772,25 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C203">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D203" t="s">
         <v>229</v>
       </c>
       <c r="E203">
-        <v>4479.09</v>
+        <v>13998.26</v>
       </c>
       <c r="F203">
-        <v>323170.59</v>
+        <v>333251.0599999999</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>107309.97</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>18144.73</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -8793,10 +8799,10 @@
         <v>0</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>82657.62</v>
       </c>
       <c r="L203">
-        <v>0</v>
+        <v>43134.62</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8804,25 +8810,25 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C204">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D204" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E204">
-        <v>7347.25</v>
+        <v>21705.25</v>
       </c>
       <c r="F204">
-        <v>237060.74</v>
+        <v>287071.98</v>
       </c>
       <c r="G204">
         <v>0</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -8845,16 +8851,16 @@
         <v>159</v>
       </c>
       <c r="C205">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D205" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E205">
-        <v>28420.94</v>
+        <v>4479.09</v>
       </c>
       <c r="F205">
-        <v>239742.97</v>
+        <v>323170.59</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -8883,16 +8889,16 @@
         <v>160</v>
       </c>
       <c r="C206">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D206" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E206">
-        <v>24323.39</v>
+        <v>7347.25</v>
       </c>
       <c r="F206">
-        <v>332838.29</v>
+        <v>237060.74</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -8918,25 +8924,25 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C207">
         <v>2025</v>
       </c>
       <c r="D207" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E207">
-        <v>24335.07</v>
+        <v>28420.94</v>
       </c>
       <c r="F207">
-        <v>247385.28</v>
+        <v>239742.97</v>
       </c>
       <c r="G207">
         <v>0</v>
       </c>
       <c r="H207">
-        <v>6678.9</v>
+        <v>0</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -8948,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8956,22 +8962,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C208">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D208" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E208">
-        <v>15158.99</v>
+        <v>24323.39</v>
       </c>
       <c r="F208">
-        <v>52951.37</v>
+        <v>332838.29</v>
       </c>
       <c r="G208">
-        <v>82059.82000000001</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -8983,10 +8989,10 @@
         <v>0</v>
       </c>
       <c r="K208">
-        <v>86200</v>
+        <v>0</v>
       </c>
       <c r="L208">
-        <v>382817.33907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8994,25 +9000,25 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C209">
         <v>2025</v>
       </c>
       <c r="D209" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E209">
-        <v>22202.17</v>
+        <v>24335.07</v>
       </c>
       <c r="F209">
-        <v>232396.83</v>
+        <v>247385.28</v>
       </c>
       <c r="G209">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -9024,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="L209">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9032,25 +9038,25 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C210">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D210" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E210">
-        <v>16256.84</v>
+        <v>15158.99</v>
       </c>
       <c r="F210">
-        <v>519564.24</v>
+        <v>52951.37</v>
       </c>
       <c r="G210">
-        <v>27360.25</v>
+        <v>82059.82000000001</v>
       </c>
       <c r="H210">
-        <v>35582.15</v>
+        <v>0</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -9059,10 +9065,10 @@
         <v>0</v>
       </c>
       <c r="K210">
-        <v>163743.27</v>
+        <v>86200</v>
       </c>
       <c r="L210">
-        <v>0</v>
+        <v>382817.33907</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9070,22 +9076,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C211">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D211" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E211">
-        <v>8622.16</v>
+        <v>22202.17</v>
       </c>
       <c r="F211">
-        <v>37065.48</v>
+        <v>231965.51</v>
       </c>
       <c r="G211">
-        <v>58826.03</v>
+        <v>3310.93</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -9100,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="L211">
-        <v>421261.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9108,25 +9114,25 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C212">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D212" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E212">
-        <v>31949.91</v>
+        <v>16256.84</v>
       </c>
       <c r="F212">
-        <v>264422.99</v>
+        <v>519564.24</v>
       </c>
       <c r="G212">
-        <v>6589.74</v>
+        <v>27360.25</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>35582.15</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -9135,10 +9141,10 @@
         <v>0</v>
       </c>
       <c r="K212">
-        <v>0</v>
+        <v>163743.27</v>
       </c>
       <c r="L212">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9146,25 +9152,25 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C213">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D213" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E213">
-        <v>23168.05</v>
+        <v>8622.16</v>
       </c>
       <c r="F213">
-        <v>306631.56</v>
+        <v>37065.48</v>
       </c>
       <c r="G213">
-        <v>29341.69</v>
+        <v>58826.03</v>
       </c>
       <c r="H213">
-        <v>38662.27</v>
+        <v>0</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -9176,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="L213">
-        <v>0</v>
+        <v>421261.45</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9184,22 +9190,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C214">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D214" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E214">
-        <v>12827.05</v>
+        <v>31949.91</v>
       </c>
       <c r="F214">
-        <v>181651.17</v>
+        <v>264422.99</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>6589.74</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -9214,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="L214">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9225,22 +9231,22 @@
         <v>168</v>
       </c>
       <c r="C215">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D215" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E215">
-        <v>34725.64</v>
+        <v>23168.05</v>
       </c>
       <c r="F215">
-        <v>314368.92</v>
+        <v>306631.56</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>29341.69</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>38662.27</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -9263,16 +9269,16 @@
         <v>169</v>
       </c>
       <c r="C216">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D216" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E216">
-        <v>15364.28</v>
+        <v>12827.05</v>
       </c>
       <c r="F216">
-        <v>187391.76</v>
+        <v>181651.17</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -9298,19 +9304,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C217">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D217" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E217">
-        <v>17569.72</v>
+        <v>34725.64</v>
       </c>
       <c r="F217">
-        <v>305648.41</v>
+        <v>314368.92</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -9319,10 +9325,10 @@
         <v>0</v>
       </c>
       <c r="I217">
-        <v>49192.27</v>
+        <v>0</v>
       </c>
       <c r="J217">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -9339,16 +9345,16 @@
         <v>170</v>
       </c>
       <c r="C218">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D218" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E218">
-        <v>16214.61</v>
+        <v>15364.28</v>
       </c>
       <c r="F218">
-        <v>225593.26</v>
+        <v>187391.76</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -9377,16 +9383,16 @@
         <v>171</v>
       </c>
       <c r="C219">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D219" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E219">
-        <v>7523.96</v>
+        <v>17569.72</v>
       </c>
       <c r="F219">
-        <v>443182.814</v>
+        <v>305648.41</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -9395,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>49192.27</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -9412,19 +9418,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C220">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D220" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E220">
-        <v>14940.04</v>
+        <v>16214.61</v>
       </c>
       <c r="F220">
-        <v>249961.31</v>
+        <v>225593.26</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -9450,19 +9456,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C221">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D221" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>35983.12</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>297098.25</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -9474,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K221">
         <v>0</v>
@@ -9488,19 +9494,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C222">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D222" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E222">
-        <v>24997.66</v>
+        <v>7523.96</v>
       </c>
       <c r="F222">
-        <v>310871.0000000001</v>
+        <v>443182.814</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -9526,19 +9532,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C223">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D223" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E223">
-        <v>27658.57</v>
+        <v>14940.04</v>
       </c>
       <c r="F223">
-        <v>364864.3700000001</v>
+        <v>249961.31</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -9564,19 +9570,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C224">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D224" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E224">
-        <v>3965.940000000001</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>323427.1</v>
+        <v>0</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -9602,19 +9608,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C225">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D225" t="s">
         <v>227</v>
       </c>
       <c r="E225">
-        <v>15288.45</v>
+        <v>24997.66</v>
       </c>
       <c r="F225">
-        <v>249637.08</v>
+        <v>310871.0000000001</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -9640,19 +9646,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C226">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D226" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E226">
-        <v>14009.0748</v>
+        <v>27658.57</v>
       </c>
       <c r="F226">
-        <v>199225.9142</v>
+        <v>364864.3700000001</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -9678,19 +9684,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C227">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D227" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E227">
-        <v>18477.94</v>
+        <v>3965.940000000001</v>
       </c>
       <c r="F227">
-        <v>183903.92</v>
+        <v>323427.1</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -9716,19 +9722,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C228">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D228" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>15288.45</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>249637.08</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -9754,19 +9760,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C229">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D229" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E229">
-        <v>4129.22</v>
+        <v>14009.0748</v>
       </c>
       <c r="F229">
-        <v>302465.5699999999</v>
+        <v>199225.9142</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -9792,25 +9798,25 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C230">
         <v>2024</v>
       </c>
       <c r="D230" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E230">
-        <v>28850.83</v>
+        <v>18477.94</v>
       </c>
       <c r="F230">
-        <v>323752.01</v>
+        <v>183903.92</v>
       </c>
       <c r="G230">
-        <v>799.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>3578.78</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -9819,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="K230">
-        <v>14683.68</v>
+        <v>0</v>
       </c>
       <c r="L230">
         <v>0</v>
@@ -9830,19 +9836,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C231">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D231" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E231">
-        <v>15565.47</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>425655.52</v>
+        <v>0</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -9871,16 +9877,16 @@
         <v>181</v>
       </c>
       <c r="C232">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D232" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E232">
-        <v>25701.42</v>
+        <v>4129.22</v>
       </c>
       <c r="F232">
-        <v>360320.2600000001</v>
+        <v>302465.5699999999</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -9906,25 +9912,25 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C233">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D233" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E233">
-        <v>12453.962</v>
+        <v>28850.83</v>
       </c>
       <c r="F233">
-        <v>231551.65</v>
+        <v>323752.01</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>799.1900000000001</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>3578.78</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -9933,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="K233">
-        <v>0</v>
+        <v>14683.68</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -9947,16 +9953,16 @@
         <v>182</v>
       </c>
       <c r="C234">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="D234" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E234">
-        <v>18647.5</v>
+        <v>52083.67</v>
       </c>
       <c r="F234">
-        <v>246405.12</v>
+        <v>166132.1</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -9982,22 +9988,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C235">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D235" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E235">
-        <v>-17711.21</v>
+        <v>15565.47</v>
       </c>
       <c r="F235">
-        <v>279517.78</v>
+        <v>425655.52</v>
       </c>
       <c r="G235">
-        <v>29922.33</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -10009,10 +10015,10 @@
         <v>0</v>
       </c>
       <c r="K235">
-        <v>5575.93000000005</v>
+        <v>0</v>
       </c>
       <c r="L235">
-        <v>123283.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10020,19 +10026,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C236">
         <v>2024</v>
       </c>
       <c r="D236" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E236">
-        <v>20535.34</v>
+        <v>25701.42</v>
       </c>
       <c r="F236">
-        <v>358738.48</v>
+        <v>360320.2600000001</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -10044,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="J236">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -10058,19 +10064,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C237">
         <v>2018</v>
       </c>
       <c r="D237" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E237">
-        <v>11431.24</v>
+        <v>12453.962</v>
       </c>
       <c r="F237">
-        <v>302027.92</v>
+        <v>231551.65</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -10099,16 +10105,16 @@
         <v>184</v>
       </c>
       <c r="C238">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D238" t="s">
         <v>231</v>
       </c>
       <c r="E238">
-        <v>165246.91</v>
+        <v>18647.5</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>246405.12</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -10126,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="L238">
-        <v>331902.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10134,22 +10140,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C239">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D239" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E239">
-        <v>12667.15</v>
+        <v>-17711.21</v>
       </c>
       <c r="F239">
-        <v>185435.1</v>
+        <v>279517.78</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>29922.33</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -10161,10 +10167,10 @@
         <v>0</v>
       </c>
       <c r="K239">
-        <v>0</v>
+        <v>5575.93000000005</v>
       </c>
       <c r="L239">
-        <v>0</v>
+        <v>123283.02</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10172,22 +10178,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C240">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D240" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E240">
-        <v>27181.54</v>
+        <v>20535.34</v>
       </c>
       <c r="F240">
-        <v>270393.7</v>
+        <v>358738.48</v>
       </c>
       <c r="G240">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -10196,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -10210,7 +10216,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C241">
         <v>2018</v>
@@ -10219,10 +10225,10 @@
         <v>227</v>
       </c>
       <c r="E241">
-        <v>13782.99</v>
+        <v>11431.24</v>
       </c>
       <c r="F241">
-        <v>173930.1379</v>
+        <v>302027.92</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -10248,19 +10254,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C242">
         <v>2024</v>
       </c>
       <c r="D242" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E242">
-        <v>23535.09</v>
+        <v>165246.91</v>
       </c>
       <c r="F242">
-        <v>323399.7999999999</v>
+        <v>0</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -10278,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="L242">
-        <v>0</v>
+        <v>331902.21</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10286,19 +10292,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C243">
         <v>2018</v>
       </c>
       <c r="D243" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E243">
-        <v>12212.5</v>
+        <v>12667.15</v>
       </c>
       <c r="F243">
-        <v>258658.12</v>
+        <v>185435.1</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -10324,22 +10330,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C244">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D244" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E244">
-        <v>17895.03</v>
+        <v>27181.54</v>
       </c>
       <c r="F244">
-        <v>235044.78</v>
+        <v>270393.7</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -10362,19 +10368,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C245">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D245" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E245">
-        <v>6061.07</v>
+        <v>13782.99</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>173930.1379</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -10400,19 +10406,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C246">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D246" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E246">
-        <v>81189.56</v>
+        <v>23535.09</v>
       </c>
       <c r="F246">
-        <v>75026.78</v>
+        <v>323399.7999999999</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -10438,19 +10444,19 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C247">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D247" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E247">
-        <v>10737.8</v>
+        <v>12212.5</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>258658.12</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -10459,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I247">
-        <v>4140.61</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -10482,25 +10488,25 @@
         <v>2022</v>
       </c>
       <c r="D248" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E248">
-        <v>21322.77</v>
+        <v>17895.03</v>
       </c>
       <c r="F248">
-        <v>357076.81</v>
+        <v>235044.78</v>
       </c>
       <c r="G248">
-        <v>52820.04</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>43173.96</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>71282.87</v>
+        <v>0</v>
       </c>
       <c r="J248">
-        <v>20524.8</v>
+        <v>0</v>
       </c>
       <c r="K248">
         <v>0</v>
@@ -10520,13 +10526,13 @@
         <v>2023</v>
       </c>
       <c r="D249" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E249">
-        <v>14383.59</v>
+        <v>6061.07</v>
       </c>
       <c r="F249">
-        <v>387878.64</v>
+        <v>0</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -10541,10 +10547,10 @@
         <v>0</v>
       </c>
       <c r="K249">
-        <v>5575.93</v>
+        <v>0</v>
       </c>
       <c r="L249">
-        <v>24709.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -10558,19 +10564,19 @@
         <v>2025</v>
       </c>
       <c r="D250" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E250">
-        <v>33875.99</v>
+        <v>81189.56</v>
       </c>
       <c r="F250">
-        <v>388449.69</v>
+        <v>75026.78</v>
       </c>
       <c r="G250">
-        <v>41728.31</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -10582,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="L250">
-        <v>0</v>
+        <v>21490.444</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -10593,16 +10599,16 @@
         <v>193</v>
       </c>
       <c r="C251">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D251" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E251">
-        <v>25928.52</v>
+        <v>10737.8</v>
       </c>
       <c r="F251">
-        <v>231153.82</v>
+        <v>0</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -10611,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>4140.61</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -10631,28 +10637,28 @@
         <v>193</v>
       </c>
       <c r="C252">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D252" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E252">
-        <v>24492.98</v>
+        <v>21322.77</v>
       </c>
       <c r="F252">
-        <v>532274.26</v>
+        <v>357076.81</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>52820.04</v>
       </c>
       <c r="H252">
-        <v>13669.61</v>
+        <v>43173.96</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>71282.87</v>
       </c>
       <c r="J252">
-        <v>0</v>
+        <v>20524.8</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -10669,16 +10675,16 @@
         <v>194</v>
       </c>
       <c r="C253">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D253" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E253">
-        <v>8419.720000000001</v>
+        <v>14383.59</v>
       </c>
       <c r="F253">
-        <v>54455.82000000001</v>
+        <v>387878.64</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -10693,10 +10699,10 @@
         <v>0</v>
       </c>
       <c r="K253">
-        <v>0</v>
+        <v>5575.93</v>
       </c>
       <c r="L253">
-        <v>395886.61</v>
+        <v>24709.7</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -10704,25 +10710,25 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C254">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D254" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E254">
-        <v>22980.59</v>
+        <v>33875.99</v>
       </c>
       <c r="F254">
-        <v>366339.46</v>
+        <v>388449.69</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>41728.31</v>
       </c>
       <c r="H254">
-        <v>13445.18</v>
+        <v>34125.23</v>
       </c>
       <c r="I254">
         <v>0</v>
@@ -10742,25 +10748,25 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C255">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D255" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E255">
-        <v>37216.64</v>
+        <v>25928.52</v>
       </c>
       <c r="F255">
-        <v>242446.69</v>
+        <v>231153.82</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>40563.95</v>
+        <v>0</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -10780,25 +10786,25 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C256">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D256" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E256">
-        <v>2716.32</v>
+        <v>24492.98</v>
       </c>
       <c r="F256">
-        <v>210682.46</v>
+        <v>532274.26</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>13669.61</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -10818,19 +10824,19 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C257">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D257" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E257">
-        <v>17759.01</v>
+        <v>8419.720000000001</v>
       </c>
       <c r="F257">
-        <v>386062.43</v>
+        <v>54455.82000000001</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -10848,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="L257">
-        <v>0</v>
+        <v>395886.61</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10856,25 +10862,25 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C258">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D258" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E258">
-        <v>35046.84</v>
+        <v>22980.59</v>
       </c>
       <c r="F258">
-        <v>349849.48</v>
+        <v>366339.46</v>
       </c>
       <c r="G258">
-        <v>11417</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>36470.26</v>
+        <v>13445.18</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -10894,25 +10900,25 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C259">
         <v>2024</v>
       </c>
       <c r="D259" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E259">
-        <v>33125.15</v>
+        <v>37216.64</v>
       </c>
       <c r="F259">
-        <v>276026.48</v>
+        <v>242446.69</v>
       </c>
       <c r="G259">
-        <v>4909.31</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>38612.49</v>
+        <v>40563.95</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -10932,19 +10938,19 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C260">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D260" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E260">
-        <v>11361.71</v>
+        <v>2716.32</v>
       </c>
       <c r="F260">
-        <v>191385.42</v>
+        <v>210682.46</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -10970,19 +10976,19 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C261">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D261" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E261">
-        <v>13383.78</v>
+        <v>17759.01</v>
       </c>
       <c r="F261">
-        <v>233981.11</v>
+        <v>386062.43</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -11011,25 +11017,25 @@
         <v>200</v>
       </c>
       <c r="C262">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D262" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E262">
-        <v>19527.76</v>
+        <v>35046.84</v>
       </c>
       <c r="F262">
-        <v>281243.35</v>
+        <v>349849.48</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>11417</v>
       </c>
       <c r="H262">
-        <v>35382.27</v>
+        <v>36470.26</v>
       </c>
       <c r="I262">
-        <v>3798.2</v>
+        <v>0</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -11038,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="L262">
-        <v>136470.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11052,22 +11058,22 @@
         <v>2024</v>
       </c>
       <c r="D263" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E263">
-        <v>15973.55</v>
+        <v>33125.15</v>
       </c>
       <c r="F263">
-        <v>241464.2</v>
+        <v>276026.48</v>
       </c>
       <c r="G263">
-        <v>1480.2</v>
+        <v>4909.31</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>38612.49</v>
       </c>
       <c r="I263">
-        <v>64409.25</v>
+        <v>0</v>
       </c>
       <c r="J263">
         <v>0</v>
@@ -11087,16 +11093,16 @@
         <v>202</v>
       </c>
       <c r="C264">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D264" t="s">
         <v>227</v>
       </c>
       <c r="E264">
-        <v>19888.19</v>
+        <v>11361.71</v>
       </c>
       <c r="F264">
-        <v>211243.48</v>
+        <v>191385.42</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -11125,16 +11131,16 @@
         <v>202</v>
       </c>
       <c r="C265">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D265" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E265">
-        <v>66686.92</v>
+        <v>13383.78</v>
       </c>
       <c r="F265">
-        <v>48945.84</v>
+        <v>233981.11</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -11152,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="L265">
-        <v>69766.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11160,28 +11166,28 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C266">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D266" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E266">
-        <v>13708.27</v>
+        <v>19527.76</v>
       </c>
       <c r="F266">
-        <v>188165.16</v>
+        <v>281243.35</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>35382.27</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>3798.2</v>
       </c>
       <c r="J266">
         <v>0</v>
@@ -11190,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="L266">
-        <v>0</v>
+        <v>136470.22</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11204,22 +11210,22 @@
         <v>2024</v>
       </c>
       <c r="D267" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E267">
-        <v>26020.53</v>
+        <v>15973.55</v>
       </c>
       <c r="F267">
-        <v>382845.83</v>
+        <v>241464.2</v>
       </c>
       <c r="G267">
-        <v>53550.96</v>
+        <v>1480.2</v>
       </c>
       <c r="H267">
-        <v>36977.6</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>64409.25</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -11239,16 +11245,16 @@
         <v>204</v>
       </c>
       <c r="C268">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D268" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E268">
-        <v>15914.36</v>
+        <v>19888.19</v>
       </c>
       <c r="F268">
-        <v>184039.98</v>
+        <v>211243.48</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -11277,25 +11283,25 @@
         <v>204</v>
       </c>
       <c r="C269">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D269" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E269">
-        <v>35571.27</v>
+        <v>66686.92</v>
       </c>
       <c r="F269">
-        <v>48616.23</v>
+        <v>48945.84</v>
       </c>
       <c r="G269">
-        <v>37765.32</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>37083.02</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -11304,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="L269">
-        <v>500373.46</v>
+        <v>69766.31</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11315,16 +11321,16 @@
         <v>205</v>
       </c>
       <c r="C270">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D270" t="s">
         <v>229</v>
       </c>
       <c r="E270">
-        <v>11970.44</v>
+        <v>13708.27</v>
       </c>
       <c r="F270">
-        <v>185665.45</v>
+        <v>188165.16</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -11350,25 +11356,25 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C271">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D271" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>26020.53</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>382845.83</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>53550.96</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>36977.6</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -11388,19 +11394,19 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C272">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D272" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E272">
-        <v>7061.75</v>
+        <v>15914.36</v>
       </c>
       <c r="F272">
-        <v>311836.39</v>
+        <v>184039.98</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -11426,28 +11432,28 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C273">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="D273" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E273">
-        <v>11375.6612</v>
+        <v>35571.27</v>
       </c>
       <c r="F273">
-        <v>208083.915</v>
+        <v>48616.23</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>37765.32</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>37083.02</v>
       </c>
       <c r="I273">
-        <v>8206.629999999999</v>
+        <v>26413.08</v>
       </c>
       <c r="J273">
         <v>0</v>
@@ -11456,7 +11462,7 @@
         <v>0</v>
       </c>
       <c r="L273">
-        <v>0</v>
+        <v>500373.46</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -11464,19 +11470,19 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C274">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D274" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>11970.44</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>185665.45</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -11502,19 +11508,19 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C275">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D275" t="s">
         <v>227</v>
       </c>
       <c r="E275">
-        <v>14072.03</v>
+        <v>0</v>
       </c>
       <c r="F275">
-        <v>294079.49</v>
+        <v>0</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -11540,31 +11546,31 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C276">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D276" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E276">
-        <v>37243.67999999999</v>
+        <v>7061.75</v>
       </c>
       <c r="F276">
-        <v>318895.57</v>
+        <v>311836.39</v>
       </c>
       <c r="G276">
-        <v>31676.02</v>
+        <v>0</v>
       </c>
       <c r="H276">
-        <v>38268.99</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>0</v>
       </c>
       <c r="J276">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K276">
         <v>0</v>
@@ -11578,19 +11584,19 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C277">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D277" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E277">
-        <v>13552.64</v>
+        <v>11375.6612</v>
       </c>
       <c r="F277">
-        <v>252302.88</v>
+        <v>208083.915</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -11599,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>8206.629999999999</v>
       </c>
       <c r="J277">
         <v>0</v>
@@ -11608,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="L277">
-        <v>107916.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -11619,22 +11625,22 @@
         <v>211</v>
       </c>
       <c r="C278">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D278" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E278">
-        <v>20616.62</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>334250.51</v>
+        <v>0</v>
       </c>
       <c r="G278">
         <v>0</v>
       </c>
       <c r="H278">
-        <v>37353.5</v>
+        <v>0</v>
       </c>
       <c r="I278">
         <v>0</v>
@@ -11646,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="L278">
-        <v>9745.719999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -11657,16 +11663,16 @@
         <v>212</v>
       </c>
       <c r="C279">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D279" t="s">
         <v>229</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>14072.03</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>294079.49</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -11692,31 +11698,31 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C280">
         <v>2024</v>
       </c>
       <c r="D280" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E280">
-        <v>13684.59</v>
+        <v>37243.67999999999</v>
       </c>
       <c r="F280">
-        <v>245254.53</v>
+        <v>318895.57</v>
       </c>
       <c r="G280">
-        <v>8968.219999999999</v>
+        <v>31676.02</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>38268.99</v>
       </c>
       <c r="I280">
         <v>0</v>
       </c>
       <c r="J280">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K280">
         <v>0</v>
@@ -11730,19 +11736,19 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C281">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D281" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E281">
-        <v>71886.29000000001</v>
+        <v>13552.64</v>
       </c>
       <c r="F281">
-        <v>58491.51</v>
+        <v>252302.88</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -11760,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="L281">
-        <v>352857.28</v>
+        <v>107916.25</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -11768,25 +11774,25 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C282">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D282" t="s">
         <v>229</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>20616.62</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>334250.51</v>
       </c>
       <c r="G282">
         <v>0</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>37353.5</v>
       </c>
       <c r="I282">
         <v>0</v>
@@ -11798,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="L282">
-        <v>0</v>
+        <v>9745.719999999999</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -11806,19 +11812,19 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C283">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D283" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E283">
-        <v>1625.36</v>
+        <v>0</v>
       </c>
       <c r="F283">
-        <v>422035.45</v>
+        <v>0</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -11833,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="K283">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="L283">
         <v>0</v>
@@ -11844,22 +11850,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C284">
         <v>2024</v>
       </c>
       <c r="D284" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E284">
-        <v>26095.1</v>
+        <v>13684.59</v>
       </c>
       <c r="F284">
-        <v>258586.43</v>
+        <v>245254.53</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>8968.219999999999</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -11882,22 +11888,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C285">
         <v>2023</v>
       </c>
       <c r="D285" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E285">
-        <v>8680.48</v>
+        <v>71886.29000000001</v>
       </c>
       <c r="F285">
-        <v>380772.96</v>
+        <v>58491.51</v>
       </c>
       <c r="G285">
-        <v>90838.51999999999</v>
+        <v>0</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -11912,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="L285">
-        <v>0</v>
+        <v>352857.28</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -11920,19 +11926,19 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C286">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D286" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E286">
-        <v>27944</v>
+        <v>0</v>
       </c>
       <c r="F286">
-        <v>230888.76</v>
+        <v>0</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -11950,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="L286">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -11958,19 +11964,19 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C287">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D287" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E287">
-        <v>11117.34</v>
+        <v>1625.36</v>
       </c>
       <c r="F287">
-        <v>215912.61</v>
+        <v>422035.45</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -11979,13 +11985,13 @@
         <v>0</v>
       </c>
       <c r="I287">
-        <v>22640.28</v>
+        <v>0</v>
       </c>
       <c r="J287">
         <v>0</v>
       </c>
       <c r="K287">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="L287">
         <v>0</v>
@@ -11996,19 +12002,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C288">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D288" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E288">
-        <v>1486.41</v>
+        <v>26095.1</v>
       </c>
       <c r="F288">
-        <v>260869.4</v>
+        <v>258586.43</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -12034,22 +12040,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C289">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D289" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E289">
-        <v>28895.31</v>
+        <v>8680.48</v>
       </c>
       <c r="F289">
-        <v>251643.6000000001</v>
+        <v>380772.96</v>
       </c>
       <c r="G289">
-        <v>3379</v>
+        <v>90838.51999999999</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -12061,10 +12067,10 @@
         <v>0</v>
       </c>
       <c r="K289">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="L289">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12072,25 +12078,25 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C290">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D290" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E290">
-        <v>21873.41</v>
+        <v>27944</v>
       </c>
       <c r="F290">
-        <v>286728.46</v>
+        <v>230888.76</v>
       </c>
       <c r="G290">
-        <v>57296.15</v>
+        <v>0</v>
       </c>
       <c r="H290">
-        <v>41990.43</v>
+        <v>0</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -12102,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="L290">
-        <v>0</v>
+        <v>23876.1125</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12110,19 +12116,19 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C291">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D291" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E291">
-        <v>5153.03</v>
+        <v>11117.34</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>215912.61</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -12131,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>22640.28</v>
       </c>
       <c r="J291">
         <v>0</v>
@@ -12148,25 +12154,25 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C292">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D292" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E292">
-        <v>29071.03</v>
+        <v>1486.41</v>
       </c>
       <c r="F292">
-        <v>325344.86</v>
+        <v>260869.4</v>
       </c>
       <c r="G292">
-        <v>91485.00999999999</v>
+        <v>0</v>
       </c>
       <c r="H292">
-        <v>39357.69</v>
+        <v>0</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -12175,10 +12181,10 @@
         <v>0</v>
       </c>
       <c r="K292">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="L292">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12186,36 +12192,188 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C293">
         <v>2025</v>
       </c>
       <c r="D293" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E293">
+        <v>28895.31</v>
+      </c>
+      <c r="F293">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="G293">
+        <v>3379</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>8029.89</v>
+      </c>
+      <c r="L293">
+        <v>52444.52</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>223</v>
+      </c>
+      <c r="C294">
+        <v>2023</v>
+      </c>
+      <c r="D294" t="s">
+        <v>236</v>
+      </c>
+      <c r="E294">
+        <v>21873.41</v>
+      </c>
+      <c r="F294">
+        <v>286728.46</v>
+      </c>
+      <c r="G294">
+        <v>57296.15</v>
+      </c>
+      <c r="H294">
+        <v>41990.43</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>224</v>
+      </c>
+      <c r="C295">
+        <v>2024</v>
+      </c>
+      <c r="D295" t="s">
+        <v>229</v>
+      </c>
+      <c r="E295">
+        <v>5153.03</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>225</v>
+      </c>
+      <c r="C296">
+        <v>2025</v>
+      </c>
+      <c r="D296" t="s">
+        <v>236</v>
+      </c>
+      <c r="E296">
+        <v>33879.14</v>
+      </c>
+      <c r="F296">
+        <v>325344.86</v>
+      </c>
+      <c r="G296">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="H296">
+        <v>39357.69</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>63566</v>
+      </c>
+      <c r="L296">
+        <v>229812.833425</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>226</v>
+      </c>
+      <c r="C297">
+        <v>2025</v>
+      </c>
+      <c r="D297" t="s">
+        <v>233</v>
+      </c>
+      <c r="E297">
         <v>30868.28</v>
       </c>
-      <c r="F293">
+      <c r="F297">
         <v>363209.57</v>
       </c>
-      <c r="G293">
+      <c r="G297">
         <v>65966.92</v>
       </c>
-      <c r="H293">
-        <v>0</v>
-      </c>
-      <c r="I293">
-        <v>0</v>
-      </c>
-      <c r="J293">
-        <v>0</v>
-      </c>
-      <c r="K293">
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
         <v>95933.12</v>
       </c>
-      <c r="L293">
+      <c r="L297">
         <v>60577.37</v>
       </c>
     </row>

--- a/summary/als/grouped_budget.xlsx
+++ b/summary/als/grouped_budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="240">
   <si>
     <t>WELL</t>
   </si>
@@ -70,6 +70,9 @@
     <t>ACAC-063</t>
   </si>
   <si>
+    <t>ACAC-112</t>
+  </si>
+  <si>
     <t>ACAC-162</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
     <t>ACAL-249</t>
   </si>
   <si>
+    <t>ACAL-251H</t>
+  </si>
+  <si>
     <t>ACAM-142</t>
   </si>
   <si>
@@ -283,9 +289,6 @@
     <t>ACAP-056</t>
   </si>
   <si>
-    <t>ACAP-100</t>
-  </si>
-  <si>
     <t>ACAP-176</t>
   </si>
   <si>
@@ -325,6 +328,9 @@
     <t>ACAR-268</t>
   </si>
   <si>
+    <t>ACAR-269H</t>
+  </si>
+  <si>
     <t>ACSA-006</t>
   </si>
   <si>
@@ -559,6 +565,9 @@
     <t>CNOE-014</t>
   </si>
   <si>
+    <t>CNOE-030</t>
+  </si>
+  <si>
     <t>CNOF-053</t>
   </si>
   <si>
@@ -709,6 +718,9 @@
     <t>Nov</t>
   </si>
   <si>
+    <t>Oct</t>
+  </si>
+  <si>
     <t>Jul</t>
   </si>
   <si>
@@ -722,9 +734,6 @@
   </si>
   <si>
     <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L293"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1134,7 +1143,7 @@
         <v>2021</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E2">
         <v>2030.51</v>
@@ -1172,7 +1181,7 @@
         <v>2024</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <v>13088.98</v>
@@ -1210,7 +1219,7 @@
         <v>2024</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E4">
         <v>17514.05</v>
@@ -1248,7 +1257,7 @@
         <v>2022</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E5">
         <v>11588.81</v>
@@ -1286,7 +1295,7 @@
         <v>2024</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E6">
         <v>40530.62</v>
@@ -1324,7 +1333,7 @@
         <v>2024</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E7">
         <v>13439.56</v>
@@ -1362,7 +1371,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E8">
         <v>5512.77</v>
@@ -1400,7 +1409,7 @@
         <v>2019</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1438,7 +1447,7 @@
         <v>2022</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E10">
         <v>15611.56</v>
@@ -1476,7 +1485,7 @@
         <v>2022</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E11">
         <v>16823.1</v>
@@ -1514,7 +1523,7 @@
         <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E12">
         <v>11108.68</v>
@@ -1552,7 +1561,7 @@
         <v>2022</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E13">
         <v>13591.05</v>
@@ -1587,22 +1596,22 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E14">
-        <v>27077.93</v>
+        <v>13391.57</v>
       </c>
       <c r="F14">
-        <v>309293.48</v>
+        <v>279350.01</v>
       </c>
       <c r="G14">
-        <v>9996</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1597.77</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1611,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>63774.22</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1625,22 +1634,22 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E15">
-        <v>19689.11</v>
+        <v>27077.93</v>
       </c>
       <c r="F15">
-        <v>231296.59</v>
+        <v>309293.48</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>9996</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1597.77</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1663,16 +1672,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E16">
-        <v>14875.23</v>
+        <v>19689.11</v>
       </c>
       <c r="F16">
-        <v>140416.48</v>
+        <v>231296.59</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1701,16 +1710,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E17">
-        <v>6205.74</v>
+        <v>14875.23</v>
       </c>
       <c r="F17">
-        <v>253185.9</v>
+        <v>140416.48</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1736,22 +1745,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E18">
-        <v>16809.41</v>
+        <v>6205.74</v>
       </c>
       <c r="F18">
-        <v>258645.31</v>
+        <v>253185.9</v>
       </c>
       <c r="G18">
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1777,19 +1786,19 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E19">
-        <v>15222.56</v>
+        <v>16809.41</v>
       </c>
       <c r="F19">
-        <v>220094.55</v>
+        <v>258645.31</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>6850.2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1818,13 +1827,13 @@
         <v>2019</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>15222.56</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>220094.55</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1850,37 +1859,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E21">
-        <v>14141.37</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>324338.03</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9313.559999999999</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>513.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1891,34 +1900,34 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E22">
-        <v>3366.56</v>
+        <v>14141.37</v>
       </c>
       <c r="F22">
-        <v>323371.7</v>
+        <v>324338.03</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9313.559999999999</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>513.59</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1929,16 +1938,16 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3366.56</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>323371.7</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1964,19 +1973,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E24">
-        <v>11098.74</v>
+        <v>33666.72</v>
       </c>
       <c r="F24">
-        <v>170859.69</v>
+        <v>341703.8</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2002,19 +2011,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E25">
-        <v>21497.05</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>342722.7399999999</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2043,16 +2052,16 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E26">
-        <v>6192.63</v>
+        <v>11098.74</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>170859.69</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2078,19 +2087,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E27">
-        <v>12362.17</v>
+        <v>21497.05</v>
       </c>
       <c r="F27">
-        <v>268349.03</v>
+        <v>342722.7399999999</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2119,22 +2128,22 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E28">
-        <v>20394.94</v>
+        <v>6192.63</v>
       </c>
       <c r="F28">
-        <v>235617.06</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>4965.16</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>5432</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2157,22 +2166,22 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E29">
-        <v>39820.85</v>
+        <v>12362.17</v>
       </c>
       <c r="F29">
-        <v>252738.5</v>
+        <v>268349.03</v>
       </c>
       <c r="G29">
-        <v>21518.49</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>33647.97</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2184,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>81917.37000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2198,19 +2207,19 @@
         <v>2024</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E30">
-        <v>36695.74</v>
+        <v>20394.94</v>
       </c>
       <c r="F30">
-        <v>285277.04</v>
+        <v>235617.06</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>4965.16</v>
       </c>
       <c r="H30">
-        <v>5261.72</v>
+        <v>5432</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2230,25 +2239,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E31">
-        <v>18094.14</v>
+        <v>39820.85</v>
       </c>
       <c r="F31">
-        <v>193672.08906155</v>
+        <v>252738.5</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>21518.49</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>33647.97</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2260,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>81917.37000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2271,22 +2280,22 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E32">
-        <v>2698.39</v>
+        <v>36695.74</v>
       </c>
       <c r="F32">
-        <v>182784.39</v>
+        <v>285277.04</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>5261.72</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2306,19 +2315,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E33">
-        <v>13656.86</v>
+        <v>18094.14</v>
       </c>
       <c r="F33">
-        <v>243895.18</v>
+        <v>193672.08906155</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2344,19 +2353,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E34">
-        <v>17109.43</v>
+        <v>2698.39</v>
       </c>
       <c r="F34">
-        <v>317869.52</v>
+        <v>182784.39</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2385,22 +2394,22 @@
         <v>31</v>
       </c>
       <c r="C35">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E35">
-        <v>20112.22</v>
+        <v>13656.86</v>
       </c>
       <c r="F35">
-        <v>360803.48</v>
+        <v>243895.18</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>40176.72</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2420,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>2024</v>
@@ -2429,16 +2438,16 @@
         <v>228</v>
       </c>
       <c r="E36">
-        <v>18313.61</v>
+        <v>17109.43</v>
       </c>
       <c r="F36">
-        <v>245102.89</v>
+        <v>317869.52</v>
       </c>
       <c r="G36">
-        <v>5328.72</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>23372.02</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2458,37 +2467,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E37">
-        <v>36289.75</v>
+        <v>20112.22</v>
       </c>
       <c r="F37">
-        <v>454846.71</v>
+        <v>360803.48</v>
       </c>
       <c r="G37">
-        <v>50340.94</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>40176.72</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2496,25 +2505,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E38">
-        <v>13432.73</v>
+        <v>18313.61</v>
       </c>
       <c r="F38">
-        <v>344889.59</v>
+        <v>245102.89</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>5328.72</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>23372.02</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2534,22 +2543,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D39" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E39">
-        <v>11717.78</v>
+        <v>36289.75</v>
       </c>
       <c r="F39">
-        <v>262384.14</v>
+        <v>454846.71</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>50340.94</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2558,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2572,25 +2581,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E40">
-        <v>38308.97</v>
+        <v>13432.73</v>
       </c>
       <c r="F40">
-        <v>258025.36</v>
+        <v>344889.59</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>30826.26</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2602,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>83812.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2610,25 +2619,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E41">
-        <v>17909.01</v>
+        <v>11717.78</v>
       </c>
       <c r="F41">
-        <v>242504.56</v>
+        <v>262384.14</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>15348.04</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2648,25 +2657,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D42" t="s">
         <v>229</v>
       </c>
       <c r="E42">
-        <v>11661.54</v>
+        <v>38308.97</v>
       </c>
       <c r="F42">
-        <v>171197.3</v>
+        <v>258025.36</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>30826.26</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2678,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>83812.86</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2686,25 +2695,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>2024</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E43">
-        <v>25920.07</v>
+        <v>17909.01</v>
       </c>
       <c r="F43">
-        <v>315429.16</v>
+        <v>242504.56</v>
       </c>
       <c r="G43">
-        <v>11357.36</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>15348.04</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2724,22 +2733,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D44" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E44">
-        <v>28951.89</v>
+        <v>11661.54</v>
       </c>
       <c r="F44">
-        <v>297890.78</v>
+        <v>171197.3</v>
       </c>
       <c r="G44">
-        <v>25982.6</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2762,22 +2771,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E45">
-        <v>7902.42</v>
+        <v>25920.07</v>
       </c>
       <c r="F45">
-        <v>304818.55</v>
+        <v>315429.16</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>11357.36</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2803,19 +2812,19 @@
         <v>41</v>
       </c>
       <c r="C46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E46">
-        <v>17911.7</v>
+        <v>28951.89</v>
       </c>
       <c r="F46">
-        <v>271168.25</v>
+        <v>297890.78</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>25982.6</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2844,13 +2853,13 @@
         <v>2019</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E47">
-        <v>4029.21</v>
+        <v>7902.42</v>
       </c>
       <c r="F47">
-        <v>284251.4099999997</v>
+        <v>304818.55</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2876,19 +2885,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>17911.7</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>271168.25</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2917,19 +2926,19 @@
         <v>43</v>
       </c>
       <c r="C49">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E49">
-        <v>13212.72</v>
+        <v>4029.21</v>
       </c>
       <c r="F49">
-        <v>261305.15</v>
+        <v>284251.4099999997</v>
       </c>
       <c r="G49">
-        <v>5993.65</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2944,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>131787.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2955,16 +2964,16 @@
         <v>44</v>
       </c>
       <c r="C50">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E50">
-        <v>14850.64</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>229444.72</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2990,25 +2999,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E51">
-        <v>26292.88</v>
+        <v>13212.72</v>
       </c>
       <c r="F51">
-        <v>318232.18</v>
+        <v>261305.15</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>5993.65</v>
       </c>
       <c r="H51">
-        <v>36443.18</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3020,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>131787.81</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3028,19 +3037,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52">
         <v>2023</v>
       </c>
       <c r="D52" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E52">
-        <v>14898.4</v>
+        <v>14850.64</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>229444.72</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3066,25 +3075,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E53">
-        <v>11192.1</v>
+        <v>26292.88</v>
       </c>
       <c r="F53">
-        <v>84723.16</v>
+        <v>318232.18</v>
       </c>
       <c r="G53">
-        <v>25606.24</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>36443.18</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3093,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>29802.83</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>333242.6889657548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3104,16 +3113,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54">
         <v>2023</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>14898.4</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3142,22 +3151,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>11192.1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>84723.16</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>25606.24</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3169,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>29802.83</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>333242.6889657548</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3183,10 +3192,10 @@
         <v>49</v>
       </c>
       <c r="C56">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3221,22 +3230,22 @@
         <v>50</v>
       </c>
       <c r="C57">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E57">
-        <v>27337.44</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>281453.91</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>21807.01</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3256,22 +3265,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E58">
-        <v>14253.1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>310593.21</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>53566.45</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3297,22 +3306,22 @@
         <v>51</v>
       </c>
       <c r="C59">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E59">
-        <v>34665.32</v>
+        <v>27337.44</v>
       </c>
       <c r="F59">
-        <v>261407.76</v>
+        <v>281453.91</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>37316.12</v>
+        <v>21807.01</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3335,22 +3344,22 @@
         <v>52</v>
       </c>
       <c r="C60">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E60">
-        <v>23624.41</v>
+        <v>14253.1</v>
       </c>
       <c r="F60">
-        <v>325281.35</v>
+        <v>310593.21</v>
       </c>
       <c r="G60">
-        <v>33712.31</v>
+        <v>53566.45</v>
       </c>
       <c r="H60">
-        <v>37733.24</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3370,25 +3379,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E61">
-        <v>14172.48</v>
+        <v>34665.32</v>
       </c>
       <c r="F61">
-        <v>196236.89</v>
+        <v>261407.76</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>37316.12</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -3400,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>1276.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3411,22 +3420,22 @@
         <v>53</v>
       </c>
       <c r="C62">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E62">
-        <v>13918.46</v>
+        <v>23624.41</v>
       </c>
       <c r="F62">
-        <v>138670.69</v>
+        <v>325281.35</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>33712.31</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>37733.24</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -3438,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>343631.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3449,19 +3458,19 @@
         <v>54</v>
       </c>
       <c r="C63">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E63">
-        <v>10294.36</v>
+        <v>14172.48</v>
       </c>
       <c r="F63">
-        <v>330419.57</v>
+        <v>196236.89</v>
       </c>
       <c r="G63">
-        <v>113135.93</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3476,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>13884.63</v>
+        <v>1276.75</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3484,19 +3493,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E64">
-        <v>12517.325</v>
+        <v>13918.46</v>
       </c>
       <c r="F64">
-        <v>153770.65</v>
+        <v>138670.69</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3514,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>343631.65</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3525,19 +3534,19 @@
         <v>55</v>
       </c>
       <c r="C65">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E65">
-        <v>6850.57</v>
+        <v>10294.36</v>
       </c>
       <c r="F65">
-        <v>168056.71</v>
+        <v>330419.57</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>113135.93</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3552,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>13884.63</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3566,13 +3575,13 @@
         <v>2018</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E66">
-        <v>11293.84</v>
+        <v>12517.325</v>
       </c>
       <c r="F66">
-        <v>156302.78</v>
+        <v>153770.65</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3598,19 +3607,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E67">
-        <v>5324.93</v>
+        <v>6850.57</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>168056.71</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3636,25 +3645,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E68">
-        <v>22026.57</v>
+        <v>11293.84</v>
       </c>
       <c r="F68">
-        <v>261946.6599999999</v>
+        <v>156302.78</v>
       </c>
       <c r="G68">
-        <v>7703.43</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>22029.3</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3674,16 +3683,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C69">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E69">
-        <v>5136.21</v>
+        <v>5324.93</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3715,22 +3724,22 @@
         <v>59</v>
       </c>
       <c r="C70">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E70">
-        <v>23555.31</v>
+        <v>22026.57</v>
       </c>
       <c r="F70">
-        <v>240719.44</v>
+        <v>261946.6599999999</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>7703.43</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>22029.3</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3756,13 +3765,13 @@
         <v>2022</v>
       </c>
       <c r="D71" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E71">
-        <v>14633.78</v>
+        <v>5136.21</v>
       </c>
       <c r="F71">
-        <v>274388.26</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3788,19 +3797,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E72">
-        <v>12265.21</v>
+        <v>23555.31</v>
       </c>
       <c r="F72">
-        <v>261660.04</v>
+        <v>240719.44</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3826,19 +3835,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D73" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E73">
-        <v>16051.4708</v>
+        <v>14633.78</v>
       </c>
       <c r="F73">
-        <v>211577.67906155</v>
+        <v>274388.26</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3864,19 +3873,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E74">
-        <v>14520.22</v>
+        <v>12265.21</v>
       </c>
       <c r="F74">
-        <v>292132.67</v>
+        <v>261660.04</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3894,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>157926.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3905,19 +3914,19 @@
         <v>63</v>
       </c>
       <c r="C75">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D75" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E75">
-        <v>33392.59</v>
+        <v>16051.4708</v>
       </c>
       <c r="F75">
-        <v>410199.23</v>
+        <v>211577.67906155</v>
       </c>
       <c r="G75">
-        <v>7154.3</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3946,13 +3955,13 @@
         <v>2022</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E76">
-        <v>14734.78</v>
+        <v>14520.22</v>
       </c>
       <c r="F76">
-        <v>56510.81</v>
+        <v>292132.67</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3970,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>359289.46</v>
+        <v>157926.02</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3978,22 +3987,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77">
         <v>2024</v>
       </c>
       <c r="D77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E77">
-        <v>22456.42</v>
+        <v>33392.59</v>
       </c>
       <c r="F77">
-        <v>285433.29</v>
+        <v>410199.23</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>7154.3</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4016,19 +4025,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E78">
-        <v>19924.56</v>
+        <v>14734.78</v>
       </c>
       <c r="F78">
-        <v>250437.94</v>
+        <v>56510.81</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4046,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>359289.46</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4054,19 +4063,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E79">
-        <v>14742.64</v>
+        <v>22456.42</v>
       </c>
       <c r="F79">
-        <v>383333.38</v>
+        <v>285433.29</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4078,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4095,22 +4104,22 @@
         <v>67</v>
       </c>
       <c r="C80">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E80">
-        <v>34720.53</v>
+        <v>19924.56</v>
       </c>
       <c r="F80">
-        <v>271057.69</v>
+        <v>250437.94</v>
       </c>
       <c r="G80">
-        <v>19401.54</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>38992.08</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4122,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>59030.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4133,16 +4142,16 @@
         <v>68</v>
       </c>
       <c r="C81">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E81">
-        <v>19217.69</v>
+        <v>14742.64</v>
       </c>
       <c r="F81">
-        <v>258930.56</v>
+        <v>383333.38</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4154,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4168,28 +4177,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="D82" t="s">
         <v>229</v>
       </c>
       <c r="E82">
-        <v>11901.7058</v>
+        <v>34720.53</v>
       </c>
       <c r="F82">
-        <v>163204.3127875</v>
+        <v>271057.69</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>19401.54</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>38992.08</v>
       </c>
       <c r="I82">
-        <v>1823.6</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4198,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>59030.4</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4206,19 +4215,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D83" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>19217.69</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>258930.56</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4244,37 +4253,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E84">
-        <v>26120.66</v>
+        <v>11901.7058</v>
       </c>
       <c r="F84">
-        <v>296379.27</v>
+        <v>163204.3127875</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>37439.51</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1823.6</v>
       </c>
       <c r="J84">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>7798.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4282,25 +4291,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E85">
-        <v>19238.35</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>276863.77</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>6070.92</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>36882.03</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -4309,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>120260</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>41418.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4320,37 +4329,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86">
         <v>2023</v>
       </c>
       <c r="D86" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E86">
-        <v>6617.23</v>
+        <v>26120.66</v>
       </c>
       <c r="F86">
-        <v>763.91</v>
+        <v>296379.27</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>37439.51</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>7798.47</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4358,25 +4367,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E87">
-        <v>13464.38</v>
+        <v>19238.35</v>
       </c>
       <c r="F87">
-        <v>332935.31</v>
+        <v>276863.77</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>6070.92</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>36882.03</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -4385,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>120260</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>41418.66</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4396,19 +4405,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E88">
-        <v>2116.01</v>
+        <v>6617.23</v>
       </c>
       <c r="F88">
-        <v>164189.17</v>
+        <v>763.91</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4434,22 +4443,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89">
         <v>2023</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E89">
-        <v>14711.09</v>
+        <v>13464.38</v>
       </c>
       <c r="F89">
-        <v>49618.67000000001</v>
+        <v>332935.31</v>
       </c>
       <c r="G89">
-        <v>61905.46</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4464,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>284815.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4472,19 +4481,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E90">
-        <v>22198.98</v>
+        <v>2116.01</v>
       </c>
       <c r="F90">
-        <v>365475.53</v>
+        <v>164189.17</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4496,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4510,19 +4519,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C91">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D91" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E91">
-        <v>6382.57</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>250365.09</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4540,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>1027.18</v>
+        <v>42006.49</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4548,22 +4557,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C92">
         <v>2023</v>
       </c>
       <c r="D92" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E92">
-        <v>29516.94</v>
+        <v>14711.09</v>
       </c>
       <c r="F92">
-        <v>51796.53999999999</v>
+        <v>49618.67000000001</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>61905.46</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4578,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>100399.14</v>
+        <v>284815.12</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4586,22 +4595,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C93">
         <v>2023</v>
       </c>
       <c r="D93" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E93">
-        <v>15649.2</v>
+        <v>22198.98</v>
       </c>
       <c r="F93">
-        <v>334667.08</v>
+        <v>365475.53</v>
       </c>
       <c r="G93">
-        <v>15739.46</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4610,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4624,16 +4633,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C94">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D94" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>6382.57</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4654,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1027.18</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4662,25 +4671,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C95">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D95" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E95">
-        <v>16168.77</v>
+        <v>24406.71</v>
       </c>
       <c r="F95">
-        <v>315434.42</v>
+        <v>334593.33</v>
       </c>
       <c r="G95">
-        <v>4338.46</v>
+        <v>5162.22</v>
       </c>
       <c r="H95">
-        <v>37829.88</v>
+        <v>22756.23</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4689,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>115340</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -4700,19 +4709,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C96">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D96" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E96">
-        <v>15012.05</v>
+        <v>29516.94</v>
       </c>
       <c r="F96">
-        <v>192765.56</v>
+        <v>51796.53999999999</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4730,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>100399.14</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4738,22 +4747,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C97">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D97" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E97">
-        <v>37882.47</v>
+        <v>15649.2</v>
       </c>
       <c r="F97">
-        <v>278938.71</v>
+        <v>334667.08</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>15739.46</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4768,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>41846.3631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4776,19 +4785,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C98">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D98" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E98">
-        <v>12713.5</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>483449.17</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4800,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>9236.16</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4814,25 +4823,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C99">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D99" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E99">
-        <v>9025.690000000001</v>
+        <v>16168.77</v>
       </c>
       <c r="F99">
-        <v>189081.37</v>
+        <v>315434.42</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>4338.46</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>37829.88</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4852,19 +4861,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D100" t="s">
         <v>228</v>
       </c>
       <c r="E100">
-        <v>25012.57</v>
+        <v>15012.05</v>
       </c>
       <c r="F100">
-        <v>305436.45</v>
+        <v>192765.56</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4890,25 +4899,25 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D101" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E101">
-        <v>24902.46</v>
+        <v>37882.47</v>
       </c>
       <c r="F101">
-        <v>216741.6</v>
+        <v>278938.71</v>
       </c>
       <c r="G101">
-        <v>18142.73</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>14818.67</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -4920,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>41846.3631</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4928,19 +4937,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102">
         <v>2020</v>
       </c>
       <c r="D102" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E102">
-        <v>11254.31</v>
+        <v>12713.5</v>
       </c>
       <c r="F102">
-        <v>185020.93</v>
+        <v>483449.17</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4952,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>9236.16</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4969,16 +4978,16 @@
         <v>88</v>
       </c>
       <c r="C103">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E103">
-        <v>14344.05</v>
+        <v>9025.690000000001</v>
       </c>
       <c r="F103">
-        <v>250146.13</v>
+        <v>189081.37</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5004,19 +5013,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D104" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E104">
-        <v>4154.33</v>
+        <v>25012.57</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>305436.45</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -5042,25 +5051,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105">
         <v>2024</v>
       </c>
       <c r="D105" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E105">
-        <v>19158.29</v>
+        <v>24902.46</v>
       </c>
       <c r="F105">
-        <v>245147.04</v>
+        <v>216741.6</v>
       </c>
       <c r="G105">
-        <v>8612.610000000001</v>
+        <v>18142.73</v>
       </c>
       <c r="H105">
-        <v>25894.03</v>
+        <v>14818.67</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -5080,19 +5089,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D106" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E106">
-        <v>12607.09</v>
+        <v>11254.31</v>
       </c>
       <c r="F106">
-        <v>192112.37</v>
+        <v>185020.93</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5118,19 +5127,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C107">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D107" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E107">
-        <v>13265.9958</v>
+        <v>14344.05</v>
       </c>
       <c r="F107">
-        <v>179001.45</v>
+        <v>250146.13</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5156,25 +5165,25 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C108">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D108" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E108">
-        <v>13207.01</v>
+        <v>19158.29</v>
       </c>
       <c r="F108">
-        <v>189201.94</v>
+        <v>245147.04</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>8612.610000000001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>25894.03</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -5194,19 +5203,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C109">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E109">
-        <v>15756.67</v>
+        <v>12607.09</v>
       </c>
       <c r="F109">
-        <v>323294.16</v>
+        <v>192112.37</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5235,16 +5244,16 @@
         <v>93</v>
       </c>
       <c r="C110">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D110" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E110">
-        <v>22204.19</v>
+        <v>13265.9958</v>
       </c>
       <c r="F110">
-        <v>64218.28000000001</v>
+        <v>179001.45</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5256,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>310278.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5270,25 +5279,25 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C111">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D111" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E111">
-        <v>22282.89</v>
+        <v>13207.01</v>
       </c>
       <c r="F111">
-        <v>251197.29</v>
+        <v>189201.94</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>35990.01</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -5308,19 +5317,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D112" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E112">
-        <v>16086.49</v>
+        <v>15756.67</v>
       </c>
       <c r="F112">
-        <v>194324.54</v>
+        <v>323294.16</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -5346,19 +5355,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C113">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D113" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E113">
-        <v>4102.18</v>
+        <v>22204.19</v>
       </c>
       <c r="F113">
-        <v>196458.37</v>
+        <v>64218.28000000001</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5370,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>310278.14</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5384,25 +5393,25 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C114">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D114" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>22282.89</v>
       </c>
       <c r="F114">
-        <v>11583.08</v>
+        <v>251197.29</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>39415.73</v>
+        <v>35990.01</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -5422,19 +5431,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C115">
         <v>2022</v>
       </c>
       <c r="D115" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E115">
-        <v>51564.49000000001</v>
+        <v>16086.49</v>
       </c>
       <c r="F115">
-        <v>142368.4</v>
+        <v>194324.54</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5463,16 +5472,16 @@
         <v>97</v>
       </c>
       <c r="C116">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E116">
-        <v>29941.48</v>
+        <v>4102.18</v>
       </c>
       <c r="F116">
-        <v>334363.9199999999</v>
+        <v>196458.37</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5484,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5498,25 +5507,25 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E117">
-        <v>23011.02</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>335868.98</v>
+        <v>11583.08</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>37624.97</v>
+        <v>39415.73</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5536,25 +5545,25 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E118">
-        <v>62144.21999999999</v>
+        <v>51564.49000000001</v>
       </c>
       <c r="F118">
-        <v>342348.13</v>
+        <v>142368.4</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>41557.3</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5574,22 +5583,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C119">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>29941.48</v>
       </c>
       <c r="F119">
-        <v>230958.64</v>
+        <v>334363.9199999999</v>
       </c>
       <c r="G119">
-        <v>11928.76</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5598,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5612,25 +5621,25 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C120">
         <v>2024</v>
       </c>
       <c r="D120" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E120">
-        <v>38882.28</v>
+        <v>23011.02</v>
       </c>
       <c r="F120">
-        <v>373932.19</v>
+        <v>335868.98</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>37624.97</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -5650,25 +5659,25 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C121">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D121" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E121">
-        <v>16827.69</v>
+        <v>62144.21999999999</v>
       </c>
       <c r="F121">
-        <v>126955.56</v>
+        <v>342348.13</v>
       </c>
       <c r="G121">
-        <v>11369.56</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>3447.35</v>
+        <v>41557.3</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5680,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>422133.1800000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5691,22 +5700,22 @@
         <v>101</v>
       </c>
       <c r="C122">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E122">
-        <v>17294.34</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>530627.5499999999</v>
+        <v>230958.64</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>11928.76</v>
       </c>
       <c r="H122">
-        <v>36696.35</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5729,22 +5738,22 @@
         <v>101</v>
       </c>
       <c r="C123">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D123" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E123">
-        <v>19622.18999999995</v>
+        <v>38882.28</v>
       </c>
       <c r="F123">
-        <v>339732.7</v>
+        <v>373932.19</v>
       </c>
       <c r="G123">
-        <v>12924.07</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>36735.22</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5753,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>5293.4</v>
+        <v>0</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -5764,25 +5773,25 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C124">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D124" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E124">
-        <v>29506.7</v>
+        <v>16827.69</v>
       </c>
       <c r="F124">
-        <v>455228.52</v>
+        <v>126955.56</v>
       </c>
       <c r="G124">
-        <v>2181.06</v>
+        <v>11369.56</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3447.35</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5791,10 +5800,10 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>64902.09</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>199012.794</v>
+        <v>422133.1800000001</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5808,19 +5817,19 @@
         <v>2024</v>
       </c>
       <c r="D125" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E125">
-        <v>21472</v>
+        <v>17294.34</v>
       </c>
       <c r="F125">
-        <v>333889.53</v>
+        <v>530627.5499999999</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>36696.35</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5846,16 +5855,16 @@
         <v>2025</v>
       </c>
       <c r="D126" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E126">
-        <v>28089.2</v>
+        <v>29506.7</v>
       </c>
       <c r="F126">
-        <v>160763.94</v>
+        <v>455228.52</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5867,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="L126">
-        <v>173339.58</v>
+        <v>199012.794</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5878,22 +5887,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C127">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D127" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E127">
-        <v>13038.08</v>
+        <v>36093.04</v>
       </c>
       <c r="F127">
-        <v>233698.36</v>
+        <v>324824.84</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>7421.05</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5902,13 +5911,13 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K127">
         <v>0</v>
       </c>
       <c r="L127">
-        <v>426234.25</v>
+        <v>36863.1</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5922,13 +5931,13 @@
         <v>2024</v>
       </c>
       <c r="D128" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E128">
-        <v>26056.47</v>
+        <v>21472</v>
       </c>
       <c r="F128">
-        <v>397911.71</v>
+        <v>333889.53</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5954,19 +5963,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C129">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D129" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E129">
-        <v>12023.96</v>
+        <v>28089.2</v>
       </c>
       <c r="F129">
-        <v>170571.82</v>
+        <v>160763.94</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5984,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>173339.58</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5998,19 +6007,19 @@
         <v>2025</v>
       </c>
       <c r="D130" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E130">
-        <v>24651.29</v>
+        <v>50944.75</v>
       </c>
       <c r="F130">
-        <v>267851.66</v>
+        <v>288251.2</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -6022,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6033,16 +6042,16 @@
         <v>105</v>
       </c>
       <c r="C131">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D131" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E131">
-        <v>13022.6308</v>
+        <v>13038.08</v>
       </c>
       <c r="F131">
-        <v>191304.08</v>
+        <v>233698.36</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -6051,16 +6060,16 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>1823.6</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>426234.25</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6071,16 +6080,16 @@
         <v>105</v>
       </c>
       <c r="C132">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D132" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E132">
-        <v>16728.81</v>
+        <v>26056.47</v>
       </c>
       <c r="F132">
-        <v>289941.13</v>
+        <v>397911.71</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6109,16 +6118,16 @@
         <v>106</v>
       </c>
       <c r="C133">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D133" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E133">
-        <v>23912.8</v>
+        <v>12023.96</v>
       </c>
       <c r="F133">
-        <v>215373.08</v>
+        <v>170571.82</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6144,22 +6153,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C134">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D134" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E134">
-        <v>26698.16</v>
+        <v>24651.29</v>
       </c>
       <c r="F134">
-        <v>263627.28</v>
+        <v>267851.66</v>
       </c>
       <c r="G134">
-        <v>43649.7</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -6168,13 +6177,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>15969.07</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>29992.31</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6182,19 +6191,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C135">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D135" t="s">
         <v>232</v>
       </c>
       <c r="E135">
-        <v>16381</v>
+        <v>13022.6308</v>
       </c>
       <c r="F135">
-        <v>267912.74</v>
+        <v>191304.08</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -6203,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1823.6</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -6212,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>123283.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6220,22 +6229,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C136">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D136" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E136">
-        <v>14597.73</v>
+        <v>16728.81</v>
       </c>
       <c r="F136">
-        <v>268490.16</v>
+        <v>289941.13</v>
       </c>
       <c r="G136">
-        <v>27823.54</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -6250,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>66787.85000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6258,19 +6267,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C137">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D137" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E137">
-        <v>15420.4</v>
+        <v>23912.8</v>
       </c>
       <c r="F137">
-        <v>284483.45</v>
+        <v>215373.08</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -6285,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>99980.56</v>
+        <v>0</v>
       </c>
       <c r="L137">
         <v>0</v>
@@ -6296,22 +6305,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C138">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D138" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E138">
-        <v>13259.48</v>
+        <v>26698.16</v>
       </c>
       <c r="F138">
-        <v>216927.71</v>
+        <v>263627.28</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>43649.7</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -6320,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>15969.07</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -6334,19 +6343,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C139">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D139" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E139">
-        <v>13800.27</v>
+        <v>16381</v>
       </c>
       <c r="F139">
-        <v>258896.66</v>
+        <v>267912.74</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6364,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>123283.02</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6372,22 +6381,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C140">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D140" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E140">
-        <v>33999.38</v>
+        <v>14597.73</v>
       </c>
       <c r="F140">
-        <v>278850.94</v>
+        <v>268490.16</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>27823.54</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -6402,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>64312.56099999999</v>
+        <v>66787.85000000001</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6410,25 +6419,25 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C141">
         <v>2024</v>
       </c>
       <c r="D141" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E141">
-        <v>19169.37</v>
+        <v>15420.4</v>
       </c>
       <c r="F141">
-        <v>326562.89</v>
+        <v>284483.45</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>41767.11</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -6437,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>99980.56</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -6448,19 +6457,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C142">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D142" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E142">
-        <v>14357.77</v>
+        <v>13259.48</v>
       </c>
       <c r="F142">
-        <v>155228.6425</v>
+        <v>216927.71</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -6486,19 +6495,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C143">
         <v>2018</v>
       </c>
       <c r="D143" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E143">
-        <v>19050.0768</v>
+        <v>13800.27</v>
       </c>
       <c r="F143">
-        <v>191974.1147</v>
+        <v>258896.66</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -6524,25 +6533,25 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C144">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D144" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E144">
-        <v>31243.12</v>
+        <v>33999.38</v>
       </c>
       <c r="F144">
-        <v>44558.3</v>
+        <v>278850.94</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>37331.03</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -6554,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>281740.09</v>
+        <v>64312.56099999999</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6562,28 +6571,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C145">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D145" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E145">
-        <v>12528.64</v>
+        <v>19169.37</v>
       </c>
       <c r="F145">
-        <v>200276.65</v>
+        <v>326562.89</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>41767.11</v>
       </c>
       <c r="I145">
-        <v>121492.09</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -6600,19 +6609,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C146">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D146" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E146">
-        <v>13177.31</v>
+        <v>14357.77</v>
       </c>
       <c r="F146">
-        <v>221459.31</v>
+        <v>155228.6425</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -6638,19 +6647,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C147">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D147" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E147">
-        <v>12543.45</v>
+        <v>19050.0768</v>
       </c>
       <c r="F147">
-        <v>217500.3</v>
+        <v>191974.1147</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6676,25 +6685,25 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C148">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D148" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E148">
-        <v>15225.93</v>
+        <v>31243.12</v>
       </c>
       <c r="F148">
-        <v>315958.39</v>
+        <v>44558.3</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>37331.03</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -6706,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>281740.09</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6714,19 +6723,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C149">
         <v>2019</v>
       </c>
       <c r="D149" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E149">
-        <v>16903.25</v>
+        <v>12528.64</v>
       </c>
       <c r="F149">
-        <v>173362.42</v>
+        <v>200276.65</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -6735,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <v>6691.48</v>
+        <v>121492.09</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -6755,16 +6764,16 @@
         <v>121</v>
       </c>
       <c r="C150">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D150" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E150">
-        <v>54121.01</v>
+        <v>13177.31</v>
       </c>
       <c r="F150">
-        <v>1168.52</v>
+        <v>221459.31</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -6782,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>868.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6793,22 +6802,22 @@
         <v>122</v>
       </c>
       <c r="C151">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D151" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E151">
-        <v>28999.4</v>
+        <v>12543.45</v>
       </c>
       <c r="F151">
-        <v>217367.74</v>
+        <v>217500.3</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>34454.64</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6828,19 +6837,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C152">
         <v>2020</v>
       </c>
       <c r="D152" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E152">
-        <v>12619.63</v>
+        <v>15225.93</v>
       </c>
       <c r="F152">
-        <v>207803.61</v>
+        <v>315958.39</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -6866,19 +6875,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C153">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D153" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E153">
-        <v>10587.69</v>
+        <v>16903.25</v>
       </c>
       <c r="F153">
-        <v>199705.33</v>
+        <v>173362.42</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -6887,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>6691.48</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -6904,19 +6913,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C154">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D154" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E154">
-        <v>15725.71</v>
+        <v>54121.01</v>
       </c>
       <c r="F154">
-        <v>183327.56</v>
+        <v>1168.52</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -6934,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>868.15</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6942,25 +6951,25 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C155">
         <v>2024</v>
       </c>
       <c r="D155" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E155">
-        <v>9506.98</v>
+        <v>28999.4</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>217367.74</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>34454.64</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -6980,19 +6989,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C156">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D156" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E156">
-        <v>13933</v>
+        <v>12619.63</v>
       </c>
       <c r="F156">
-        <v>184519.4</v>
+        <v>207803.61</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -7018,19 +7027,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C157">
         <v>2018</v>
       </c>
       <c r="D157" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E157">
-        <v>12477.44</v>
+        <v>10587.69</v>
       </c>
       <c r="F157">
-        <v>188301.9</v>
+        <v>199705.33</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -7056,19 +7065,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C158">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D158" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E158">
-        <v>19211.92</v>
+        <v>15725.71</v>
       </c>
       <c r="F158">
-        <v>220874.14</v>
+        <v>183327.56</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -7100,19 +7109,19 @@
         <v>2024</v>
       </c>
       <c r="D159" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E159">
-        <v>25492.61</v>
+        <v>9506.98</v>
       </c>
       <c r="F159">
-        <v>275325.14</v>
+        <v>0</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>37644.27</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -7138,13 +7147,13 @@
         <v>2019</v>
       </c>
       <c r="D160" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E160">
-        <v>13857.01</v>
+        <v>13933</v>
       </c>
       <c r="F160">
-        <v>236977.45</v>
+        <v>184519.4</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -7170,19 +7179,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C161">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D161" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>12477.44</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>188301.9</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -7211,16 +7220,16 @@
         <v>130</v>
       </c>
       <c r="C162">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D162" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E162">
-        <v>15699.21</v>
+        <v>19211.92</v>
       </c>
       <c r="F162">
-        <v>307162.5699999999</v>
+        <v>220874.14</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -7249,22 +7258,22 @@
         <v>130</v>
       </c>
       <c r="C163">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D163" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E163">
-        <v>16248.56</v>
+        <v>25492.61</v>
       </c>
       <c r="F163">
-        <v>467700.0699999999</v>
+        <v>275325.14</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>37644.27</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -7284,25 +7293,25 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C164">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D164" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E164">
-        <v>27757.88</v>
+        <v>13857.01</v>
       </c>
       <c r="F164">
-        <v>289231.3</v>
+        <v>236977.45</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>39974.8</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -7325,16 +7334,16 @@
         <v>131</v>
       </c>
       <c r="C165">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D165" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E165">
-        <v>12415.19</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>175671.60625</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -7360,19 +7369,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C166">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D166" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E166">
-        <v>13046.52</v>
+        <v>15699.21</v>
       </c>
       <c r="F166">
-        <v>318854.3</v>
+        <v>307162.5699999999</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -7398,22 +7407,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C167">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D167" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E167">
-        <v>24799.71</v>
+        <v>16248.56</v>
       </c>
       <c r="F167">
-        <v>350986.63</v>
+        <v>467700.0699999999</v>
       </c>
       <c r="G167">
-        <v>71996.78</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -7439,22 +7448,22 @@
         <v>132</v>
       </c>
       <c r="C168">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D168" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E168">
-        <v>18143.44</v>
+        <v>27757.88</v>
       </c>
       <c r="F168">
-        <v>160417.17</v>
+        <v>289231.3</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>39974.8</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -7477,22 +7486,22 @@
         <v>133</v>
       </c>
       <c r="C169">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D169" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E169">
-        <v>42525.34</v>
+        <v>12415.19</v>
       </c>
       <c r="F169">
-        <v>301519.74</v>
+        <v>175671.60625</v>
       </c>
       <c r="G169">
-        <v>27920.62</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>1749.83</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -7515,22 +7524,22 @@
         <v>133</v>
       </c>
       <c r="C170">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D170" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E170">
-        <v>22035.11</v>
+        <v>13046.52</v>
       </c>
       <c r="F170">
-        <v>260868.28</v>
+        <v>318854.3</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
       <c r="H170">
-        <v>39735.43</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -7550,22 +7559,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C171">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D171" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E171">
-        <v>26955.18</v>
+        <v>24799.71</v>
       </c>
       <c r="F171">
-        <v>193777.99</v>
+        <v>350986.63</v>
       </c>
       <c r="G171">
-        <v>36021.54</v>
+        <v>71996.78</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -7580,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="L171">
-        <v>232325.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7591,31 +7600,31 @@
         <v>134</v>
       </c>
       <c r="C172">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D172" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E172">
-        <v>42759.20999999999</v>
+        <v>18143.44</v>
       </c>
       <c r="F172">
-        <v>314599.93</v>
+        <v>160417.17</v>
       </c>
       <c r="G172">
-        <v>47730.35</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>107351.54</v>
+        <v>0</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172">
-        <v>113446.6</v>
+        <v>0</v>
       </c>
       <c r="L172">
         <v>0</v>
@@ -7629,22 +7638,22 @@
         <v>135</v>
       </c>
       <c r="C173">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D173" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E173">
-        <v>11820</v>
+        <v>42525.34</v>
       </c>
       <c r="F173">
-        <v>198013.18</v>
+        <v>301519.74</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>27920.62</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1749.83</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -7664,25 +7673,25 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C174">
         <v>2024</v>
       </c>
       <c r="D174" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E174">
-        <v>19256.39</v>
+        <v>22035.11</v>
       </c>
       <c r="F174">
-        <v>275811.8099999999</v>
+        <v>260868.28</v>
       </c>
       <c r="G174">
-        <v>48939.26</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>39735.43</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -7702,22 +7711,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C175">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D175" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E175">
-        <v>16141.67</v>
+        <v>26955.18</v>
       </c>
       <c r="F175">
-        <v>165224.78</v>
+        <v>193777.99</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>36021.54</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -7732,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="L175">
-        <v>0</v>
+        <v>232325.59</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7740,34 +7749,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C176">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D176" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E176">
-        <v>12739.01</v>
+        <v>42759.20999999999</v>
       </c>
       <c r="F176">
-        <v>225647.43</v>
+        <v>314599.93</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>47730.35</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>107351.54</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>113446.6</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -7778,19 +7787,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C177">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D177" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E177">
-        <v>13798.26</v>
+        <v>11820</v>
       </c>
       <c r="F177">
-        <v>219894.36</v>
+        <v>198013.18</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -7816,25 +7825,25 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C178">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D178" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E178">
-        <v>32674.29</v>
+        <v>19256.39</v>
       </c>
       <c r="F178">
-        <v>290087.79</v>
+        <v>275811.8099999999</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>48939.26</v>
       </c>
       <c r="H178">
-        <v>16697.25</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -7846,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="L178">
-        <v>18450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7854,19 +7863,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C179">
         <v>2020</v>
       </c>
       <c r="D179" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>16141.67</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>165224.78</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -7895,16 +7904,16 @@
         <v>140</v>
       </c>
       <c r="C180">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D180" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E180">
-        <v>1774.63</v>
+        <v>12739.01</v>
       </c>
       <c r="F180">
-        <v>224481.66</v>
+        <v>225647.43</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -7930,19 +7939,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C181">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D181" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E181">
-        <v>19477.29</v>
+        <v>13798.26</v>
       </c>
       <c r="F181">
-        <v>311733.94</v>
+        <v>219894.36</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -7968,37 +7977,37 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C182">
         <v>2025</v>
       </c>
       <c r="D182" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E182">
-        <v>23508.78</v>
+        <v>32674.29</v>
       </c>
       <c r="F182">
-        <v>568269.17</v>
+        <v>290087.79</v>
       </c>
       <c r="G182">
-        <v>2615.02</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>16697.25</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K182">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="L182">
-        <v>19719.56</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8006,19 +8015,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C183">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D183" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E183">
-        <v>35469.37</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>194678.14</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -8036,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>15195.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8044,25 +8053,25 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C184">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D184" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E184">
-        <v>55450.76</v>
+        <v>1774.63</v>
       </c>
       <c r="F184">
-        <v>217887.65</v>
+        <v>224481.66</v>
       </c>
       <c r="G184">
-        <v>6244.8</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>18450</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -8071,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <v>68700</v>
+        <v>0</v>
       </c>
       <c r="L184">
         <v>0</v>
@@ -8085,16 +8094,16 @@
         <v>142</v>
       </c>
       <c r="C185">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D185" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E185">
-        <v>1828.08</v>
+        <v>19477.29</v>
       </c>
       <c r="F185">
-        <v>235649.96</v>
+        <v>311733.94</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -8109,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>57250</v>
+        <v>0</v>
       </c>
       <c r="L185">
         <v>0</v>
@@ -8120,22 +8129,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C186">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="D186" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E186">
-        <v>11846.76</v>
+        <v>23508.78</v>
       </c>
       <c r="F186">
-        <v>336434.65</v>
+        <v>568269.17</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>2615.02</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -8144,13 +8153,13 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>90840</v>
       </c>
       <c r="L186">
-        <v>0</v>
+        <v>19719.56</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8158,37 +8167,37 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C187">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D187" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E187">
-        <v>29758.22</v>
+        <v>35469.37</v>
       </c>
       <c r="F187">
-        <v>245114.65</v>
+        <v>194678.14</v>
       </c>
       <c r="G187">
-        <v>6805.46</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>10800.63</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
       <c r="L187">
-        <v>0</v>
+        <v>15195.68</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8196,25 +8205,25 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C188">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D188" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E188">
-        <v>9802.68</v>
+        <v>55450.76</v>
       </c>
       <c r="F188">
-        <v>36867.7</v>
+        <v>217887.65</v>
       </c>
       <c r="G188">
-        <v>52848.88</v>
+        <v>6244.8</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -8223,10 +8232,10 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>68700</v>
       </c>
       <c r="L188">
-        <v>412938.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8234,22 +8243,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C189">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="D189" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E189">
-        <v>11176.94</v>
+        <v>38786.79</v>
       </c>
       <c r="F189">
-        <v>601025.85</v>
+        <v>234268.39</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>18401.6</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -8261,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>42365</v>
       </c>
       <c r="L189">
         <v>0</v>
@@ -8272,22 +8281,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C190">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D190" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E190">
-        <v>23818.85</v>
+        <v>1828.08</v>
       </c>
       <c r="F190">
-        <v>292282.33</v>
+        <v>235649.96</v>
       </c>
       <c r="G190">
-        <v>3569.4</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -8299,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>57250</v>
       </c>
       <c r="L190">
         <v>0</v>
@@ -8310,19 +8319,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C191">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D191" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>11846.76</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>336434.65</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -8348,31 +8357,31 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C192">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D192" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E192">
-        <v>24072.81</v>
+        <v>29758.22</v>
       </c>
       <c r="F192">
-        <v>327804.72</v>
+        <v>245114.65</v>
       </c>
       <c r="G192">
-        <v>12712.97</v>
+        <v>6805.46</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>10800.63</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -8386,22 +8395,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C193">
         <v>2023</v>
       </c>
       <c r="D193" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E193">
-        <v>15831.12</v>
+        <v>9802.68</v>
       </c>
       <c r="F193">
-        <v>282603.38</v>
+        <v>36867.7</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>52848.88</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -8416,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <v>105601.09</v>
+        <v>412938.29</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8424,22 +8433,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C194">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D194" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E194">
-        <v>16291.92</v>
+        <v>11176.94</v>
       </c>
       <c r="F194">
-        <v>296391.7500000001</v>
+        <v>601025.85</v>
       </c>
       <c r="G194">
-        <v>24492.93</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -8462,22 +8471,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C195">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D195" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E195">
-        <v>4356.97</v>
+        <v>23818.85</v>
       </c>
       <c r="F195">
-        <v>304463.24</v>
+        <v>292282.33</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>3569.4</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -8500,7 +8509,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C196">
         <v>2024</v>
@@ -8509,13 +8518,13 @@
         <v>228</v>
       </c>
       <c r="E196">
-        <v>44241.33</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>257487.24</v>
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>16747.13</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -8527,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>28311.8</v>
+        <v>0</v>
       </c>
       <c r="L196">
         <v>0</v>
@@ -8538,22 +8547,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C197">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D197" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E197">
-        <v>51564.49000000001</v>
+        <v>24072.81</v>
       </c>
       <c r="F197">
-        <v>159084.44</v>
+        <v>327804.72</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>12712.97</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -8576,19 +8585,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C198">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D198" t="s">
         <v>229</v>
       </c>
       <c r="E198">
-        <v>11420.6</v>
+        <v>15831.12</v>
       </c>
       <c r="F198">
-        <v>367000.79</v>
+        <v>282603.38</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -8606,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>105601.09</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8614,22 +8623,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C199">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D199" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E199">
-        <v>17985.91</v>
+        <v>16291.92</v>
       </c>
       <c r="F199">
-        <v>386638.67</v>
+        <v>296391.7500000001</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>24492.93</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -8641,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>57250</v>
+        <v>0</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -8652,25 +8661,25 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C200">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D200" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E200">
-        <v>33901.57</v>
+        <v>4356.97</v>
       </c>
       <c r="F200">
-        <v>261478.27</v>
+        <v>304463.24</v>
       </c>
       <c r="G200">
-        <v>17002.17</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>275.83</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -8690,25 +8699,25 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C201">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D201" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E201">
-        <v>13998.26</v>
+        <v>44241.33</v>
       </c>
       <c r="F201">
-        <v>333251.0599999999</v>
+        <v>257487.24</v>
       </c>
       <c r="G201">
-        <v>107309.97</v>
+        <v>16747.13</v>
       </c>
       <c r="H201">
-        <v>18144.73</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -8717,10 +8726,10 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>82657.62</v>
+        <v>28311.8</v>
       </c>
       <c r="L201">
-        <v>43134.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8728,25 +8737,25 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C202">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D202" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E202">
-        <v>21705.25</v>
+        <v>51564.49000000001</v>
       </c>
       <c r="F202">
-        <v>287071.98</v>
+        <v>159084.44</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>36194.4</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -8766,19 +8775,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C203">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D203" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E203">
-        <v>4479.09</v>
+        <v>11420.6</v>
       </c>
       <c r="F203">
-        <v>323170.59</v>
+        <v>367000.79</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -8804,19 +8813,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C204">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D204" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E204">
-        <v>7347.25</v>
+        <v>17985.91</v>
       </c>
       <c r="F204">
-        <v>237060.74</v>
+        <v>386638.67</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -8831,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>57250</v>
       </c>
       <c r="L204">
         <v>0</v>
@@ -8842,25 +8851,25 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C205">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D205" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E205">
-        <v>28420.94</v>
+        <v>33901.57</v>
       </c>
       <c r="F205">
-        <v>239742.97</v>
+        <v>261478.27</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>17002.17</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>275.83</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -8880,25 +8889,25 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C206">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D206" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E206">
-        <v>24323.39</v>
+        <v>13998.26</v>
       </c>
       <c r="F206">
-        <v>332838.29</v>
+        <v>333251.0599999999</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>107309.97</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>18144.73</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -8907,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="K206">
-        <v>0</v>
+        <v>82657.62</v>
       </c>
       <c r="L206">
-        <v>0</v>
+        <v>43134.62</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8918,25 +8927,25 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C207">
         <v>2025</v>
       </c>
       <c r="D207" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E207">
-        <v>24335.07</v>
+        <v>21705.25</v>
       </c>
       <c r="F207">
-        <v>247385.28</v>
+        <v>287071.98</v>
       </c>
       <c r="G207">
         <v>0</v>
       </c>
       <c r="H207">
-        <v>6678.9</v>
+        <v>36194.4</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -8948,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8956,22 +8965,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C208">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D208" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E208">
-        <v>15158.99</v>
+        <v>4479.09</v>
       </c>
       <c r="F208">
-        <v>52951.37</v>
+        <v>323170.59</v>
       </c>
       <c r="G208">
-        <v>82059.82000000001</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -8983,10 +8992,10 @@
         <v>0</v>
       </c>
       <c r="K208">
-        <v>86200</v>
+        <v>0</v>
       </c>
       <c r="L208">
-        <v>382817.33907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8994,22 +9003,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C209">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D209" t="s">
         <v>228</v>
       </c>
       <c r="E209">
-        <v>22202.17</v>
+        <v>7347.25</v>
       </c>
       <c r="F209">
-        <v>232396.83</v>
+        <v>237060.74</v>
       </c>
       <c r="G209">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -9032,25 +9041,25 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C210">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D210" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E210">
-        <v>16256.84</v>
+        <v>28420.94</v>
       </c>
       <c r="F210">
-        <v>519564.24</v>
+        <v>239742.97</v>
       </c>
       <c r="G210">
-        <v>27360.25</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>35582.15</v>
+        <v>0</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -9059,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="K210">
-        <v>163743.27</v>
+        <v>0</v>
       </c>
       <c r="L210">
         <v>0</v>
@@ -9070,22 +9079,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C211">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D211" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E211">
-        <v>8622.16</v>
+        <v>24323.39</v>
       </c>
       <c r="F211">
-        <v>37065.48</v>
+        <v>332838.29</v>
       </c>
       <c r="G211">
-        <v>58826.03</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -9100,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="L211">
-        <v>421261.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9108,25 +9117,25 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C212">
         <v>2025</v>
       </c>
       <c r="D212" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E212">
-        <v>31949.91</v>
+        <v>24335.07</v>
       </c>
       <c r="F212">
-        <v>264422.99</v>
+        <v>247385.28</v>
       </c>
       <c r="G212">
-        <v>6589.74</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>6678.9</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -9138,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="L212">
-        <v>14106.87</v>
+        <v>82632.71000000001</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9146,25 +9155,25 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C213">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D213" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E213">
-        <v>23168.05</v>
+        <v>15158.99</v>
       </c>
       <c r="F213">
-        <v>306631.56</v>
+        <v>52951.37</v>
       </c>
       <c r="G213">
-        <v>29341.69</v>
+        <v>82059.82000000001</v>
       </c>
       <c r="H213">
-        <v>38662.27</v>
+        <v>0</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -9173,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="K213">
-        <v>0</v>
+        <v>86200</v>
       </c>
       <c r="L213">
-        <v>0</v>
+        <v>382817.33907</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9184,22 +9193,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C214">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D214" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E214">
-        <v>12827.05</v>
+        <v>22202.17</v>
       </c>
       <c r="F214">
-        <v>181651.17</v>
+        <v>231965.51</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>3310.93</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -9222,25 +9231,25 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C215">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D215" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E215">
-        <v>34725.64</v>
+        <v>16256.84</v>
       </c>
       <c r="F215">
-        <v>314368.92</v>
+        <v>519564.24</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>27360.25</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>35582.15</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -9249,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="K215">
-        <v>0</v>
+        <v>163743.27</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -9260,22 +9269,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C216">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D216" t="s">
         <v>229</v>
       </c>
       <c r="E216">
-        <v>15364.28</v>
+        <v>8622.16</v>
       </c>
       <c r="F216">
-        <v>187391.76</v>
+        <v>37065.48</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>58826.03</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -9290,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>0</v>
+        <v>421261.45</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9298,37 +9307,37 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C217">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D217" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E217">
-        <v>17569.72</v>
+        <v>31949.91</v>
       </c>
       <c r="F217">
-        <v>305648.41</v>
+        <v>264422.99</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>6589.74</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>49192.27</v>
+        <v>0</v>
       </c>
       <c r="J217">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K217">
         <v>0</v>
       </c>
       <c r="L217">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9336,25 +9345,25 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C218">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D218" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E218">
-        <v>16214.61</v>
+        <v>23168.05</v>
       </c>
       <c r="F218">
-        <v>225593.26</v>
+        <v>306631.56</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>29341.69</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>38662.27</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -9374,19 +9383,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C219">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D219" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E219">
-        <v>7523.96</v>
+        <v>12827.05</v>
       </c>
       <c r="F219">
-        <v>443182.814</v>
+        <v>181651.17</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -9412,19 +9421,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C220">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D220" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E220">
-        <v>14940.04</v>
+        <v>34725.64</v>
       </c>
       <c r="F220">
-        <v>249961.31</v>
+        <v>314368.92</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -9450,19 +9459,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C221">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D221" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>15364.28</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>187391.76</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -9488,19 +9497,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C222">
         <v>2023</v>
       </c>
       <c r="D222" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E222">
-        <v>24997.66</v>
+        <v>17569.72</v>
       </c>
       <c r="F222">
-        <v>310871.0000000001</v>
+        <v>305648.41</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -9509,10 +9518,10 @@
         <v>0</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>49192.27</v>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -9526,19 +9535,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C223">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D223" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E223">
-        <v>27658.57</v>
+        <v>16214.61</v>
       </c>
       <c r="F223">
-        <v>364864.3700000001</v>
+        <v>225593.26</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -9564,19 +9573,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C224">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D224" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E224">
-        <v>3965.940000000001</v>
+        <v>35983.12</v>
       </c>
       <c r="F224">
-        <v>323427.1</v>
+        <v>297098.25</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -9588,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -9602,19 +9611,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C225">
         <v>2019</v>
       </c>
       <c r="D225" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E225">
-        <v>15288.45</v>
+        <v>7523.96</v>
       </c>
       <c r="F225">
-        <v>249637.08</v>
+        <v>443182.814</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -9640,19 +9649,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C226">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D226" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E226">
-        <v>14009.0748</v>
+        <v>14940.04</v>
       </c>
       <c r="F226">
-        <v>199225.9142</v>
+        <v>249961.31</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -9678,19 +9687,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C227">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D227" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E227">
-        <v>18477.94</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>183903.92</v>
+        <v>0</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -9716,19 +9725,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C228">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D228" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>24997.66</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>310871.0000000001</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -9754,19 +9763,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C229">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D229" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E229">
-        <v>4129.22</v>
+        <v>27658.57</v>
       </c>
       <c r="F229">
-        <v>302465.5699999999</v>
+        <v>364864.3700000001</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -9792,25 +9801,25 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C230">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D230" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E230">
-        <v>28850.83</v>
+        <v>3965.940000000001</v>
       </c>
       <c r="F230">
-        <v>323752.01</v>
+        <v>323427.1</v>
       </c>
       <c r="G230">
-        <v>799.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>3578.78</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -9819,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="K230">
-        <v>14683.68</v>
+        <v>0</v>
       </c>
       <c r="L230">
         <v>0</v>
@@ -9830,19 +9839,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C231">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D231" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E231">
-        <v>15565.47</v>
+        <v>15288.45</v>
       </c>
       <c r="F231">
-        <v>425655.52</v>
+        <v>249637.08</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -9868,19 +9877,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C232">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D232" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E232">
-        <v>25701.42</v>
+        <v>14009.0748</v>
       </c>
       <c r="F232">
-        <v>360320.2600000001</v>
+        <v>199225.9142</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -9906,19 +9915,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C233">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D233" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E233">
-        <v>12453.962</v>
+        <v>18477.94</v>
       </c>
       <c r="F233">
-        <v>231551.65</v>
+        <v>183903.92</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -9944,19 +9953,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C234">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D234" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E234">
-        <v>18647.5</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>246405.12</v>
+        <v>0</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -9985,19 +9994,19 @@
         <v>182</v>
       </c>
       <c r="C235">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D235" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E235">
-        <v>-17711.21</v>
+        <v>4129.22</v>
       </c>
       <c r="F235">
-        <v>279517.78</v>
+        <v>302465.5699999999</v>
       </c>
       <c r="G235">
-        <v>29922.33</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -10009,10 +10018,10 @@
         <v>0</v>
       </c>
       <c r="K235">
-        <v>5575.93000000005</v>
+        <v>0</v>
       </c>
       <c r="L235">
-        <v>123283.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10026,28 +10035,28 @@
         <v>2024</v>
       </c>
       <c r="D236" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E236">
-        <v>20535.34</v>
+        <v>28850.83</v>
       </c>
       <c r="F236">
-        <v>358738.48</v>
+        <v>323752.01</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>799.1900000000001</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3578.78</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>14683.68</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -10061,16 +10070,16 @@
         <v>183</v>
       </c>
       <c r="C237">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D237" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E237">
-        <v>11431.24</v>
+        <v>52083.67</v>
       </c>
       <c r="F237">
-        <v>302027.92</v>
+        <v>166132.1</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -10099,16 +10108,16 @@
         <v>184</v>
       </c>
       <c r="C238">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D238" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E238">
-        <v>165246.91</v>
+        <v>15565.47</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>425655.52</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -10126,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="L238">
-        <v>331902.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10134,19 +10143,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C239">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D239" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E239">
-        <v>12667.15</v>
+        <v>25701.42</v>
       </c>
       <c r="F239">
-        <v>185435.1</v>
+        <v>360320.2600000001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -10175,19 +10184,19 @@
         <v>185</v>
       </c>
       <c r="C240">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D240" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E240">
-        <v>27181.54</v>
+        <v>12453.962</v>
       </c>
       <c r="F240">
-        <v>270393.7</v>
+        <v>231551.65</v>
       </c>
       <c r="G240">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -10210,19 +10219,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C241">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D241" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E241">
-        <v>13782.99</v>
+        <v>18647.5</v>
       </c>
       <c r="F241">
-        <v>173930.1379</v>
+        <v>246405.12</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -10248,22 +10257,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C242">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D242" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E242">
-        <v>23535.09</v>
+        <v>-17711.21</v>
       </c>
       <c r="F242">
-        <v>323399.7999999999</v>
+        <v>279517.78</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>29922.33</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -10275,10 +10284,10 @@
         <v>0</v>
       </c>
       <c r="K242">
-        <v>0</v>
+        <v>5575.93000000005</v>
       </c>
       <c r="L242">
-        <v>0</v>
+        <v>123283.02</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10286,19 +10295,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C243">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D243" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E243">
-        <v>12212.5</v>
+        <v>20535.34</v>
       </c>
       <c r="F243">
-        <v>258658.12</v>
+        <v>358738.48</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -10310,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="J243">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K243">
         <v>0</v>
@@ -10324,19 +10333,19 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C244">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D244" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E244">
-        <v>17895.03</v>
+        <v>11431.24</v>
       </c>
       <c r="F244">
-        <v>235044.78</v>
+        <v>302027.92</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -10362,16 +10371,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C245">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D245" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E245">
-        <v>6061.07</v>
+        <v>165246.91</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -10392,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="L245">
-        <v>0</v>
+        <v>331902.21</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -10400,19 +10409,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C246">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E246">
-        <v>81189.56</v>
+        <v>12667.15</v>
       </c>
       <c r="F246">
-        <v>75026.78</v>
+        <v>185435.1</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -10438,28 +10447,28 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C247">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D247" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E247">
-        <v>10737.8</v>
+        <v>27181.54</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>270393.7</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="H247">
         <v>0</v>
       </c>
       <c r="I247">
-        <v>4140.61</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -10476,31 +10485,31 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C248">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D248" t="s">
         <v>230</v>
       </c>
       <c r="E248">
-        <v>21322.77</v>
+        <v>13782.99</v>
       </c>
       <c r="F248">
-        <v>357076.81</v>
+        <v>173930.1379</v>
       </c>
       <c r="G248">
-        <v>52820.04</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>43173.96</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>71282.87</v>
+        <v>0</v>
       </c>
       <c r="J248">
-        <v>20524.8</v>
+        <v>0</v>
       </c>
       <c r="K248">
         <v>0</v>
@@ -10514,19 +10523,19 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C249">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D249" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E249">
-        <v>14383.59</v>
+        <v>23535.09</v>
       </c>
       <c r="F249">
-        <v>387878.64</v>
+        <v>323399.7999999999</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -10541,10 +10550,10 @@
         <v>0</v>
       </c>
       <c r="K249">
-        <v>5575.93</v>
+        <v>0</v>
       </c>
       <c r="L249">
-        <v>24709.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -10552,25 +10561,25 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C250">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D250" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E250">
-        <v>33875.99</v>
+        <v>12212.5</v>
       </c>
       <c r="F250">
-        <v>388449.69</v>
+        <v>258658.12</v>
       </c>
       <c r="G250">
-        <v>41728.31</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -10590,19 +10599,19 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C251">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D251" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E251">
-        <v>25928.52</v>
+        <v>17895.03</v>
       </c>
       <c r="F251">
-        <v>231153.82</v>
+        <v>235044.78</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -10631,22 +10640,22 @@
         <v>193</v>
       </c>
       <c r="C252">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D252" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E252">
-        <v>24492.98</v>
+        <v>6061.07</v>
       </c>
       <c r="F252">
-        <v>532274.26</v>
+        <v>0</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -10666,19 +10675,19 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C253">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D253" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E253">
-        <v>8419.720000000001</v>
+        <v>81189.56</v>
       </c>
       <c r="F253">
-        <v>54455.82000000001</v>
+        <v>75026.78</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -10696,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="L253">
-        <v>395886.61</v>
+        <v>21490.444</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -10704,28 +10713,28 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C254">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D254" t="s">
         <v>236</v>
       </c>
       <c r="E254">
-        <v>22980.59</v>
+        <v>10737.8</v>
       </c>
       <c r="F254">
-        <v>366339.46</v>
+        <v>0</v>
       </c>
       <c r="G254">
         <v>0</v>
       </c>
       <c r="H254">
-        <v>13445.18</v>
+        <v>0</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>4140.61</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -10742,31 +10751,31 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C255">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D255" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E255">
-        <v>37216.64</v>
+        <v>21322.77</v>
       </c>
       <c r="F255">
-        <v>242446.69</v>
+        <v>357076.81</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>52820.04</v>
       </c>
       <c r="H255">
-        <v>40563.95</v>
+        <v>43173.96</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>71282.87</v>
       </c>
       <c r="J255">
-        <v>0</v>
+        <v>20524.8</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -10780,19 +10789,19 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C256">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D256" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E256">
-        <v>2716.32</v>
+        <v>14383.59</v>
       </c>
       <c r="F256">
-        <v>210682.46</v>
+        <v>387878.64</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -10807,10 +10816,10 @@
         <v>0</v>
       </c>
       <c r="K256">
-        <v>0</v>
+        <v>5575.93</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>24709.7</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10818,25 +10827,25 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C257">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D257" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E257">
-        <v>17759.01</v>
+        <v>33875.99</v>
       </c>
       <c r="F257">
-        <v>386062.43</v>
+        <v>388449.69</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>41728.31</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>34125.23</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -10856,25 +10865,25 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C258">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D258" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E258">
-        <v>35046.84</v>
+        <v>25928.52</v>
       </c>
       <c r="F258">
-        <v>349849.48</v>
+        <v>231153.82</v>
       </c>
       <c r="G258">
-        <v>11417</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>36470.26</v>
+        <v>0</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -10894,25 +10903,25 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C259">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D259" t="s">
         <v>230</v>
       </c>
       <c r="E259">
-        <v>33125.15</v>
+        <v>24492.98</v>
       </c>
       <c r="F259">
-        <v>276026.48</v>
+        <v>532274.26</v>
       </c>
       <c r="G259">
-        <v>4909.31</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>38612.49</v>
+        <v>13669.61</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -10932,19 +10941,19 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C260">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D260" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E260">
-        <v>11361.71</v>
+        <v>8419.720000000001</v>
       </c>
       <c r="F260">
-        <v>191385.42</v>
+        <v>54455.82000000001</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -10962,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="L260">
-        <v>0</v>
+        <v>395886.61</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10970,25 +10979,25 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C261">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D261" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E261">
-        <v>13383.78</v>
+        <v>22980.59</v>
       </c>
       <c r="F261">
-        <v>233981.11</v>
+        <v>366339.46</v>
       </c>
       <c r="G261">
         <v>0</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>13445.18</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -11008,28 +11017,28 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C262">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D262" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E262">
-        <v>19527.76</v>
+        <v>37216.64</v>
       </c>
       <c r="F262">
-        <v>281243.35</v>
+        <v>242446.69</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="H262">
-        <v>35382.27</v>
+        <v>40563.95</v>
       </c>
       <c r="I262">
-        <v>3798.2</v>
+        <v>0</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -11038,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="L262">
-        <v>136470.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11046,28 +11055,28 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C263">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D263" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E263">
-        <v>15973.55</v>
+        <v>2716.32</v>
       </c>
       <c r="F263">
-        <v>241464.2</v>
+        <v>210682.46</v>
       </c>
       <c r="G263">
-        <v>1480.2</v>
+        <v>0</v>
       </c>
       <c r="H263">
         <v>0</v>
       </c>
       <c r="I263">
-        <v>64409.25</v>
+        <v>0</v>
       </c>
       <c r="J263">
         <v>0</v>
@@ -11084,19 +11093,19 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C264">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D264" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E264">
-        <v>19888.19</v>
+        <v>17759.01</v>
       </c>
       <c r="F264">
-        <v>211243.48</v>
+        <v>386062.43</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -11122,25 +11131,25 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C265">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D265" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E265">
-        <v>66686.92</v>
+        <v>35046.84</v>
       </c>
       <c r="F265">
-        <v>48945.84</v>
+        <v>349849.48</v>
       </c>
       <c r="G265">
-        <v>0</v>
+        <v>11417</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>36470.26</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -11152,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="L265">
-        <v>69766.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11160,25 +11169,25 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C266">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D266" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E266">
-        <v>13708.27</v>
+        <v>33125.15</v>
       </c>
       <c r="F266">
-        <v>188165.16</v>
+        <v>276026.48</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>4909.31</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>38612.49</v>
       </c>
       <c r="I266">
         <v>0</v>
@@ -11201,22 +11210,22 @@
         <v>203</v>
       </c>
       <c r="C267">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D267" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E267">
-        <v>26020.53</v>
+        <v>11361.71</v>
       </c>
       <c r="F267">
-        <v>382845.83</v>
+        <v>191385.42</v>
       </c>
       <c r="G267">
-        <v>53550.96</v>
+        <v>0</v>
       </c>
       <c r="H267">
-        <v>36977.6</v>
+        <v>0</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -11236,19 +11245,19 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C268">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D268" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E268">
-        <v>15914.36</v>
+        <v>13383.78</v>
       </c>
       <c r="F268">
-        <v>184039.98</v>
+        <v>233981.11</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -11274,28 +11283,28 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C269">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D269" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E269">
-        <v>35571.27</v>
+        <v>19527.76</v>
       </c>
       <c r="F269">
-        <v>48616.23</v>
+        <v>281243.35</v>
       </c>
       <c r="G269">
-        <v>37765.32</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>37083.02</v>
+        <v>35382.27</v>
       </c>
       <c r="I269">
-        <v>26413.08</v>
+        <v>3798.2</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -11304,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="L269">
-        <v>500373.46</v>
+        <v>136470.22</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11312,28 +11321,28 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C270">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D270" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E270">
-        <v>11970.44</v>
+        <v>15973.55</v>
       </c>
       <c r="F270">
-        <v>185665.45</v>
+        <v>241464.2</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1480.2</v>
       </c>
       <c r="H270">
         <v>0</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>64409.25</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -11350,19 +11359,19 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C271">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D271" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>19888.19</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>211243.48</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -11388,19 +11397,19 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C272">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D272" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E272">
-        <v>7061.75</v>
+        <v>66686.92</v>
       </c>
       <c r="F272">
-        <v>311836.39</v>
+        <v>48945.84</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -11418,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="L272">
-        <v>0</v>
+        <v>69766.31</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -11426,19 +11435,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C273">
         <v>2019</v>
       </c>
       <c r="D273" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E273">
-        <v>11375.6612</v>
+        <v>13708.27</v>
       </c>
       <c r="F273">
-        <v>208083.915</v>
+        <v>188165.16</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -11447,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="I273">
-        <v>8206.629999999999</v>
+        <v>0</v>
       </c>
       <c r="J273">
         <v>0</v>
@@ -11464,25 +11473,25 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C274">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D274" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>26020.53</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>382845.83</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>53550.96</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>36977.6</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -11502,19 +11511,19 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C275">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D275" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E275">
-        <v>14072.03</v>
+        <v>15914.36</v>
       </c>
       <c r="F275">
-        <v>294079.49</v>
+        <v>184039.98</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -11540,37 +11549,37 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C276">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D276" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E276">
-        <v>37243.67999999999</v>
+        <v>35571.27</v>
       </c>
       <c r="F276">
-        <v>318895.57</v>
+        <v>48616.23</v>
       </c>
       <c r="G276">
-        <v>31676.02</v>
+        <v>37765.32</v>
       </c>
       <c r="H276">
-        <v>38268.99</v>
+        <v>37083.02</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>26413.08</v>
       </c>
       <c r="J276">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K276">
         <v>0</v>
       </c>
       <c r="L276">
-        <v>0</v>
+        <v>500373.46</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -11578,19 +11587,19 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C277">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D277" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E277">
-        <v>13552.64</v>
+        <v>11970.44</v>
       </c>
       <c r="F277">
-        <v>252302.88</v>
+        <v>185665.45</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -11608,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="L277">
-        <v>107916.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -11616,25 +11625,25 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C278">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D278" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E278">
-        <v>20616.62</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>334250.51</v>
+        <v>0</v>
       </c>
       <c r="G278">
         <v>0</v>
       </c>
       <c r="H278">
-        <v>37353.5</v>
+        <v>0</v>
       </c>
       <c r="I278">
         <v>0</v>
@@ -11646,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="L278">
-        <v>9745.719999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -11654,19 +11663,19 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C279">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D279" t="s">
         <v>229</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>7061.75</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>311836.39</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -11692,28 +11701,28 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C280">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D280" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E280">
-        <v>13684.59</v>
+        <v>11375.6612</v>
       </c>
       <c r="F280">
-        <v>245254.53</v>
+        <v>208083.915</v>
       </c>
       <c r="G280">
-        <v>8968.219999999999</v>
+        <v>0</v>
       </c>
       <c r="H280">
         <v>0</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>8206.629999999999</v>
       </c>
       <c r="J280">
         <v>0</v>
@@ -11730,19 +11739,19 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C281">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D281" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E281">
-        <v>71886.29000000001</v>
+        <v>0</v>
       </c>
       <c r="F281">
-        <v>58491.51</v>
+        <v>0</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -11760,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="L281">
-        <v>352857.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -11768,19 +11777,19 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C282">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D282" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>14072.03</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>294079.49</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -11806,34 +11815,34 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C283">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D283" t="s">
         <v>229</v>
       </c>
       <c r="E283">
-        <v>1625.36</v>
+        <v>37243.67999999999</v>
       </c>
       <c r="F283">
-        <v>422035.45</v>
+        <v>318895.57</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>31676.02</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>38268.99</v>
       </c>
       <c r="I283">
         <v>0</v>
       </c>
       <c r="J283">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K283">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="L283">
         <v>0</v>
@@ -11844,19 +11853,19 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C284">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D284" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E284">
-        <v>26095.1</v>
+        <v>13552.64</v>
       </c>
       <c r="F284">
-        <v>258586.43</v>
+        <v>252302.88</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -11874,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="L284">
-        <v>0</v>
+        <v>107916.25</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -11882,25 +11891,25 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C285">
         <v>2023</v>
       </c>
       <c r="D285" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E285">
-        <v>8680.48</v>
+        <v>20616.62</v>
       </c>
       <c r="F285">
-        <v>380772.96</v>
+        <v>334250.51</v>
       </c>
       <c r="G285">
-        <v>90838.51999999999</v>
+        <v>0</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>37353.5</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -11912,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="L285">
-        <v>0</v>
+        <v>9745.719999999999</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -11920,19 +11929,19 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C286">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D286" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E286">
-        <v>27944</v>
+        <v>0</v>
       </c>
       <c r="F286">
-        <v>230888.76</v>
+        <v>0</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -11950,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="L286">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -11958,28 +11967,28 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C287">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D287" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E287">
-        <v>11117.34</v>
+        <v>13684.59</v>
       </c>
       <c r="F287">
-        <v>215912.61</v>
+        <v>245254.53</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>8968.219999999999</v>
       </c>
       <c r="H287">
         <v>0</v>
       </c>
       <c r="I287">
-        <v>22640.28</v>
+        <v>0</v>
       </c>
       <c r="J287">
         <v>0</v>
@@ -11996,19 +12005,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C288">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D288" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E288">
-        <v>1486.41</v>
+        <v>71886.29000000001</v>
       </c>
       <c r="F288">
-        <v>260869.4</v>
+        <v>58491.51</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -12026,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="L288">
-        <v>0</v>
+        <v>352857.28</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12034,22 +12043,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C289">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D289" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E289">
-        <v>28895.31</v>
+        <v>0</v>
       </c>
       <c r="F289">
-        <v>251643.6000000001</v>
+        <v>0</v>
       </c>
       <c r="G289">
-        <v>3379</v>
+        <v>0</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -12061,10 +12070,10 @@
         <v>0</v>
       </c>
       <c r="K289">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="L289">
-        <v>52444.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12072,25 +12081,25 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C290">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D290" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E290">
-        <v>21873.41</v>
+        <v>1625.36</v>
       </c>
       <c r="F290">
-        <v>286728.46</v>
+        <v>422035.45</v>
       </c>
       <c r="G290">
-        <v>57296.15</v>
+        <v>0</v>
       </c>
       <c r="H290">
-        <v>41990.43</v>
+        <v>0</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -12099,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="K290">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="L290">
         <v>0</v>
@@ -12110,19 +12119,19 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C291">
         <v>2024</v>
       </c>
       <c r="D291" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E291">
-        <v>5153.03</v>
+        <v>26095.1</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>258586.43</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -12148,25 +12157,25 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C292">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D292" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E292">
-        <v>29071.03</v>
+        <v>8680.48</v>
       </c>
       <c r="F292">
-        <v>325344.86</v>
+        <v>380772.96</v>
       </c>
       <c r="G292">
-        <v>91485.00999999999</v>
+        <v>90838.51999999999</v>
       </c>
       <c r="H292">
-        <v>39357.69</v>
+        <v>0</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -12175,10 +12184,10 @@
         <v>0</v>
       </c>
       <c r="K292">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="L292">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12186,36 +12195,340 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C293">
         <v>2025</v>
       </c>
       <c r="D293" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E293">
-        <v>30868.28</v>
+        <v>26512.21</v>
       </c>
       <c r="F293">
+        <v>337917.65</v>
+      </c>
+      <c r="G293">
+        <v>60888.94</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>74021.34</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>221</v>
+      </c>
+      <c r="C294">
+        <v>2025</v>
+      </c>
+      <c r="D294" t="s">
+        <v>228</v>
+      </c>
+      <c r="E294">
+        <v>27944</v>
+      </c>
+      <c r="F294">
+        <v>230888.76</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>23876.1125</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>222</v>
+      </c>
+      <c r="C295">
+        <v>2019</v>
+      </c>
+      <c r="D295" t="s">
+        <v>232</v>
+      </c>
+      <c r="E295">
+        <v>11117.34</v>
+      </c>
+      <c r="F295">
+        <v>215912.61</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>22640.28</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>222</v>
+      </c>
+      <c r="C296">
+        <v>2021</v>
+      </c>
+      <c r="D296" t="s">
+        <v>230</v>
+      </c>
+      <c r="E296">
+        <v>1486.41</v>
+      </c>
+      <c r="F296">
+        <v>260869.4</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>223</v>
+      </c>
+      <c r="C297">
+        <v>2025</v>
+      </c>
+      <c r="D297" t="s">
+        <v>235</v>
+      </c>
+      <c r="E297">
+        <v>28895.31</v>
+      </c>
+      <c r="F297">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="G297">
+        <v>3379</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>8029.89</v>
+      </c>
+      <c r="L297">
+        <v>52444.52</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>224</v>
+      </c>
+      <c r="C298">
+        <v>2023</v>
+      </c>
+      <c r="D298" t="s">
+        <v>238</v>
+      </c>
+      <c r="E298">
+        <v>21873.41</v>
+      </c>
+      <c r="F298">
+        <v>286728.46</v>
+      </c>
+      <c r="G298">
+        <v>57296.15</v>
+      </c>
+      <c r="H298">
+        <v>41990.43</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>225</v>
+      </c>
+      <c r="C299">
+        <v>2024</v>
+      </c>
+      <c r="D299" t="s">
+        <v>230</v>
+      </c>
+      <c r="E299">
+        <v>5153.03</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>226</v>
+      </c>
+      <c r="C300">
+        <v>2025</v>
+      </c>
+      <c r="D300" t="s">
+        <v>238</v>
+      </c>
+      <c r="E300">
+        <v>33879.14</v>
+      </c>
+      <c r="F300">
+        <v>325344.86</v>
+      </c>
+      <c r="G300">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="H300">
+        <v>39357.69</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>63566</v>
+      </c>
+      <c r="L300">
+        <v>229812.833425</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>227</v>
+      </c>
+      <c r="C301">
+        <v>2025</v>
+      </c>
+      <c r="D301" t="s">
+        <v>235</v>
+      </c>
+      <c r="E301">
+        <v>136868.28</v>
+      </c>
+      <c r="F301">
         <v>363209.57</v>
       </c>
-      <c r="G293">
+      <c r="G301">
         <v>65966.92</v>
       </c>
-      <c r="H293">
-        <v>0</v>
-      </c>
-      <c r="I293">
-        <v>0</v>
-      </c>
-      <c r="J293">
-        <v>0</v>
-      </c>
-      <c r="K293">
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
         <v>95933.12</v>
       </c>
-      <c r="L293">
+      <c r="L301">
         <v>60577.37</v>
       </c>
     </row>

--- a/summary/als/grouped_budget.xlsx
+++ b/summary/als/grouped_budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="240">
   <si>
     <t>WELL</t>
   </si>
@@ -70,6 +70,9 @@
     <t>ACAC-063</t>
   </si>
   <si>
+    <t>ACAC-112</t>
+  </si>
+  <si>
     <t>ACAC-162</t>
   </si>
   <si>
@@ -715,6 +718,9 @@
     <t>Nov</t>
   </si>
   <si>
+    <t>Oct</t>
+  </si>
+  <si>
     <t>Jul</t>
   </si>
   <si>
@@ -728,9 +734,6 @@
   </si>
   <si>
     <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L297"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1140,7 +1143,7 @@
         <v>2021</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E2">
         <v>2030.51</v>
@@ -1178,7 +1181,7 @@
         <v>2024</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <v>13088.98</v>
@@ -1216,7 +1219,7 @@
         <v>2024</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E4">
         <v>17514.05</v>
@@ -1254,7 +1257,7 @@
         <v>2022</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E5">
         <v>11588.81</v>
@@ -1292,7 +1295,7 @@
         <v>2024</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E6">
         <v>40530.62</v>
@@ -1330,7 +1333,7 @@
         <v>2024</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E7">
         <v>13439.56</v>
@@ -1368,7 +1371,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E8">
         <v>5512.77</v>
@@ -1406,7 +1409,7 @@
         <v>2019</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1444,7 +1447,7 @@
         <v>2022</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E10">
         <v>15611.56</v>
@@ -1482,7 +1485,7 @@
         <v>2022</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E11">
         <v>16823.1</v>
@@ -1520,7 +1523,7 @@
         <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E12">
         <v>11108.68</v>
@@ -1558,7 +1561,7 @@
         <v>2022</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E13">
         <v>13591.05</v>
@@ -1593,22 +1596,22 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E14">
-        <v>27077.93</v>
+        <v>13391.57</v>
       </c>
       <c r="F14">
-        <v>309293.48</v>
+        <v>279350.01</v>
       </c>
       <c r="G14">
-        <v>9996</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1597.77</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1617,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>63774.22</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1631,22 +1634,22 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E15">
-        <v>19689.11</v>
+        <v>27077.93</v>
       </c>
       <c r="F15">
-        <v>231296.59</v>
+        <v>309293.48</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>9996</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1597.77</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1669,16 +1672,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D16" t="s">
         <v>229</v>
       </c>
       <c r="E16">
-        <v>14875.23</v>
+        <v>19689.11</v>
       </c>
       <c r="F16">
-        <v>140416.48</v>
+        <v>231296.59</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1707,16 +1710,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E17">
-        <v>6205.74</v>
+        <v>14875.23</v>
       </c>
       <c r="F17">
-        <v>253185.9</v>
+        <v>140416.48</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1742,22 +1745,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E18">
-        <v>16809.41</v>
+        <v>6205.74</v>
       </c>
       <c r="F18">
-        <v>258645.31</v>
+        <v>253185.9</v>
       </c>
       <c r="G18">
-        <v>6850.2</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1783,19 +1786,19 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E19">
-        <v>15222.56</v>
+        <v>16809.41</v>
       </c>
       <c r="F19">
-        <v>220094.55</v>
+        <v>258645.31</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>6850.2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1824,13 +1827,13 @@
         <v>2019</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>15222.56</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>220094.55</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1856,37 +1859,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E21">
-        <v>14141.37</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>324338.03</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9313.559999999999</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>513.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1897,34 +1900,34 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E22">
-        <v>3366.56</v>
+        <v>14141.37</v>
       </c>
       <c r="F22">
-        <v>323371.7</v>
+        <v>324338.03</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9313.559999999999</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>513.59</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1935,16 +1938,16 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3366.56</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>323371.7</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1970,19 +1973,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E24">
-        <v>11098.74</v>
+        <v>33666.72</v>
       </c>
       <c r="F24">
-        <v>170859.69</v>
+        <v>341703.8</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2008,19 +2011,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E25">
-        <v>21497.05</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>342722.7399999999</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2049,16 +2052,16 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E26">
-        <v>6192.63</v>
+        <v>11098.74</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>170859.69</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2084,19 +2087,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E27">
-        <v>12362.17</v>
+        <v>21497.05</v>
       </c>
       <c r="F27">
-        <v>268349.03</v>
+        <v>342722.7399999999</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2125,22 +2128,22 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E28">
-        <v>20394.94</v>
+        <v>6192.63</v>
       </c>
       <c r="F28">
-        <v>235617.06</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>4965.16</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>5432</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2163,22 +2166,22 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E29">
-        <v>39820.85</v>
+        <v>12362.17</v>
       </c>
       <c r="F29">
-        <v>252738.5</v>
+        <v>268349.03</v>
       </c>
       <c r="G29">
-        <v>21518.49</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>33647.97</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2190,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>81917.37000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2207,16 +2210,16 @@
         <v>232</v>
       </c>
       <c r="E30">
-        <v>36695.74</v>
+        <v>20394.94</v>
       </c>
       <c r="F30">
-        <v>285277.04</v>
+        <v>235617.06</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>4965.16</v>
       </c>
       <c r="H30">
-        <v>5261.72</v>
+        <v>5432</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2236,25 +2239,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="D31" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E31">
-        <v>18094.14</v>
+        <v>39820.85</v>
       </c>
       <c r="F31">
-        <v>193672.08906155</v>
+        <v>252738.5</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>21518.49</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>33647.97</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2266,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>81917.37000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2277,22 +2280,22 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E32">
-        <v>2698.39</v>
+        <v>36695.74</v>
       </c>
       <c r="F32">
-        <v>182784.39</v>
+        <v>285277.04</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>5261.72</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2312,19 +2315,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E33">
-        <v>13656.86</v>
+        <v>18094.14</v>
       </c>
       <c r="F33">
-        <v>243895.18</v>
+        <v>193672.08906155</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2350,19 +2353,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E34">
-        <v>17109.43</v>
+        <v>2698.39</v>
       </c>
       <c r="F34">
-        <v>317869.52</v>
+        <v>182784.39</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2391,22 +2394,22 @@
         <v>31</v>
       </c>
       <c r="C35">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E35">
-        <v>20112.22</v>
+        <v>13656.86</v>
       </c>
       <c r="F35">
-        <v>360803.48</v>
+        <v>243895.18</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>40176.72</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2426,25 +2429,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>2024</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E36">
-        <v>18313.61</v>
+        <v>17109.43</v>
       </c>
       <c r="F36">
-        <v>245102.89</v>
+        <v>317869.52</v>
       </c>
       <c r="G36">
-        <v>5328.72</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>23372.02</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2464,37 +2467,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E37">
-        <v>36289.75</v>
+        <v>20112.22</v>
       </c>
       <c r="F37">
-        <v>454846.71</v>
+        <v>360803.48</v>
       </c>
       <c r="G37">
-        <v>50340.94</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>40176.72</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>72987.74000000001</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>141526.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2502,25 +2505,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E38">
-        <v>13432.73</v>
+        <v>18313.61</v>
       </c>
       <c r="F38">
-        <v>344889.59</v>
+        <v>245102.89</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>5328.72</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>23372.02</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2540,22 +2543,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E39">
-        <v>11717.78</v>
+        <v>36289.75</v>
       </c>
       <c r="F39">
-        <v>262384.14</v>
+        <v>454846.71</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>50340.94</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2564,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>72987.74000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>141526.81</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2578,25 +2581,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E40">
-        <v>38308.97</v>
+        <v>13432.73</v>
       </c>
       <c r="F40">
-        <v>258025.36</v>
+        <v>344889.59</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>30826.26</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2608,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>83812.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2616,25 +2619,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E41">
-        <v>17909.01</v>
+        <v>11717.78</v>
       </c>
       <c r="F41">
-        <v>242504.56</v>
+        <v>262384.14</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>15348.04</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2654,25 +2657,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E42">
-        <v>11661.54</v>
+        <v>38308.97</v>
       </c>
       <c r="F42">
-        <v>171197.3</v>
+        <v>258025.36</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>30826.26</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2684,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>83812.86</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2692,25 +2695,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>2024</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E43">
-        <v>25920.07</v>
+        <v>17909.01</v>
       </c>
       <c r="F43">
-        <v>315429.16</v>
+        <v>242504.56</v>
       </c>
       <c r="G43">
-        <v>11357.36</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>15348.04</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2730,22 +2733,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E44">
-        <v>28951.89</v>
+        <v>11661.54</v>
       </c>
       <c r="F44">
-        <v>297890.78</v>
+        <v>171197.3</v>
       </c>
       <c r="G44">
-        <v>25982.6</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2768,22 +2771,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D45" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E45">
-        <v>7902.42</v>
+        <v>25920.07</v>
       </c>
       <c r="F45">
-        <v>304818.55</v>
+        <v>315429.16</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>11357.36</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2809,19 +2812,19 @@
         <v>41</v>
       </c>
       <c r="C46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E46">
-        <v>17911.7</v>
+        <v>28951.89</v>
       </c>
       <c r="F46">
-        <v>271168.25</v>
+        <v>297890.78</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>25982.6</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2850,13 +2853,13 @@
         <v>2019</v>
       </c>
       <c r="D47" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E47">
-        <v>4029.21</v>
+        <v>7902.42</v>
       </c>
       <c r="F47">
-        <v>284251.4099999997</v>
+        <v>304818.55</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2882,19 +2885,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>17911.7</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>271168.25</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2923,19 +2926,19 @@
         <v>43</v>
       </c>
       <c r="C49">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D49" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E49">
-        <v>13212.72</v>
+        <v>4029.21</v>
       </c>
       <c r="F49">
-        <v>261305.15</v>
+        <v>284251.4099999997</v>
       </c>
       <c r="G49">
-        <v>5993.65</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2950,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>131787.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2961,16 +2964,16 @@
         <v>44</v>
       </c>
       <c r="C50">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E50">
-        <v>14850.64</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>229444.72</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2996,25 +2999,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D51" t="s">
         <v>233</v>
       </c>
       <c r="E51">
-        <v>26292.88</v>
+        <v>13212.72</v>
       </c>
       <c r="F51">
-        <v>318232.18</v>
+        <v>261305.15</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>5993.65</v>
       </c>
       <c r="H51">
-        <v>36443.18</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3026,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>131787.81</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3034,19 +3037,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52">
         <v>2023</v>
       </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E52">
-        <v>14898.4</v>
+        <v>14850.64</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>229444.72</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3072,25 +3075,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E53">
-        <v>11192.1</v>
+        <v>26292.88</v>
       </c>
       <c r="F53">
-        <v>84723.16</v>
+        <v>318232.18</v>
       </c>
       <c r="G53">
-        <v>25606.24</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>36443.18</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3099,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>29802.83</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>333242.6889657548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3110,16 +3113,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54">
         <v>2023</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>14898.4</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3148,22 +3151,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>11192.1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>84723.16</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>25606.24</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3175,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>29802.83</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>333242.6889657548</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3189,10 +3192,10 @@
         <v>49</v>
       </c>
       <c r="C56">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3227,22 +3230,22 @@
         <v>50</v>
       </c>
       <c r="C57">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E57">
-        <v>27337.44</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>281453.91</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>21807.01</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3262,22 +3265,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E58">
-        <v>14253.1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>310593.21</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>53566.45</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3303,22 +3306,22 @@
         <v>51</v>
       </c>
       <c r="C59">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E59">
-        <v>34665.32</v>
+        <v>27337.44</v>
       </c>
       <c r="F59">
-        <v>261407.76</v>
+        <v>281453.91</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>37316.12</v>
+        <v>21807.01</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3341,22 +3344,22 @@
         <v>52</v>
       </c>
       <c r="C60">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E60">
-        <v>23624.41</v>
+        <v>14253.1</v>
       </c>
       <c r="F60">
-        <v>325281.35</v>
+        <v>310593.21</v>
       </c>
       <c r="G60">
-        <v>33712.31</v>
+        <v>53566.45</v>
       </c>
       <c r="H60">
-        <v>37733.24</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3376,25 +3379,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E61">
-        <v>14172.48</v>
+        <v>34665.32</v>
       </c>
       <c r="F61">
-        <v>196236.89</v>
+        <v>261407.76</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>37316.12</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -3406,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>1276.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3417,22 +3420,22 @@
         <v>53</v>
       </c>
       <c r="C62">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E62">
-        <v>13918.46</v>
+        <v>23624.41</v>
       </c>
       <c r="F62">
-        <v>138670.69</v>
+        <v>325281.35</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>33712.31</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>37733.24</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -3444,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>343631.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3455,19 +3458,19 @@
         <v>54</v>
       </c>
       <c r="C63">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D63" t="s">
         <v>229</v>
       </c>
       <c r="E63">
-        <v>10294.36</v>
+        <v>14172.48</v>
       </c>
       <c r="F63">
-        <v>330419.57</v>
+        <v>196236.89</v>
       </c>
       <c r="G63">
-        <v>113135.93</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3482,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>13884.63</v>
+        <v>1276.75</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3490,19 +3493,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E64">
-        <v>12517.325</v>
+        <v>13918.46</v>
       </c>
       <c r="F64">
-        <v>153770.65</v>
+        <v>138670.69</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3520,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>343631.65</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3531,19 +3534,19 @@
         <v>55</v>
       </c>
       <c r="C65">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E65">
-        <v>6850.57</v>
+        <v>10294.36</v>
       </c>
       <c r="F65">
-        <v>168056.71</v>
+        <v>330419.57</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>113135.93</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3558,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>13884.63</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3572,13 +3575,13 @@
         <v>2018</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E66">
-        <v>11293.84</v>
+        <v>12517.325</v>
       </c>
       <c r="F66">
-        <v>156302.78</v>
+        <v>153770.65</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3604,19 +3607,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E67">
-        <v>5324.93</v>
+        <v>6850.57</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>168056.71</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3642,25 +3645,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E68">
-        <v>22026.57</v>
+        <v>11293.84</v>
       </c>
       <c r="F68">
-        <v>261946.6599999999</v>
+        <v>156302.78</v>
       </c>
       <c r="G68">
-        <v>7703.43</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>22029.3</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3680,16 +3683,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C69">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E69">
-        <v>5136.21</v>
+        <v>5324.93</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3721,22 +3724,22 @@
         <v>59</v>
       </c>
       <c r="C70">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E70">
-        <v>23555.31</v>
+        <v>22026.57</v>
       </c>
       <c r="F70">
-        <v>240719.44</v>
+        <v>261946.6599999999</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>7703.43</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>22029.3</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3762,13 +3765,13 @@
         <v>2022</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E71">
-        <v>14633.78</v>
+        <v>5136.21</v>
       </c>
       <c r="F71">
-        <v>274388.26</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3794,19 +3797,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E72">
-        <v>12265.21</v>
+        <v>23555.31</v>
       </c>
       <c r="F72">
-        <v>261660.04</v>
+        <v>240719.44</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3832,19 +3835,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D73" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E73">
-        <v>16051.4708</v>
+        <v>14633.78</v>
       </c>
       <c r="F73">
-        <v>211577.67906155</v>
+        <v>274388.26</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3870,19 +3873,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D74" t="s">
         <v>228</v>
       </c>
       <c r="E74">
-        <v>14520.22</v>
+        <v>12265.21</v>
       </c>
       <c r="F74">
-        <v>292132.67</v>
+        <v>261660.04</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3900,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>157926.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3911,19 +3914,19 @@
         <v>63</v>
       </c>
       <c r="C75">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E75">
-        <v>33392.59</v>
+        <v>16051.4708</v>
       </c>
       <c r="F75">
-        <v>410199.23</v>
+        <v>211577.67906155</v>
       </c>
       <c r="G75">
-        <v>7154.3</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3952,13 +3955,13 @@
         <v>2022</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E76">
-        <v>14734.78</v>
+        <v>14520.22</v>
       </c>
       <c r="F76">
-        <v>56510.81</v>
+        <v>292132.67</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3976,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>359289.46</v>
+        <v>157926.02</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3984,22 +3987,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77">
         <v>2024</v>
       </c>
       <c r="D77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E77">
-        <v>22456.42</v>
+        <v>33392.59</v>
       </c>
       <c r="F77">
-        <v>285433.29</v>
+        <v>410199.23</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>7154.3</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4022,19 +4025,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E78">
-        <v>19924.56</v>
+        <v>14734.78</v>
       </c>
       <c r="F78">
-        <v>250437.94</v>
+        <v>56510.81</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4052,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>359289.46</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4060,19 +4063,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D79" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E79">
-        <v>14742.64</v>
+        <v>22456.42</v>
       </c>
       <c r="F79">
-        <v>383333.38</v>
+        <v>285433.29</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4084,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4101,22 +4104,22 @@
         <v>67</v>
       </c>
       <c r="C80">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E80">
-        <v>34720.53</v>
+        <v>19924.56</v>
       </c>
       <c r="F80">
-        <v>271057.69</v>
+        <v>250437.94</v>
       </c>
       <c r="G80">
-        <v>19401.54</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>38992.08</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4128,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>59030.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4139,16 +4142,16 @@
         <v>68</v>
       </c>
       <c r="C81">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E81">
-        <v>19217.69</v>
+        <v>14742.64</v>
       </c>
       <c r="F81">
-        <v>258930.56</v>
+        <v>383333.38</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4160,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4174,28 +4177,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E82">
-        <v>11901.7058</v>
+        <v>34720.53</v>
       </c>
       <c r="F82">
-        <v>163204.3127875</v>
+        <v>271057.69</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>19401.54</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>38992.08</v>
       </c>
       <c r="I82">
-        <v>1823.6</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4204,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>59030.4</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4212,19 +4215,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>19217.69</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>258930.56</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4250,37 +4253,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E84">
-        <v>26120.66</v>
+        <v>11901.7058</v>
       </c>
       <c r="F84">
-        <v>296379.27</v>
+        <v>163204.3127875</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>37439.51</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1823.6</v>
       </c>
       <c r="J84">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>7798.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4288,25 +4291,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D85" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E85">
-        <v>19238.35</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>276863.77</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>6070.92</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>36882.03</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -4315,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>120260</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>41418.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4326,37 +4329,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86">
         <v>2023</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E86">
-        <v>6617.23</v>
+        <v>26120.66</v>
       </c>
       <c r="F86">
-        <v>763.91</v>
+        <v>296379.27</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>37439.51</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>7798.47</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4364,25 +4367,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E87">
-        <v>13464.38</v>
+        <v>19238.35</v>
       </c>
       <c r="F87">
-        <v>332935.31</v>
+        <v>276863.77</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>6070.92</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>36882.03</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -4391,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>120260</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>41418.66</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4402,19 +4405,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E88">
-        <v>2116.01</v>
+        <v>6617.23</v>
       </c>
       <c r="F88">
-        <v>164189.17</v>
+        <v>763.91</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4443,16 +4446,16 @@
         <v>75</v>
       </c>
       <c r="C89">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E89">
-        <v>40780.28000000001</v>
+        <v>13464.38</v>
       </c>
       <c r="F89">
-        <v>250365.09</v>
+        <v>332935.31</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -4470,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>42006.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4481,19 +4484,19 @@
         <v>76</v>
       </c>
       <c r="C90">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E90">
-        <v>14711.09</v>
+        <v>2116.01</v>
       </c>
       <c r="F90">
-        <v>49618.67000000001</v>
+        <v>164189.17</v>
       </c>
       <c r="G90">
-        <v>61905.46</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4508,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>284815.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4516,19 +4519,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E91">
-        <v>22198.98</v>
+        <v>40780.28000000001</v>
       </c>
       <c r="F91">
-        <v>365475.53</v>
+        <v>250365.09</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4540,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>42006.49</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4554,22 +4557,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D92" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E92">
-        <v>6382.57</v>
+        <v>14711.09</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>49618.67000000001</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>61905.46</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4584,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>1027.18</v>
+        <v>284815.12</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4592,34 +4595,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C93">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E93">
-        <v>24406.71</v>
+        <v>22198.98</v>
       </c>
       <c r="F93">
-        <v>340968.83</v>
+        <v>365475.53</v>
       </c>
       <c r="G93">
-        <v>5162.22</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>22756.23</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K93">
-        <v>115340</v>
+        <v>0</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -4630,19 +4633,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C94">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D94" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E94">
-        <v>29516.94</v>
+        <v>6382.57</v>
       </c>
       <c r="F94">
-        <v>51796.53999999999</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4660,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>100399.14</v>
+        <v>1027.18</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4668,25 +4671,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D95" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E95">
-        <v>15649.2</v>
+        <v>24406.71</v>
       </c>
       <c r="F95">
-        <v>334667.08</v>
+        <v>334593.33</v>
       </c>
       <c r="G95">
-        <v>15739.46</v>
+        <v>5162.22</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>22756.23</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4695,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>115340</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -4706,19 +4709,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D96" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>29516.94</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>51796.53999999999</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4736,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>100399.14</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4744,25 +4747,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D97" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E97">
-        <v>16168.77</v>
+        <v>15649.2</v>
       </c>
       <c r="F97">
-        <v>315434.42</v>
+        <v>334667.08</v>
       </c>
       <c r="G97">
-        <v>4338.46</v>
+        <v>15739.46</v>
       </c>
       <c r="H97">
-        <v>37829.88</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4782,19 +4785,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E98">
-        <v>15012.05</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>192765.56</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4820,25 +4823,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E99">
-        <v>37882.47</v>
+        <v>16168.77</v>
       </c>
       <c r="F99">
-        <v>278938.71</v>
+        <v>315434.42</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>4338.46</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>37829.88</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4850,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>41846.3631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4858,19 +4861,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D100" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E100">
-        <v>12713.5</v>
+        <v>15012.05</v>
       </c>
       <c r="F100">
-        <v>483449.17</v>
+        <v>192765.56</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4882,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>9236.16</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4896,19 +4899,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D101" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E101">
-        <v>9025.690000000001</v>
+        <v>37882.47</v>
       </c>
       <c r="F101">
-        <v>189081.37</v>
+        <v>278938.71</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4926,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>41846.3631</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4937,16 +4940,16 @@
         <v>87</v>
       </c>
       <c r="C102">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D102" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E102">
-        <v>25012.57</v>
+        <v>12713.5</v>
       </c>
       <c r="F102">
-        <v>305436.45</v>
+        <v>483449.17</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4958,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>9236.16</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4975,22 +4978,22 @@
         <v>88</v>
       </c>
       <c r="C103">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E103">
-        <v>24902.46</v>
+        <v>9025.690000000001</v>
       </c>
       <c r="F103">
-        <v>216741.6</v>
+        <v>189081.37</v>
       </c>
       <c r="G103">
-        <v>18142.73</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>14818.67</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -5010,19 +5013,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D104" t="s">
         <v>231</v>
       </c>
       <c r="E104">
-        <v>11254.31</v>
+        <v>25012.57</v>
       </c>
       <c r="F104">
-        <v>185020.93</v>
+        <v>305436.45</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -5051,22 +5054,22 @@
         <v>89</v>
       </c>
       <c r="C105">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D105" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E105">
-        <v>14344.05</v>
+        <v>24902.46</v>
       </c>
       <c r="F105">
-        <v>250146.13</v>
+        <v>216741.6</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>18142.73</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>14818.67</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -5089,22 +5092,22 @@
         <v>90</v>
       </c>
       <c r="C106">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E106">
-        <v>19158.29</v>
+        <v>11254.31</v>
       </c>
       <c r="F106">
-        <v>245147.04</v>
+        <v>185020.93</v>
       </c>
       <c r="G106">
-        <v>8612.610000000001</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>25894.03</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5124,19 +5127,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C107">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D107" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E107">
-        <v>12607.09</v>
+        <v>14344.05</v>
       </c>
       <c r="F107">
-        <v>192112.37</v>
+        <v>250146.13</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5162,25 +5165,25 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C108">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D108" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E108">
-        <v>13265.9958</v>
+        <v>19158.29</v>
       </c>
       <c r="F108">
-        <v>179001.45</v>
+        <v>245147.04</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>8612.610000000001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>25894.03</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -5206,13 +5209,13 @@
         <v>2019</v>
       </c>
       <c r="D109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E109">
-        <v>13207.01</v>
+        <v>12607.09</v>
       </c>
       <c r="F109">
-        <v>189201.94</v>
+        <v>192112.37</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5241,16 +5244,16 @@
         <v>93</v>
       </c>
       <c r="C110">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D110" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E110">
-        <v>15756.67</v>
+        <v>13265.9958</v>
       </c>
       <c r="F110">
-        <v>323294.16</v>
+        <v>179001.45</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5279,16 +5282,16 @@
         <v>93</v>
       </c>
       <c r="C111">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D111" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E111">
-        <v>22204.19</v>
+        <v>13207.01</v>
       </c>
       <c r="F111">
-        <v>64218.28000000001</v>
+        <v>189201.94</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -5300,13 +5303,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>310278.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5317,22 +5320,22 @@
         <v>94</v>
       </c>
       <c r="C112">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D112" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E112">
-        <v>22282.89</v>
+        <v>15756.67</v>
       </c>
       <c r="F112">
-        <v>251197.29</v>
+        <v>323294.16</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>35990.01</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5352,19 +5355,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C113">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D113" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E113">
-        <v>16086.49</v>
+        <v>22204.19</v>
       </c>
       <c r="F113">
-        <v>194324.54</v>
+        <v>64218.28000000001</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5376,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>310278.14</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5390,25 +5393,25 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C114">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D114" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E114">
-        <v>4102.18</v>
+        <v>22282.89</v>
       </c>
       <c r="F114">
-        <v>196458.37</v>
+        <v>251197.29</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>35990.01</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -5431,22 +5434,22 @@
         <v>96</v>
       </c>
       <c r="C115">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D115" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>16086.49</v>
       </c>
       <c r="F115">
-        <v>11583.08</v>
+        <v>194324.54</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>39415.73</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -5469,16 +5472,16 @@
         <v>97</v>
       </c>
       <c r="C116">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E116">
-        <v>51564.49000000001</v>
+        <v>4102.18</v>
       </c>
       <c r="F116">
-        <v>142368.4</v>
+        <v>196458.37</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5513,22 +5516,22 @@
         <v>228</v>
       </c>
       <c r="E117">
-        <v>29941.48</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>334363.9199999999</v>
+        <v>11583.08</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>39415.73</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5545,22 +5548,22 @@
         <v>98</v>
       </c>
       <c r="C118">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D118" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E118">
-        <v>23011.02</v>
+        <v>51564.49000000001</v>
       </c>
       <c r="F118">
-        <v>335868.98</v>
+        <v>142368.4</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>37624.97</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5580,31 +5583,31 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C119">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D119" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E119">
-        <v>62144.21999999999</v>
+        <v>29941.48</v>
       </c>
       <c r="F119">
-        <v>342348.13</v>
+        <v>334363.9199999999</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>41557.3</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5618,25 +5621,25 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C120">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>23011.02</v>
       </c>
       <c r="F120">
-        <v>230958.64</v>
+        <v>335868.98</v>
       </c>
       <c r="G120">
-        <v>11928.76</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>37624.97</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -5662,19 +5665,19 @@
         <v>2024</v>
       </c>
       <c r="D121" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E121">
-        <v>38882.28</v>
+        <v>62144.21999999999</v>
       </c>
       <c r="F121">
-        <v>373932.19</v>
+        <v>342348.13</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>41557.3</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5697,22 +5700,22 @@
         <v>101</v>
       </c>
       <c r="C122">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D122" t="s">
         <v>236</v>
       </c>
       <c r="E122">
-        <v>16827.69</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>126955.56</v>
+        <v>230958.64</v>
       </c>
       <c r="G122">
-        <v>11369.56</v>
+        <v>11928.76</v>
       </c>
       <c r="H122">
-        <v>3447.35</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5724,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>422133.1800000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5738,19 +5741,19 @@
         <v>2024</v>
       </c>
       <c r="D123" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E123">
-        <v>17294.34</v>
+        <v>38882.28</v>
       </c>
       <c r="F123">
-        <v>530627.5499999999</v>
+        <v>373932.19</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>36696.35</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5770,25 +5773,25 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C124">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D124" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E124">
-        <v>29506.7</v>
+        <v>16827.69</v>
       </c>
       <c r="F124">
-        <v>455228.52</v>
+        <v>126955.56</v>
       </c>
       <c r="G124">
-        <v>2181.06</v>
+        <v>11369.56</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3447.35</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5797,10 +5800,10 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>64902.09</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>199012.794</v>
+        <v>422133.1800000001</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5808,25 +5811,25 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C125">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E125">
-        <v>36093.04</v>
+        <v>17294.34</v>
       </c>
       <c r="F125">
-        <v>324824.84</v>
+        <v>530627.5499999999</v>
       </c>
       <c r="G125">
-        <v>7421.05</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>36696.35</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5838,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="L125">
-        <v>36863.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5849,19 +5852,19 @@
         <v>102</v>
       </c>
       <c r="C126">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D126" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E126">
-        <v>21472</v>
+        <v>29506.7</v>
       </c>
       <c r="F126">
-        <v>333889.53</v>
+        <v>455228.52</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>2181.06</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5873,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>64902.09</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>199012.794</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5890,16 +5893,16 @@
         <v>2025</v>
       </c>
       <c r="D127" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E127">
-        <v>28089.2</v>
+        <v>36093.04</v>
       </c>
       <c r="F127">
-        <v>160763.94</v>
+        <v>324824.84</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>7421.05</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5914,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>173339.58</v>
+        <v>36863.1</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5925,22 +5928,22 @@
         <v>103</v>
       </c>
       <c r="C128">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D128" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E128">
-        <v>50944.75</v>
+        <v>21472</v>
       </c>
       <c r="F128">
-        <v>288251.2</v>
+        <v>333889.53</v>
       </c>
       <c r="G128">
-        <v>9109.799999999999</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>16977.39</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -5960,19 +5963,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C129">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D129" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E129">
-        <v>13038.08</v>
+        <v>28089.2</v>
       </c>
       <c r="F129">
-        <v>233698.36</v>
+        <v>160763.94</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5984,13 +5987,13 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K129">
         <v>0</v>
       </c>
       <c r="L129">
-        <v>426234.25</v>
+        <v>173339.58</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6001,22 +6004,22 @@
         <v>104</v>
       </c>
       <c r="C130">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D130" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E130">
-        <v>26056.47</v>
+        <v>50944.75</v>
       </c>
       <c r="F130">
-        <v>397911.71</v>
+        <v>288251.2</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>9109.799999999999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>16977.39</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -6039,16 +6042,16 @@
         <v>105</v>
       </c>
       <c r="C131">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D131" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E131">
-        <v>12023.96</v>
+        <v>13038.08</v>
       </c>
       <c r="F131">
-        <v>170571.82</v>
+        <v>233698.36</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -6060,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>426234.25</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6077,16 +6080,16 @@
         <v>105</v>
       </c>
       <c r="C132">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D132" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E132">
-        <v>24651.29</v>
+        <v>26056.47</v>
       </c>
       <c r="F132">
-        <v>267851.66</v>
+        <v>397911.71</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6104,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>29992.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6115,16 +6118,16 @@
         <v>106</v>
       </c>
       <c r="C133">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D133" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E133">
-        <v>13022.6308</v>
+        <v>12023.96</v>
       </c>
       <c r="F133">
-        <v>191304.08</v>
+        <v>170571.82</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6133,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1823.6</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -6153,16 +6156,16 @@
         <v>106</v>
       </c>
       <c r="C134">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="D134" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E134">
-        <v>16728.81</v>
+        <v>24651.29</v>
       </c>
       <c r="F134">
-        <v>289941.13</v>
+        <v>267851.66</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -6180,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>29992.31</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6191,16 +6194,16 @@
         <v>107</v>
       </c>
       <c r="C135">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D135" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E135">
-        <v>23912.8</v>
+        <v>13022.6308</v>
       </c>
       <c r="F135">
-        <v>215373.08</v>
+        <v>191304.08</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -6209,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1823.6</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -6226,22 +6229,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C136">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D136" t="s">
         <v>228</v>
       </c>
       <c r="E136">
-        <v>26698.16</v>
+        <v>16728.81</v>
       </c>
       <c r="F136">
-        <v>263627.28</v>
+        <v>289941.13</v>
       </c>
       <c r="G136">
-        <v>43649.7</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -6250,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>15969.07</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -6264,19 +6267,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C137">
         <v>2022</v>
       </c>
       <c r="D137" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E137">
-        <v>16381</v>
+        <v>23912.8</v>
       </c>
       <c r="F137">
-        <v>267912.74</v>
+        <v>215373.08</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -6294,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>123283.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6302,22 +6305,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C138">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D138" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E138">
-        <v>14597.73</v>
+        <v>26698.16</v>
       </c>
       <c r="F138">
-        <v>268490.16</v>
+        <v>263627.28</v>
       </c>
       <c r="G138">
-        <v>27823.54</v>
+        <v>43649.7</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -6326,13 +6329,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>15969.07</v>
       </c>
       <c r="K138">
         <v>0</v>
       </c>
       <c r="L138">
-        <v>66787.85000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6340,19 +6343,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C139">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E139">
-        <v>15420.4</v>
+        <v>16381</v>
       </c>
       <c r="F139">
-        <v>284483.45</v>
+        <v>267912.74</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6367,10 +6370,10 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>99980.56</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>123283.02</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6378,22 +6381,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C140">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D140" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E140">
-        <v>13259.48</v>
+        <v>14597.73</v>
       </c>
       <c r="F140">
-        <v>216927.71</v>
+        <v>268490.16</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>27823.54</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -6408,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>66787.85000000001</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6416,19 +6419,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C141">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D141" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E141">
-        <v>13800.27</v>
+        <v>15420.4</v>
       </c>
       <c r="F141">
-        <v>258896.66</v>
+        <v>284483.45</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -6443,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>99980.56</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -6454,19 +6457,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C142">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D142" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E142">
-        <v>33999.38</v>
+        <v>13259.48</v>
       </c>
       <c r="F142">
-        <v>278850.94</v>
+        <v>216927.71</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -6484,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>64312.56099999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6492,25 +6495,25 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C143">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D143" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E143">
-        <v>19169.37</v>
+        <v>13800.27</v>
       </c>
       <c r="F143">
-        <v>326562.89</v>
+        <v>258896.66</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>41767.11</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -6530,19 +6533,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C144">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D144" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E144">
-        <v>14357.77</v>
+        <v>33999.38</v>
       </c>
       <c r="F144">
-        <v>155228.6425</v>
+        <v>278850.94</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -6560,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>0</v>
+        <v>64312.56099999999</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6568,25 +6571,25 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C145">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D145" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E145">
-        <v>19050.0768</v>
+        <v>19169.37</v>
       </c>
       <c r="F145">
-        <v>191974.1147</v>
+        <v>326562.89</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>41767.11</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -6606,25 +6609,25 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C146">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D146" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E146">
-        <v>31243.12</v>
+        <v>14357.77</v>
       </c>
       <c r="F146">
-        <v>44558.3</v>
+        <v>155228.6425</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
-        <v>37331.03</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -6636,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>281740.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6644,19 +6647,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C147">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D147" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E147">
-        <v>12528.64</v>
+        <v>19050.0768</v>
       </c>
       <c r="F147">
-        <v>200276.65</v>
+        <v>191974.1147</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6665,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>121492.09</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6682,25 +6685,25 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C148">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D148" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E148">
-        <v>13177.31</v>
+        <v>31243.12</v>
       </c>
       <c r="F148">
-        <v>221459.31</v>
+        <v>44558.3</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>37331.03</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -6712,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>281740.09</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6720,19 +6723,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C149">
         <v>2019</v>
       </c>
       <c r="D149" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E149">
-        <v>12543.45</v>
+        <v>12528.64</v>
       </c>
       <c r="F149">
-        <v>217500.3</v>
+        <v>200276.65</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -6741,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>121492.09</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -6764,13 +6767,13 @@
         <v>2020</v>
       </c>
       <c r="D150" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E150">
-        <v>15225.93</v>
+        <v>13177.31</v>
       </c>
       <c r="F150">
-        <v>315958.39</v>
+        <v>221459.31</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -6802,13 +6805,13 @@
         <v>2019</v>
       </c>
       <c r="D151" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E151">
-        <v>16903.25</v>
+        <v>12543.45</v>
       </c>
       <c r="F151">
-        <v>173362.42</v>
+        <v>217500.3</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -6817,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="I151">
-        <v>6691.48</v>
+        <v>0</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -6837,16 +6840,16 @@
         <v>122</v>
       </c>
       <c r="C152">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D152" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E152">
-        <v>54121.01</v>
+        <v>15225.93</v>
       </c>
       <c r="F152">
-        <v>1168.52</v>
+        <v>315958.39</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -6864,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>868.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6875,25 +6878,25 @@
         <v>123</v>
       </c>
       <c r="C153">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D153" t="s">
         <v>232</v>
       </c>
       <c r="E153">
-        <v>28999.4</v>
+        <v>16903.25</v>
       </c>
       <c r="F153">
-        <v>217367.74</v>
+        <v>173362.42</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
       <c r="H153">
-        <v>34454.64</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>6691.48</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -6910,19 +6913,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C154">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E154">
-        <v>12619.63</v>
+        <v>54121.01</v>
       </c>
       <c r="F154">
-        <v>207803.61</v>
+        <v>1168.52</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -6940,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>868.15</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6948,25 +6951,25 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C155">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D155" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E155">
-        <v>10587.69</v>
+        <v>28999.4</v>
       </c>
       <c r="F155">
-        <v>199705.33</v>
+        <v>217367.74</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>34454.64</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -6986,19 +6989,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C156">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D156" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E156">
-        <v>15725.71</v>
+        <v>12619.63</v>
       </c>
       <c r="F156">
-        <v>183327.56</v>
+        <v>207803.61</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -7024,19 +7027,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D157" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E157">
-        <v>9506.98</v>
+        <v>10587.69</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>199705.33</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -7062,19 +7065,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C158">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D158" t="s">
         <v>229</v>
       </c>
       <c r="E158">
-        <v>13933</v>
+        <v>15725.71</v>
       </c>
       <c r="F158">
-        <v>184519.4</v>
+        <v>183327.56</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -7100,19 +7103,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C159">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D159" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E159">
-        <v>12477.44</v>
+        <v>9506.98</v>
       </c>
       <c r="F159">
-        <v>188301.9</v>
+        <v>0</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -7144,13 +7147,13 @@
         <v>2019</v>
       </c>
       <c r="D160" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E160">
-        <v>19211.92</v>
+        <v>13933</v>
       </c>
       <c r="F160">
-        <v>220874.14</v>
+        <v>184519.4</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -7176,25 +7179,25 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C161">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D161" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E161">
-        <v>25492.61</v>
+        <v>12477.44</v>
       </c>
       <c r="F161">
-        <v>275325.14</v>
+        <v>188301.9</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>37644.27</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -7220,13 +7223,13 @@
         <v>2019</v>
       </c>
       <c r="D162" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E162">
-        <v>13857.01</v>
+        <v>19211.92</v>
       </c>
       <c r="F162">
-        <v>236977.45</v>
+        <v>220874.14</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -7255,22 +7258,22 @@
         <v>130</v>
       </c>
       <c r="C163">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D163" t="s">
         <v>231</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>25492.61</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>275325.14</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>37644.27</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -7293,16 +7296,16 @@
         <v>131</v>
       </c>
       <c r="C164">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D164" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E164">
-        <v>15699.21</v>
+        <v>13857.01</v>
       </c>
       <c r="F164">
-        <v>307162.5699999999</v>
+        <v>236977.45</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -7331,16 +7334,16 @@
         <v>131</v>
       </c>
       <c r="C165">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D165" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E165">
-        <v>16248.56</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>467700.0699999999</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -7366,25 +7369,25 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C166">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D166" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E166">
-        <v>27757.88</v>
+        <v>15699.21</v>
       </c>
       <c r="F166">
-        <v>289231.3</v>
+        <v>307162.5699999999</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166">
-        <v>39974.8</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -7407,16 +7410,16 @@
         <v>132</v>
       </c>
       <c r="C167">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D167" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E167">
-        <v>12415.19</v>
+        <v>16248.56</v>
       </c>
       <c r="F167">
-        <v>175671.60625</v>
+        <v>467700.0699999999</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -7445,22 +7448,22 @@
         <v>132</v>
       </c>
       <c r="C168">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D168" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E168">
-        <v>13046.52</v>
+        <v>27757.88</v>
       </c>
       <c r="F168">
-        <v>318854.3</v>
+        <v>289231.3</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>39974.8</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -7480,22 +7483,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C169">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D169" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E169">
-        <v>24799.71</v>
+        <v>12415.19</v>
       </c>
       <c r="F169">
-        <v>350986.63</v>
+        <v>175671.60625</v>
       </c>
       <c r="G169">
-        <v>71996.78</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -7521,16 +7524,16 @@
         <v>133</v>
       </c>
       <c r="C170">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E170">
-        <v>18143.44</v>
+        <v>13046.52</v>
       </c>
       <c r="F170">
-        <v>160417.17</v>
+        <v>318854.3</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -7556,25 +7559,25 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C171">
         <v>2024</v>
       </c>
       <c r="D171" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E171">
-        <v>42525.34</v>
+        <v>24799.71</v>
       </c>
       <c r="F171">
-        <v>301519.74</v>
+        <v>350986.63</v>
       </c>
       <c r="G171">
-        <v>27920.62</v>
+        <v>71996.78</v>
       </c>
       <c r="H171">
-        <v>1749.83</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -7597,22 +7600,22 @@
         <v>134</v>
       </c>
       <c r="C172">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D172" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E172">
-        <v>22035.11</v>
+        <v>18143.44</v>
       </c>
       <c r="F172">
-        <v>260868.28</v>
+        <v>160417.17</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>39735.43</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -7635,22 +7638,22 @@
         <v>135</v>
       </c>
       <c r="C173">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D173" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E173">
-        <v>26955.18</v>
+        <v>42525.34</v>
       </c>
       <c r="F173">
-        <v>193777.99</v>
+        <v>301519.74</v>
       </c>
       <c r="G173">
-        <v>36021.54</v>
+        <v>27920.62</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1749.83</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -7662,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="L173">
-        <v>232325.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7676,28 +7679,28 @@
         <v>2024</v>
       </c>
       <c r="D174" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E174">
-        <v>42759.20999999999</v>
+        <v>22035.11</v>
       </c>
       <c r="F174">
-        <v>314599.93</v>
+        <v>260868.28</v>
       </c>
       <c r="G174">
-        <v>47730.35</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>39735.43</v>
       </c>
       <c r="I174">
-        <v>107351.54</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174">
-        <v>113446.6</v>
+        <v>0</v>
       </c>
       <c r="L174">
         <v>0</v>
@@ -7711,19 +7714,19 @@
         <v>136</v>
       </c>
       <c r="C175">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D175" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E175">
-        <v>11820</v>
+        <v>26955.18</v>
       </c>
       <c r="F175">
-        <v>198013.18</v>
+        <v>193777.99</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>36021.54</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -7738,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="L175">
-        <v>0</v>
+        <v>232325.59</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7746,34 +7749,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C176">
         <v>2024</v>
       </c>
       <c r="D176" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E176">
-        <v>19256.39</v>
+        <v>42759.20999999999</v>
       </c>
       <c r="F176">
-        <v>275811.8099999999</v>
+        <v>314599.93</v>
       </c>
       <c r="G176">
-        <v>48939.26</v>
+        <v>47730.35</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>107351.54</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>113446.6</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -7784,19 +7787,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C177">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D177" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E177">
-        <v>16141.67</v>
+        <v>11820</v>
       </c>
       <c r="F177">
-        <v>165224.78</v>
+        <v>198013.18</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -7822,22 +7825,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C178">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D178" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E178">
-        <v>12739.01</v>
+        <v>19256.39</v>
       </c>
       <c r="F178">
-        <v>225647.43</v>
+        <v>275811.8099999999</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>48939.26</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -7860,19 +7863,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C179">
         <v>2020</v>
       </c>
       <c r="D179" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E179">
-        <v>13798.26</v>
+        <v>16141.67</v>
       </c>
       <c r="F179">
-        <v>219894.36</v>
+        <v>165224.78</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -7901,22 +7904,22 @@
         <v>140</v>
       </c>
       <c r="C180">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D180" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E180">
-        <v>32674.29</v>
+        <v>12739.01</v>
       </c>
       <c r="F180">
-        <v>290087.79</v>
+        <v>225647.43</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>16697.25</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -7928,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="L180">
-        <v>18450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7942,13 +7945,13 @@
         <v>2020</v>
       </c>
       <c r="D181" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>13798.26</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>219894.36</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -7977,22 +7980,22 @@
         <v>141</v>
       </c>
       <c r="C182">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D182" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E182">
-        <v>1774.63</v>
+        <v>32674.29</v>
       </c>
       <c r="F182">
-        <v>224481.66</v>
+        <v>290087.79</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>16697.25</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -8004,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>0</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8012,19 +8015,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C183">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D183" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E183">
-        <v>19477.29</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>311733.94</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -8050,22 +8053,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C184">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D184" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E184">
-        <v>23508.78</v>
+        <v>1774.63</v>
       </c>
       <c r="F184">
-        <v>568269.17</v>
+        <v>224481.66</v>
       </c>
       <c r="G184">
-        <v>2615.02</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -8074,13 +8077,13 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K184">
-        <v>90840</v>
+        <v>0</v>
       </c>
       <c r="L184">
-        <v>19719.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8091,16 +8094,16 @@
         <v>142</v>
       </c>
       <c r="C185">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D185" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E185">
-        <v>35469.37</v>
+        <v>19477.29</v>
       </c>
       <c r="F185">
-        <v>194678.14</v>
+        <v>311733.94</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -8118,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="L185">
-        <v>15195.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8129,34 +8132,34 @@
         <v>142</v>
       </c>
       <c r="C186">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D186" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E186">
-        <v>55450.76</v>
+        <v>23508.78</v>
       </c>
       <c r="F186">
-        <v>217887.65</v>
+        <v>568269.17</v>
       </c>
       <c r="G186">
-        <v>6244.8</v>
+        <v>2615.02</v>
       </c>
       <c r="H186">
-        <v>18450</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K186">
-        <v>68700</v>
+        <v>90840</v>
       </c>
       <c r="L186">
-        <v>0</v>
+        <v>19719.56</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8167,16 +8170,16 @@
         <v>143</v>
       </c>
       <c r="C187">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D187" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E187">
-        <v>1828.08</v>
+        <v>35469.37</v>
       </c>
       <c r="F187">
-        <v>235649.96</v>
+        <v>194678.14</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -8191,10 +8194,10 @@
         <v>0</v>
       </c>
       <c r="K187">
-        <v>57250</v>
+        <v>0</v>
       </c>
       <c r="L187">
-        <v>0</v>
+        <v>15195.68</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8202,25 +8205,25 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C188">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D188" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E188">
-        <v>11846.76</v>
+        <v>55450.76</v>
       </c>
       <c r="F188">
-        <v>336434.65</v>
+        <v>217887.65</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>6244.8</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -8229,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>68700</v>
       </c>
       <c r="L188">
         <v>0</v>
@@ -8240,34 +8243,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C189">
         <v>2025</v>
       </c>
       <c r="D189" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E189">
-        <v>29758.22</v>
+        <v>38786.79</v>
       </c>
       <c r="F189">
-        <v>245114.65</v>
+        <v>234268.39</v>
       </c>
       <c r="G189">
-        <v>6805.46</v>
+        <v>18401.6</v>
       </c>
       <c r="H189">
-        <v>10800.63</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>42365</v>
       </c>
       <c r="L189">
         <v>0</v>
@@ -8278,22 +8281,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C190">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D190" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E190">
-        <v>9802.68</v>
+        <v>1828.08</v>
       </c>
       <c r="F190">
-        <v>36867.7</v>
+        <v>235649.96</v>
       </c>
       <c r="G190">
-        <v>52848.88</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -8305,10 +8308,10 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>57250</v>
       </c>
       <c r="L190">
-        <v>412938.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8316,19 +8319,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C191">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D191" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E191">
-        <v>11176.94</v>
+        <v>11846.76</v>
       </c>
       <c r="F191">
-        <v>601025.85</v>
+        <v>336434.65</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -8354,31 +8357,31 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C192">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D192" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E192">
-        <v>23818.85</v>
+        <v>29758.22</v>
       </c>
       <c r="F192">
-        <v>292282.33</v>
+        <v>245114.65</v>
       </c>
       <c r="G192">
-        <v>3569.4</v>
+        <v>6805.46</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>10800.63</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -8392,22 +8395,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C193">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D193" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>9802.68</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>36867.7</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>52848.88</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -8422,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>412938.29</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8430,22 +8433,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C194">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E194">
-        <v>24072.81</v>
+        <v>11176.94</v>
       </c>
       <c r="F194">
-        <v>327804.72</v>
+        <v>601025.85</v>
       </c>
       <c r="G194">
-        <v>12712.97</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -8468,22 +8471,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C195">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D195" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E195">
-        <v>15831.12</v>
+        <v>23818.85</v>
       </c>
       <c r="F195">
-        <v>282603.38</v>
+        <v>292282.33</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>3569.4</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -8498,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>105601.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8506,22 +8509,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C196">
         <v>2024</v>
       </c>
       <c r="D196" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E196">
-        <v>16291.92</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>296391.7500000001</v>
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>24492.93</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -8544,22 +8547,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C197">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D197" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E197">
-        <v>4356.97</v>
+        <v>24072.81</v>
       </c>
       <c r="F197">
-        <v>304463.24</v>
+        <v>327804.72</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>12712.97</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -8582,22 +8585,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C198">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D198" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E198">
-        <v>44241.33</v>
+        <v>15831.12</v>
       </c>
       <c r="F198">
-        <v>257487.24</v>
+        <v>282603.38</v>
       </c>
       <c r="G198">
-        <v>16747.13</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -8609,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>28311.8</v>
+        <v>0</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>105601.09</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8620,22 +8623,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C199">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D199" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E199">
-        <v>51564.49000000001</v>
+        <v>16291.92</v>
       </c>
       <c r="F199">
-        <v>159084.44</v>
+        <v>296391.7500000001</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>24492.93</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -8658,19 +8661,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C200">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D200" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E200">
-        <v>11420.6</v>
+        <v>4356.97</v>
       </c>
       <c r="F200">
-        <v>367000.79</v>
+        <v>304463.24</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -8696,22 +8699,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C201">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D201" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E201">
-        <v>17985.91</v>
+        <v>44241.33</v>
       </c>
       <c r="F201">
-        <v>386638.67</v>
+        <v>257487.24</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>16747.13</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -8723,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>57250</v>
+        <v>28311.8</v>
       </c>
       <c r="L201">
         <v>0</v>
@@ -8737,22 +8740,22 @@
         <v>156</v>
       </c>
       <c r="C202">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D202" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E202">
-        <v>33901.57</v>
+        <v>51564.49000000001</v>
       </c>
       <c r="F202">
-        <v>261478.27</v>
+        <v>159084.44</v>
       </c>
       <c r="G202">
-        <v>17002.17</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>275.83</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -8775,22 +8778,22 @@
         <v>157</v>
       </c>
       <c r="C203">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D203" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E203">
-        <v>13998.26</v>
+        <v>11420.6</v>
       </c>
       <c r="F203">
-        <v>333251.0599999999</v>
+        <v>367000.79</v>
       </c>
       <c r="G203">
-        <v>107309.97</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>18144.73</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -8799,10 +8802,10 @@
         <v>0</v>
       </c>
       <c r="K203">
-        <v>82657.62</v>
+        <v>0</v>
       </c>
       <c r="L203">
-        <v>43134.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8810,25 +8813,25 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C204">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D204" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E204">
-        <v>21705.25</v>
+        <v>17985.91</v>
       </c>
       <c r="F204">
-        <v>287071.98</v>
+        <v>386638.67</v>
       </c>
       <c r="G204">
         <v>0</v>
       </c>
       <c r="H204">
-        <v>36194.4</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -8837,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>57250</v>
       </c>
       <c r="L204">
         <v>0</v>
@@ -8848,25 +8851,25 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C205">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D205" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E205">
-        <v>4479.09</v>
+        <v>33901.57</v>
       </c>
       <c r="F205">
-        <v>323170.59</v>
+        <v>261478.27</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>17002.17</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>275.83</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -8886,25 +8889,25 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C206">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D206" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E206">
-        <v>7347.25</v>
+        <v>13998.26</v>
       </c>
       <c r="F206">
-        <v>237060.74</v>
+        <v>333251.0599999999</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>107309.97</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>18144.73</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -8913,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="K206">
-        <v>0</v>
+        <v>82657.62</v>
       </c>
       <c r="L206">
-        <v>0</v>
+        <v>43134.62</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8924,25 +8927,25 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C207">
         <v>2025</v>
       </c>
       <c r="D207" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E207">
-        <v>28420.94</v>
+        <v>21705.25</v>
       </c>
       <c r="F207">
-        <v>239742.97</v>
+        <v>287071.98</v>
       </c>
       <c r="G207">
         <v>0</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>36194.4</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -8962,19 +8965,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C208">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D208" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E208">
-        <v>24323.39</v>
+        <v>4479.09</v>
       </c>
       <c r="F208">
-        <v>332838.29</v>
+        <v>323170.59</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -9000,25 +9003,25 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C209">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D209" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E209">
-        <v>24335.07</v>
+        <v>7347.25</v>
       </c>
       <c r="F209">
-        <v>247385.28</v>
+        <v>237060.74</v>
       </c>
       <c r="G209">
         <v>0</v>
       </c>
       <c r="H209">
-        <v>6678.9</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -9030,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="L209">
-        <v>82632.71000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9038,22 +9041,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C210">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D210" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E210">
-        <v>15158.99</v>
+        <v>28420.94</v>
       </c>
       <c r="F210">
-        <v>52951.37</v>
+        <v>239742.97</v>
       </c>
       <c r="G210">
-        <v>82059.82000000001</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -9065,10 +9068,10 @@
         <v>0</v>
       </c>
       <c r="K210">
-        <v>86200</v>
+        <v>0</v>
       </c>
       <c r="L210">
-        <v>382817.33907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9076,22 +9079,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C211">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D211" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E211">
-        <v>22202.17</v>
+        <v>24323.39</v>
       </c>
       <c r="F211">
-        <v>231965.51</v>
+        <v>332838.29</v>
       </c>
       <c r="G211">
-        <v>3310.93</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -9114,25 +9117,25 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C212">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D212" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E212">
-        <v>16256.84</v>
+        <v>24335.07</v>
       </c>
       <c r="F212">
-        <v>519564.24</v>
+        <v>247385.28</v>
       </c>
       <c r="G212">
-        <v>27360.25</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>35582.15</v>
+        <v>6678.9</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -9141,10 +9144,10 @@
         <v>0</v>
       </c>
       <c r="K212">
-        <v>163743.27</v>
+        <v>0</v>
       </c>
       <c r="L212">
-        <v>0</v>
+        <v>82632.71000000001</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9152,22 +9155,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C213">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D213" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E213">
-        <v>8622.16</v>
+        <v>15158.99</v>
       </c>
       <c r="F213">
-        <v>37065.48</v>
+        <v>52951.37</v>
       </c>
       <c r="G213">
-        <v>58826.03</v>
+        <v>82059.82000000001</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -9179,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="K213">
-        <v>0</v>
+        <v>86200</v>
       </c>
       <c r="L213">
-        <v>421261.45</v>
+        <v>382817.33907</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9190,22 +9193,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C214">
         <v>2025</v>
       </c>
       <c r="D214" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E214">
-        <v>31949.91</v>
+        <v>22202.17</v>
       </c>
       <c r="F214">
-        <v>264422.99</v>
+        <v>231965.51</v>
       </c>
       <c r="G214">
-        <v>6589.74</v>
+        <v>3310.93</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -9220,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="L214">
-        <v>14106.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9228,25 +9231,25 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C215">
         <v>2024</v>
       </c>
       <c r="D215" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E215">
-        <v>23168.05</v>
+        <v>16256.84</v>
       </c>
       <c r="F215">
-        <v>306631.56</v>
+        <v>519564.24</v>
       </c>
       <c r="G215">
-        <v>29341.69</v>
+        <v>27360.25</v>
       </c>
       <c r="H215">
-        <v>38662.27</v>
+        <v>35582.15</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -9255,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="K215">
-        <v>0</v>
+        <v>163743.27</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -9266,22 +9269,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C216">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D216" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E216">
-        <v>12827.05</v>
+        <v>8622.16</v>
       </c>
       <c r="F216">
-        <v>181651.17</v>
+        <v>37065.48</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>58826.03</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -9296,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>0</v>
+        <v>421261.45</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9304,22 +9307,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C217">
         <v>2025</v>
       </c>
       <c r="D217" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E217">
-        <v>34725.64</v>
+        <v>31949.91</v>
       </c>
       <c r="F217">
-        <v>314368.92</v>
+        <v>264422.99</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>6589.74</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -9334,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="L217">
-        <v>0</v>
+        <v>14106.87</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9342,25 +9345,25 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C218">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D218" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E218">
-        <v>15364.28</v>
+        <v>23168.05</v>
       </c>
       <c r="F218">
-        <v>187391.76</v>
+        <v>306631.56</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>29341.69</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>38662.27</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -9380,19 +9383,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C219">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D219" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E219">
-        <v>17569.72</v>
+        <v>12827.05</v>
       </c>
       <c r="F219">
-        <v>305648.41</v>
+        <v>181651.17</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -9401,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="I219">
-        <v>49192.27</v>
+        <v>0</v>
       </c>
       <c r="J219">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -9418,19 +9421,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C220">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D220" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E220">
-        <v>16214.61</v>
+        <v>34725.64</v>
       </c>
       <c r="F220">
-        <v>225593.26</v>
+        <v>314368.92</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -9459,16 +9462,16 @@
         <v>171</v>
       </c>
       <c r="C221">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D221" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E221">
-        <v>35983.12</v>
+        <v>15364.28</v>
       </c>
       <c r="F221">
-        <v>297098.25</v>
+        <v>187391.76</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -9480,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K221">
         <v>0</v>
@@ -9497,16 +9500,16 @@
         <v>172</v>
       </c>
       <c r="C222">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D222" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E222">
-        <v>7523.96</v>
+        <v>17569.72</v>
       </c>
       <c r="F222">
-        <v>443182.814</v>
+        <v>305648.41</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -9515,10 +9518,10 @@
         <v>0</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>49192.27</v>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -9532,19 +9535,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C223">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D223" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E223">
-        <v>14940.04</v>
+        <v>16214.61</v>
       </c>
       <c r="F223">
-        <v>249961.31</v>
+        <v>225593.26</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -9570,19 +9573,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C224">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D224" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>35983.12</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>297098.25</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -9594,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -9608,19 +9611,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C225">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D225" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E225">
-        <v>24997.66</v>
+        <v>7523.96</v>
       </c>
       <c r="F225">
-        <v>310871.0000000001</v>
+        <v>443182.814</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -9646,19 +9649,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C226">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D226" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E226">
-        <v>27658.57</v>
+        <v>14940.04</v>
       </c>
       <c r="F226">
-        <v>364864.3700000001</v>
+        <v>249961.31</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -9684,19 +9687,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C227">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D227" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E227">
-        <v>3965.940000000001</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>323427.1</v>
+        <v>0</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -9722,19 +9725,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C228">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E228">
-        <v>15288.45</v>
+        <v>24997.66</v>
       </c>
       <c r="F228">
-        <v>249637.08</v>
+        <v>310871.0000000001</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -9760,19 +9763,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C229">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D229" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E229">
-        <v>14009.0748</v>
+        <v>27658.57</v>
       </c>
       <c r="F229">
-        <v>199225.9142</v>
+        <v>364864.3700000001</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -9798,19 +9801,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C230">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D230" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E230">
-        <v>18477.94</v>
+        <v>3965.940000000001</v>
       </c>
       <c r="F230">
-        <v>183903.92</v>
+        <v>323427.1</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -9836,19 +9839,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C231">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D231" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>15288.45</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>249637.08</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -9874,19 +9877,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C232">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D232" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E232">
-        <v>4129.22</v>
+        <v>14009.0748</v>
       </c>
       <c r="F232">
-        <v>302465.5699999999</v>
+        <v>199225.9142</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -9912,25 +9915,25 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C233">
         <v>2024</v>
       </c>
       <c r="D233" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E233">
-        <v>28850.83</v>
+        <v>18477.94</v>
       </c>
       <c r="F233">
-        <v>323752.01</v>
+        <v>183903.92</v>
       </c>
       <c r="G233">
-        <v>799.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>3578.78</v>
+        <v>0</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -9939,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="K233">
-        <v>14683.68</v>
+        <v>0</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -9950,19 +9953,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C234">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D234" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E234">
-        <v>52083.67</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>166132.1</v>
+        <v>0</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -9988,19 +9991,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C235">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D235" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E235">
-        <v>15565.47</v>
+        <v>4129.22</v>
       </c>
       <c r="F235">
-        <v>425655.52</v>
+        <v>302465.5699999999</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -10026,25 +10029,25 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C236">
         <v>2024</v>
       </c>
       <c r="D236" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E236">
-        <v>25701.42</v>
+        <v>28850.83</v>
       </c>
       <c r="F236">
-        <v>360320.2600000001</v>
+        <v>323752.01</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>799.1900000000001</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3578.78</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -10053,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>14683.68</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -10064,19 +10067,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C237">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D237" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E237">
-        <v>12453.962</v>
+        <v>52083.67</v>
       </c>
       <c r="F237">
-        <v>231551.65</v>
+        <v>166132.1</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -10108,13 +10111,13 @@
         <v>2020</v>
       </c>
       <c r="D238" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E238">
-        <v>18647.5</v>
+        <v>15565.47</v>
       </c>
       <c r="F238">
-        <v>246405.12</v>
+        <v>425655.52</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -10143,19 +10146,19 @@
         <v>184</v>
       </c>
       <c r="C239">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D239" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E239">
-        <v>-17711.21</v>
+        <v>25701.42</v>
       </c>
       <c r="F239">
-        <v>279517.78</v>
+        <v>360320.2600000001</v>
       </c>
       <c r="G239">
-        <v>29922.33</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -10167,10 +10170,10 @@
         <v>0</v>
       </c>
       <c r="K239">
-        <v>5575.93000000005</v>
+        <v>0</v>
       </c>
       <c r="L239">
-        <v>123283.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10178,19 +10181,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C240">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D240" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E240">
-        <v>20535.34</v>
+        <v>12453.962</v>
       </c>
       <c r="F240">
-        <v>358738.48</v>
+        <v>231551.65</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -10202,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -10219,16 +10222,16 @@
         <v>185</v>
       </c>
       <c r="C241">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D241" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E241">
-        <v>11431.24</v>
+        <v>18647.5</v>
       </c>
       <c r="F241">
-        <v>302027.92</v>
+        <v>246405.12</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -10254,22 +10257,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C242">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D242" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E242">
-        <v>165246.91</v>
+        <v>-17711.21</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>279517.78</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>29922.33</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -10281,10 +10284,10 @@
         <v>0</v>
       </c>
       <c r="K242">
-        <v>0</v>
+        <v>5575.93000000005</v>
       </c>
       <c r="L242">
-        <v>331902.21</v>
+        <v>123283.02</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10292,19 +10295,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C243">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D243" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E243">
-        <v>12667.15</v>
+        <v>20535.34</v>
       </c>
       <c r="F243">
-        <v>185435.1</v>
+        <v>358738.48</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -10316,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="J243">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K243">
         <v>0</v>
@@ -10330,22 +10333,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C244">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D244" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E244">
-        <v>27181.54</v>
+        <v>11431.24</v>
       </c>
       <c r="F244">
-        <v>270393.7</v>
+        <v>302027.92</v>
       </c>
       <c r="G244">
-        <v>22089.34</v>
+        <v>0</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -10368,19 +10371,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C245">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D245" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E245">
-        <v>13782.99</v>
+        <v>165246.91</v>
       </c>
       <c r="F245">
-        <v>173930.1379</v>
+        <v>0</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -10398,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="L245">
-        <v>0</v>
+        <v>331902.21</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -10406,19 +10409,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C246">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E246">
-        <v>23535.09</v>
+        <v>12667.15</v>
       </c>
       <c r="F246">
-        <v>323399.7999999999</v>
+        <v>185435.1</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -10444,22 +10447,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C247">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D247" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E247">
-        <v>12212.5</v>
+        <v>27181.54</v>
       </c>
       <c r="F247">
-        <v>258658.12</v>
+        <v>270393.7</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>22089.34</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -10482,19 +10485,19 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C248">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D248" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E248">
-        <v>17895.03</v>
+        <v>13782.99</v>
       </c>
       <c r="F248">
-        <v>235044.78</v>
+        <v>173930.1379</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -10520,19 +10523,19 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C249">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D249" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E249">
-        <v>6061.07</v>
+        <v>23535.09</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>323399.7999999999</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -10558,19 +10561,19 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C250">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D250" t="s">
         <v>230</v>
       </c>
       <c r="E250">
-        <v>81189.56</v>
+        <v>12212.5</v>
       </c>
       <c r="F250">
-        <v>75026.78</v>
+        <v>258658.12</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -10588,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L250">
-        <v>21490.444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -10596,19 +10599,19 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C251">
         <v>2022</v>
       </c>
       <c r="D251" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E251">
-        <v>10737.8</v>
+        <v>17895.03</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>235044.78</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -10617,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="I251">
-        <v>4140.61</v>
+        <v>0</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -10637,28 +10640,28 @@
         <v>193</v>
       </c>
       <c r="C252">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D252" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E252">
-        <v>21322.77</v>
+        <v>6061.07</v>
       </c>
       <c r="F252">
-        <v>357076.81</v>
+        <v>0</v>
       </c>
       <c r="G252">
-        <v>52820.04</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>43173.96</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>71282.87</v>
+        <v>0</v>
       </c>
       <c r="J252">
-        <v>20524.8</v>
+        <v>0</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -10672,19 +10675,19 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C253">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D253" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E253">
-        <v>14383.59</v>
+        <v>81189.56</v>
       </c>
       <c r="F253">
-        <v>387878.64</v>
+        <v>75026.78</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -10699,10 +10702,10 @@
         <v>0</v>
       </c>
       <c r="K253">
-        <v>5575.93</v>
+        <v>0</v>
       </c>
       <c r="L253">
-        <v>24709.7</v>
+        <v>21490.444</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -10713,25 +10716,25 @@
         <v>194</v>
       </c>
       <c r="C254">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D254" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E254">
-        <v>33875.99</v>
+        <v>10737.8</v>
       </c>
       <c r="F254">
-        <v>388449.69</v>
+        <v>0</v>
       </c>
       <c r="G254">
-        <v>41728.31</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>34125.23</v>
+        <v>0</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>4140.61</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -10748,31 +10751,31 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C255">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D255" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E255">
-        <v>25928.52</v>
+        <v>21322.77</v>
       </c>
       <c r="F255">
-        <v>231153.82</v>
+        <v>357076.81</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>52820.04</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>43173.96</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>71282.87</v>
       </c>
       <c r="J255">
-        <v>0</v>
+        <v>20524.8</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -10789,22 +10792,22 @@
         <v>195</v>
       </c>
       <c r="C256">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D256" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E256">
-        <v>24492.98</v>
+        <v>14383.59</v>
       </c>
       <c r="F256">
-        <v>532274.26</v>
+        <v>387878.64</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>13669.61</v>
+        <v>0</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -10813,10 +10816,10 @@
         <v>0</v>
       </c>
       <c r="K256">
-        <v>0</v>
+        <v>5575.93</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>24709.7</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10824,25 +10827,25 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C257">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D257" t="s">
         <v>229</v>
       </c>
       <c r="E257">
-        <v>8419.720000000001</v>
+        <v>33875.99</v>
       </c>
       <c r="F257">
-        <v>54455.82000000001</v>
+        <v>388449.69</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>41728.31</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>34125.23</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -10854,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="L257">
-        <v>395886.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10862,25 +10865,25 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C258">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D258" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E258">
-        <v>22980.59</v>
+        <v>25928.52</v>
       </c>
       <c r="F258">
-        <v>366339.46</v>
+        <v>231153.82</v>
       </c>
       <c r="G258">
         <v>0</v>
       </c>
       <c r="H258">
-        <v>13445.18</v>
+        <v>0</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -10900,25 +10903,25 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C259">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D259" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E259">
-        <v>37216.64</v>
+        <v>24492.98</v>
       </c>
       <c r="F259">
-        <v>242446.69</v>
+        <v>532274.26</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
       <c r="H259">
-        <v>40563.95</v>
+        <v>13669.61</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -10938,19 +10941,19 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C260">
         <v>2021</v>
       </c>
       <c r="D260" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E260">
-        <v>2716.32</v>
+        <v>8419.720000000001</v>
       </c>
       <c r="F260">
-        <v>210682.46</v>
+        <v>54455.82000000001</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -10968,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="L260">
-        <v>0</v>
+        <v>395886.61</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10976,25 +10979,25 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C261">
         <v>2024</v>
       </c>
       <c r="D261" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E261">
-        <v>17759.01</v>
+        <v>22980.59</v>
       </c>
       <c r="F261">
-        <v>386062.43</v>
+        <v>366339.46</v>
       </c>
       <c r="G261">
         <v>0</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>13445.18</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -11014,25 +11017,25 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C262">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D262" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E262">
-        <v>35046.84</v>
+        <v>37216.64</v>
       </c>
       <c r="F262">
-        <v>349849.48</v>
+        <v>242446.69</v>
       </c>
       <c r="G262">
-        <v>11417</v>
+        <v>0</v>
       </c>
       <c r="H262">
-        <v>36470.26</v>
+        <v>40563.95</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -11052,25 +11055,25 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C263">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D263" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E263">
-        <v>33125.15</v>
+        <v>2716.32</v>
       </c>
       <c r="F263">
-        <v>276026.48</v>
+        <v>210682.46</v>
       </c>
       <c r="G263">
-        <v>4909.31</v>
+        <v>0</v>
       </c>
       <c r="H263">
-        <v>38612.49</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -11090,19 +11093,19 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C264">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D264" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E264">
-        <v>11361.71</v>
+        <v>17759.01</v>
       </c>
       <c r="F264">
-        <v>191385.42</v>
+        <v>386062.43</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -11128,25 +11131,25 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C265">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="D265" t="s">
         <v>229</v>
       </c>
       <c r="E265">
-        <v>13383.78</v>
+        <v>35046.84</v>
       </c>
       <c r="F265">
-        <v>233981.11</v>
+        <v>349849.48</v>
       </c>
       <c r="G265">
-        <v>0</v>
+        <v>11417</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>36470.26</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -11169,25 +11172,25 @@
         <v>202</v>
       </c>
       <c r="C266">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D266" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E266">
-        <v>19527.76</v>
+        <v>33125.15</v>
       </c>
       <c r="F266">
-        <v>281243.35</v>
+        <v>276026.48</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>4909.31</v>
       </c>
       <c r="H266">
-        <v>35382.27</v>
+        <v>38612.49</v>
       </c>
       <c r="I266">
-        <v>3798.2</v>
+        <v>0</v>
       </c>
       <c r="J266">
         <v>0</v>
@@ -11196,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="L266">
-        <v>136470.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11207,25 +11210,25 @@
         <v>203</v>
       </c>
       <c r="C267">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D267" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E267">
-        <v>15973.55</v>
+        <v>11361.71</v>
       </c>
       <c r="F267">
-        <v>241464.2</v>
+        <v>191385.42</v>
       </c>
       <c r="G267">
-        <v>1480.2</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>0</v>
       </c>
       <c r="I267">
-        <v>64409.25</v>
+        <v>0</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -11242,19 +11245,19 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C268">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D268" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E268">
-        <v>19888.19</v>
+        <v>13383.78</v>
       </c>
       <c r="F268">
-        <v>211243.48</v>
+        <v>233981.11</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -11280,28 +11283,28 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C269">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D269" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E269">
-        <v>66686.92</v>
+        <v>19527.76</v>
       </c>
       <c r="F269">
-        <v>48945.84</v>
+        <v>281243.35</v>
       </c>
       <c r="G269">
         <v>0</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>35382.27</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>3798.2</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -11310,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="L269">
-        <v>69766.31</v>
+        <v>136470.22</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11318,28 +11321,28 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C270">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D270" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E270">
-        <v>13708.27</v>
+        <v>15973.55</v>
       </c>
       <c r="F270">
-        <v>188165.16</v>
+        <v>241464.2</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1480.2</v>
       </c>
       <c r="H270">
         <v>0</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>64409.25</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -11359,22 +11362,22 @@
         <v>205</v>
       </c>
       <c r="C271">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D271" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E271">
-        <v>26020.53</v>
+        <v>19888.19</v>
       </c>
       <c r="F271">
-        <v>382845.83</v>
+        <v>211243.48</v>
       </c>
       <c r="G271">
-        <v>53550.96</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>36977.6</v>
+        <v>0</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -11394,19 +11397,19 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C272">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D272" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E272">
-        <v>15914.36</v>
+        <v>66686.92</v>
       </c>
       <c r="F272">
-        <v>184039.98</v>
+        <v>48945.84</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -11424,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="L272">
-        <v>0</v>
+        <v>69766.31</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -11435,25 +11438,25 @@
         <v>206</v>
       </c>
       <c r="C273">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D273" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E273">
-        <v>35571.27</v>
+        <v>13708.27</v>
       </c>
       <c r="F273">
-        <v>48616.23</v>
+        <v>188165.16</v>
       </c>
       <c r="G273">
-        <v>37765.32</v>
+        <v>0</v>
       </c>
       <c r="H273">
-        <v>37083.02</v>
+        <v>0</v>
       </c>
       <c r="I273">
-        <v>26413.08</v>
+        <v>0</v>
       </c>
       <c r="J273">
         <v>0</v>
@@ -11462,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="L273">
-        <v>500373.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -11470,25 +11473,25 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C274">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="D274" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E274">
-        <v>11970.44</v>
+        <v>26020.53</v>
       </c>
       <c r="F274">
-        <v>185665.45</v>
+        <v>382845.83</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>53550.96</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>36977.6</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -11508,19 +11511,19 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C275">
         <v>2019</v>
       </c>
       <c r="D275" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>15914.36</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>184039.98</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -11546,28 +11549,28 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C276">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D276" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E276">
-        <v>7061.75</v>
+        <v>35571.27</v>
       </c>
       <c r="F276">
-        <v>311836.39</v>
+        <v>48616.23</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>37765.32</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>37083.02</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>26413.08</v>
       </c>
       <c r="J276">
         <v>0</v>
@@ -11576,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="L276">
-        <v>0</v>
+        <v>500373.46</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -11584,19 +11587,19 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C277">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D277" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E277">
-        <v>11375.6612</v>
+        <v>11970.44</v>
       </c>
       <c r="F277">
-        <v>208083.915</v>
+        <v>185665.45</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -11605,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="I277">
-        <v>8206.629999999999</v>
+        <v>0</v>
       </c>
       <c r="J277">
         <v>0</v>
@@ -11622,13 +11625,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C278">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D278" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -11660,7 +11663,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C279">
         <v>2022</v>
@@ -11669,10 +11672,10 @@
         <v>229</v>
       </c>
       <c r="E279">
-        <v>14072.03</v>
+        <v>7061.75</v>
       </c>
       <c r="F279">
-        <v>294079.49</v>
+        <v>311836.39</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -11698,31 +11701,31 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C280">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D280" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E280">
-        <v>37243.67999999999</v>
+        <v>11375.6612</v>
       </c>
       <c r="F280">
-        <v>318895.57</v>
+        <v>208083.915</v>
       </c>
       <c r="G280">
-        <v>31676.02</v>
+        <v>0</v>
       </c>
       <c r="H280">
-        <v>38268.99</v>
+        <v>0</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>8206.629999999999</v>
       </c>
       <c r="J280">
-        <v>36493.87</v>
+        <v>0</v>
       </c>
       <c r="K280">
         <v>0</v>
@@ -11736,19 +11739,19 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C281">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D281" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E281">
-        <v>13552.64</v>
+        <v>0</v>
       </c>
       <c r="F281">
-        <v>252302.88</v>
+        <v>0</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -11766,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="L281">
-        <v>107916.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -11777,22 +11780,22 @@
         <v>213</v>
       </c>
       <c r="C282">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D282" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E282">
-        <v>20616.62</v>
+        <v>14072.03</v>
       </c>
       <c r="F282">
-        <v>334250.51</v>
+        <v>294079.49</v>
       </c>
       <c r="G282">
         <v>0</v>
       </c>
       <c r="H282">
-        <v>37353.5</v>
+        <v>0</v>
       </c>
       <c r="I282">
         <v>0</v>
@@ -11804,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="L282">
-        <v>9745.719999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -11812,31 +11815,31 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C283">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D283" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>37243.67999999999</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>318895.57</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>31676.02</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>38268.99</v>
       </c>
       <c r="I283">
         <v>0</v>
       </c>
       <c r="J283">
-        <v>0</v>
+        <v>36493.87</v>
       </c>
       <c r="K283">
         <v>0</v>
@@ -11850,22 +11853,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C284">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D284" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E284">
-        <v>13684.59</v>
+        <v>13552.64</v>
       </c>
       <c r="F284">
-        <v>245254.53</v>
+        <v>252302.88</v>
       </c>
       <c r="G284">
-        <v>8968.219999999999</v>
+        <v>0</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -11880,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="L284">
-        <v>0</v>
+        <v>107916.25</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -11888,25 +11891,25 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C285">
         <v>2023</v>
       </c>
       <c r="D285" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E285">
-        <v>71886.29000000001</v>
+        <v>20616.62</v>
       </c>
       <c r="F285">
-        <v>58491.51</v>
+        <v>334250.51</v>
       </c>
       <c r="G285">
         <v>0</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>37353.5</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -11918,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="L285">
-        <v>352857.28</v>
+        <v>9745.719999999999</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -11926,13 +11929,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C286">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D286" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -11964,22 +11967,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C287">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D287" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E287">
-        <v>1625.36</v>
+        <v>13684.59</v>
       </c>
       <c r="F287">
-        <v>422035.45</v>
+        <v>245254.53</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>8968.219999999999</v>
       </c>
       <c r="H287">
         <v>0</v>
@@ -11991,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="K287">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="L287">
         <v>0</v>
@@ -12002,19 +12005,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C288">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D288" t="s">
         <v>232</v>
       </c>
       <c r="E288">
-        <v>26095.1</v>
+        <v>71886.29000000001</v>
       </c>
       <c r="F288">
-        <v>258586.43</v>
+        <v>58491.51</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -12032,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="L288">
-        <v>0</v>
+        <v>352857.28</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12040,22 +12043,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C289">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D289" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E289">
-        <v>8680.48</v>
+        <v>0</v>
       </c>
       <c r="F289">
-        <v>380772.96</v>
+        <v>0</v>
       </c>
       <c r="G289">
-        <v>90838.51999999999</v>
+        <v>0</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -12078,19 +12081,19 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C290">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D290" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E290">
-        <v>27944</v>
+        <v>1625.36</v>
       </c>
       <c r="F290">
-        <v>230888.76</v>
+        <v>422035.45</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -12105,10 +12108,10 @@
         <v>0</v>
       </c>
       <c r="K290">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="L290">
-        <v>23876.1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12116,19 +12119,19 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C291">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D291" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E291">
-        <v>11117.34</v>
+        <v>26095.1</v>
       </c>
       <c r="F291">
-        <v>215912.61</v>
+        <v>258586.43</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -12137,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="I291">
-        <v>22640.28</v>
+        <v>0</v>
       </c>
       <c r="J291">
         <v>0</v>
@@ -12154,22 +12157,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C292">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D292" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E292">
-        <v>1486.41</v>
+        <v>8680.48</v>
       </c>
       <c r="F292">
-        <v>260869.4</v>
+        <v>380772.96</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>90838.51999999999</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -12192,22 +12195,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C293">
         <v>2025</v>
       </c>
       <c r="D293" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E293">
-        <v>28895.31</v>
+        <v>26512.21</v>
       </c>
       <c r="F293">
-        <v>251643.6000000001</v>
+        <v>337917.65</v>
       </c>
       <c r="G293">
-        <v>3379</v>
+        <v>60888.94</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -12219,10 +12222,10 @@
         <v>0</v>
       </c>
       <c r="K293">
-        <v>8029.89</v>
+        <v>0</v>
       </c>
       <c r="L293">
-        <v>52444.52</v>
+        <v>74021.34</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12230,25 +12233,25 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C294">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D294" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E294">
-        <v>21873.41</v>
+        <v>27944</v>
       </c>
       <c r="F294">
-        <v>286728.46</v>
+        <v>230888.76</v>
       </c>
       <c r="G294">
-        <v>57296.15</v>
+        <v>0</v>
       </c>
       <c r="H294">
-        <v>41990.43</v>
+        <v>0</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -12260,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="L294">
-        <v>0</v>
+        <v>23876.1125</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12268,19 +12271,19 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C295">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D295" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E295">
-        <v>5153.03</v>
+        <v>11117.34</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>215912.61</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -12289,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>22640.28</v>
       </c>
       <c r="J295">
         <v>0</v>
@@ -12306,25 +12309,25 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C296">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D296" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E296">
-        <v>33879.14</v>
+        <v>1486.41</v>
       </c>
       <c r="F296">
-        <v>325344.86</v>
+        <v>260869.4</v>
       </c>
       <c r="G296">
-        <v>91485.00999999999</v>
+        <v>0</v>
       </c>
       <c r="H296">
-        <v>39357.69</v>
+        <v>0</v>
       </c>
       <c r="I296">
         <v>0</v>
@@ -12333,10 +12336,10 @@
         <v>0</v>
       </c>
       <c r="K296">
-        <v>63566</v>
+        <v>0</v>
       </c>
       <c r="L296">
-        <v>229812.833425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -12344,36 +12347,188 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C297">
         <v>2025</v>
       </c>
       <c r="D297" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E297">
-        <v>30868.28</v>
+        <v>28895.31</v>
       </c>
       <c r="F297">
+        <v>251643.6000000001</v>
+      </c>
+      <c r="G297">
+        <v>3379</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>8029.89</v>
+      </c>
+      <c r="L297">
+        <v>52444.52</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>224</v>
+      </c>
+      <c r="C298">
+        <v>2023</v>
+      </c>
+      <c r="D298" t="s">
+        <v>238</v>
+      </c>
+      <c r="E298">
+        <v>21873.41</v>
+      </c>
+      <c r="F298">
+        <v>286728.46</v>
+      </c>
+      <c r="G298">
+        <v>57296.15</v>
+      </c>
+      <c r="H298">
+        <v>41990.43</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>225</v>
+      </c>
+      <c r="C299">
+        <v>2024</v>
+      </c>
+      <c r="D299" t="s">
+        <v>230</v>
+      </c>
+      <c r="E299">
+        <v>5153.03</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>226</v>
+      </c>
+      <c r="C300">
+        <v>2025</v>
+      </c>
+      <c r="D300" t="s">
+        <v>238</v>
+      </c>
+      <c r="E300">
+        <v>33879.14</v>
+      </c>
+      <c r="F300">
+        <v>325344.86</v>
+      </c>
+      <c r="G300">
+        <v>91485.00999999999</v>
+      </c>
+      <c r="H300">
+        <v>39357.69</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>63566</v>
+      </c>
+      <c r="L300">
+        <v>229812.833425</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>227</v>
+      </c>
+      <c r="C301">
+        <v>2025</v>
+      </c>
+      <c r="D301" t="s">
+        <v>235</v>
+      </c>
+      <c r="E301">
+        <v>136868.28</v>
+      </c>
+      <c r="F301">
         <v>363209.57</v>
       </c>
-      <c r="G297">
+      <c r="G301">
         <v>65966.92</v>
       </c>
-      <c r="H297">
-        <v>0</v>
-      </c>
-      <c r="I297">
-        <v>0</v>
-      </c>
-      <c r="J297">
-        <v>0</v>
-      </c>
-      <c r="K297">
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
         <v>95933.12</v>
       </c>
-      <c r="L297">
+      <c r="L301">
         <v>60577.37</v>
       </c>
     </row>

--- a/summary/als/grouped_budget.xlsx
+++ b/summary/als/grouped_budget.xlsx
@@ -724,7 +724,7 @@
     <t>Jul</t>
   </si>
   <si>
-    <t>Dec</t>
+    <t>Dic</t>
   </si>
   <si>
     <t>Apr</t>
